--- a/SchulungsUnterlagen/BZU/Mathe.xlsx
+++ b/SchulungsUnterlagen/BZU/Mathe.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\BZU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3313E823-71FF-4373-BF16-1F9FE6D9C360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B19D3A5-69EB-43A8-823B-8B778384B291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{6916D51C-5897-4E1F-8155-1260435C5535}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{6916D51C-5897-4E1F-8155-1260435C5535}"/>
   </bookViews>
   <sheets>
-    <sheet name="Zinses_Zins" sheetId="1" r:id="rId1"/>
-    <sheet name="QuadratischeFunktion" sheetId="2" r:id="rId2"/>
-    <sheet name="LineareFunktion" sheetId="3" r:id="rId3"/>
-    <sheet name="Trigonometrie" sheetId="4" r:id="rId4"/>
-    <sheet name="Sinus" sheetId="5" r:id="rId5"/>
+    <sheet name="Kennlinien" sheetId="6" r:id="rId1"/>
+    <sheet name="Zinses_Zins" sheetId="1" r:id="rId2"/>
+    <sheet name="QuadratischeFunktion" sheetId="2" r:id="rId3"/>
+    <sheet name="LineareFunktion" sheetId="3" r:id="rId4"/>
+    <sheet name="LinFunktion" sheetId="8" r:id="rId5"/>
+    <sheet name="Trigonometrie" sheetId="4" r:id="rId6"/>
+    <sheet name="Sinus" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>Zinseszins</t>
   </si>
@@ -49,12 +51,6 @@
   </si>
   <si>
     <t>p=</t>
-  </si>
-  <si>
-    <t>Laufzeit</t>
-  </si>
-  <si>
-    <t>n=</t>
   </si>
   <si>
     <t>Laufzeit [Year]</t>
@@ -309,6 +305,21 @@
       <t xml:space="preserve"> Zinseszins [CHF]</t>
     </r>
   </si>
+  <si>
+    <t>Jahreszins</t>
+  </si>
+  <si>
+    <t>z=</t>
+  </si>
+  <si>
+    <t>Preis = Gewicht * KiloPreis + Verpackungspreis</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>y = a * x + c</t>
+  </si>
 </sst>
 </file>
 
@@ -394,7 +405,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,8 +430,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -560,11 +577,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -609,7 +716,7 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -618,6 +725,25 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -636,6 +762,555 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Zinses_Zins!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kapital Kn mit Zinseszins [CHF]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Zinses_Zins!$C$9:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Zinses_Zins!$C$10:$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1040.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1061.2079999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1082.4321600000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1104.0808032</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1126.1624192640002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1148.6856676492798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1171.6593810022655</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1195.0925686223109</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1218.9944199947572</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1243.374308394652</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1268.2417945625452</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1293.606630453796</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1319.4787630628721</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1345.8683383241291</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1372.7857050906121</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1400.2414191924245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-387D-4960-ADA4-BDED0508C50E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Zinses_Zins!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kapital Kn ohne Zinseszins [CHF]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Zinses_Zins!$C$9:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Zinses_Zins!$C$11:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1340</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-387D-4960-ADA4-BDED0508C50E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1318992751"/>
+        <c:axId val="1321488127"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1318992751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1321488127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1321488127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1318992751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1453,7 +2128,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2271,7 +2946,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -3473,7 +4148,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -4571,6 +5246,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6635,7 +7350,667 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB3BDDF-E6C9-16B6-65B7-C2B1040628CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="5303" t="39318" r="43000" b="14762"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="273050" y="1885950"/>
+          <a:ext cx="6375400" cy="3003550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>151244</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>16164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600363</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>70969</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Grafik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{963E8474-07BD-D551-CE10-5FFC5A536C60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3193" t="29610" r="56467" b="23654"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7771244" y="1678709"/>
+          <a:ext cx="5783119" cy="3564624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D2F2B7-6D72-D33E-A05A-0001854EA16C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6678,7 +8053,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6721,7 +8096,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6764,7 +8139,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7103,11 +8478,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B994A1D9-A25F-4E12-BF35-6BFB549A7E33}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D8814E-C105-48C7-B711-6A7D83198B42}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7116,24 +8506,24 @@
     <col min="2" max="2" width="29.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:20" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="24">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="32.5" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:20" ht="32.5" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
@@ -7141,28 +8531,29 @@
         <v>2</v>
       </c>
       <c r="C4" s="27">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="32">
+        <f>C3*C4</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
         <v>3</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>5</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -7197,68 +8588,199 @@
       <c r="M9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="N9">
+        <v>11</v>
+      </c>
+      <c r="O9">
+        <v>12</v>
+      </c>
+      <c r="P9">
+        <v>13</v>
+      </c>
+      <c r="Q9">
+        <v>14</v>
+      </c>
+      <c r="R9">
+        <v>15</v>
+      </c>
+      <c r="S9">
+        <v>16</v>
+      </c>
+      <c r="T9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10">
+        <v>31</v>
+      </c>
+      <c r="C10" s="31">
         <f>$C$3*(1+$C$4)^C9</f>
         <v>1000</v>
       </c>
-      <c r="D10">
-        <f t="shared" ref="D10:M10" si="0">$C$3*(1+$C$4)^D9</f>
-        <v>1014.9999999999999</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>1030.2249999999997</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>1045.6783749999995</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>1061.3635506249993</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>1077.2840038843742</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>1093.4432639426398</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>1109.844912901779</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>1126.4925865953057</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>1143.3899753942351</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="0"/>
-        <v>1160.5408250251485</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="D10" s="31">
+        <f t="shared" ref="D10:T10" si="0">$C$3*(1+$C$4)^D9</f>
+        <v>1020</v>
+      </c>
+      <c r="E10" s="31">
+        <f t="shared" si="0"/>
+        <v>1040.4000000000001</v>
+      </c>
+      <c r="F10" s="31">
+        <f t="shared" si="0"/>
+        <v>1061.2079999999999</v>
+      </c>
+      <c r="G10" s="31">
+        <f t="shared" si="0"/>
+        <v>1082.4321600000001</v>
+      </c>
+      <c r="H10" s="31">
+        <f t="shared" si="0"/>
+        <v>1104.0808032</v>
+      </c>
+      <c r="I10" s="31">
+        <f t="shared" si="0"/>
+        <v>1126.1624192640002</v>
+      </c>
+      <c r="J10" s="31">
+        <f t="shared" si="0"/>
+        <v>1148.6856676492798</v>
+      </c>
+      <c r="K10" s="31">
+        <f t="shared" si="0"/>
+        <v>1171.6593810022655</v>
+      </c>
+      <c r="L10" s="31">
+        <f t="shared" si="0"/>
+        <v>1195.0925686223109</v>
+      </c>
+      <c r="M10" s="31">
+        <f t="shared" si="0"/>
+        <v>1218.9944199947572</v>
+      </c>
+      <c r="N10" s="31">
+        <f t="shared" si="0"/>
+        <v>1243.374308394652</v>
+      </c>
+      <c r="O10" s="31">
+        <f t="shared" si="0"/>
+        <v>1268.2417945625452</v>
+      </c>
+      <c r="P10" s="31">
+        <f t="shared" si="0"/>
+        <v>1293.606630453796</v>
+      </c>
+      <c r="Q10" s="31">
+        <f t="shared" si="0"/>
+        <v>1319.4787630628721</v>
+      </c>
+      <c r="R10" s="31">
+        <f t="shared" si="0"/>
+        <v>1345.8683383241291</v>
+      </c>
+      <c r="S10" s="31">
+        <f t="shared" si="0"/>
+        <v>1372.7857050906121</v>
+      </c>
+      <c r="T10" s="31">
+        <f t="shared" si="0"/>
+        <v>1400.2414191924245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C11" s="31">
+        <f>$C$3+($C$5*C9)</f>
+        <v>1000</v>
+      </c>
+      <c r="D11" s="31">
+        <f t="shared" ref="D11:T11" si="1">$C$3+($C$5*D9)</f>
+        <v>1020</v>
+      </c>
+      <c r="E11" s="31">
+        <f t="shared" si="1"/>
+        <v>1040</v>
+      </c>
+      <c r="F11" s="31">
+        <f t="shared" si="1"/>
+        <v>1060</v>
+      </c>
+      <c r="G11" s="31">
+        <f t="shared" si="1"/>
+        <v>1080</v>
+      </c>
+      <c r="H11" s="31">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+      <c r="I11" s="31">
+        <f t="shared" si="1"/>
+        <v>1120</v>
+      </c>
+      <c r="J11" s="31">
+        <f t="shared" si="1"/>
+        <v>1140</v>
+      </c>
+      <c r="K11" s="31">
+        <f t="shared" si="1"/>
+        <v>1160</v>
+      </c>
+      <c r="L11" s="31">
+        <f t="shared" si="1"/>
+        <v>1180</v>
+      </c>
+      <c r="M11" s="31">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="N11" s="31">
+        <f t="shared" si="1"/>
+        <v>1220</v>
+      </c>
+      <c r="O11" s="31">
+        <f t="shared" si="1"/>
+        <v>1240</v>
+      </c>
+      <c r="P11" s="31">
+        <f t="shared" si="1"/>
+        <v>1260</v>
+      </c>
+      <c r="Q11" s="31">
+        <f t="shared" si="1"/>
+        <v>1280</v>
+      </c>
+      <c r="R11" s="31">
+        <f t="shared" si="1"/>
+        <v>1300</v>
+      </c>
+      <c r="S11" s="31">
+        <f t="shared" si="1"/>
+        <v>1320</v>
+      </c>
+      <c r="T11" s="31">
+        <f t="shared" si="1"/>
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27979EBB-26AD-44A4-966E-F549129CFD36}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -7268,7 +8790,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.5">
@@ -7289,7 +8811,7 @@
     <row r="7" spans="1:4" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
       <c r="B7" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="9">
         <v>6</v>
@@ -7301,7 +8823,7 @@
     <row r="8" spans="1:4" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="9">
         <v>6</v>
@@ -7313,7 +8835,7 @@
     <row r="9" spans="1:4" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="9">
         <v>-5</v>
@@ -7327,13 +8849,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -7341,11 +8863,11 @@
         <v>-20</v>
       </c>
       <c r="C14" s="5">
-        <f>$C$7*B14^2+$C$8*B14+$C$9</f>
+        <f t="shared" ref="C14:C54" si="0">$C$7*B14^2+$C$8*B14+$C$9</f>
         <v>2275</v>
       </c>
       <c r="D14" s="5">
-        <f>$D$7*B14^2+$D$8*B14+$D$9</f>
+        <f t="shared" ref="D14:D54" si="1">$D$7*B14^2+$D$8*B14+$D$9</f>
         <v>-715</v>
       </c>
     </row>
@@ -7354,11 +8876,11 @@
         <v>-19</v>
       </c>
       <c r="C15" s="5">
-        <f>$C$7*B15^2+$C$8*B15+$C$9</f>
+        <f t="shared" si="0"/>
         <v>2047</v>
       </c>
       <c r="D15" s="5">
-        <f>$D$7*B15^2+$D$8*B15+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-641</v>
       </c>
     </row>
@@ -7367,11 +8889,11 @@
         <v>-18</v>
       </c>
       <c r="C16" s="5">
-        <f>$C$7*B16^2+$C$8*B16+$C$9</f>
+        <f t="shared" si="0"/>
         <v>1831</v>
       </c>
       <c r="D16" s="5">
-        <f>$D$7*B16^2+$D$8*B16+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-571</v>
       </c>
     </row>
@@ -7380,11 +8902,11 @@
         <v>-17</v>
       </c>
       <c r="C17" s="5">
-        <f>$C$7*B17^2+$C$8*B17+$C$9</f>
+        <f t="shared" si="0"/>
         <v>1627</v>
       </c>
       <c r="D17" s="5">
-        <f>$D$7*B17^2+$D$8*B17+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-505</v>
       </c>
     </row>
@@ -7393,11 +8915,11 @@
         <v>-16</v>
       </c>
       <c r="C18" s="5">
-        <f>$C$7*B18^2+$C$8*B18+$C$9</f>
+        <f t="shared" si="0"/>
         <v>1435</v>
       </c>
       <c r="D18" s="5">
-        <f>$D$7*B18^2+$D$8*B18+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-443</v>
       </c>
     </row>
@@ -7406,11 +8928,11 @@
         <v>-15</v>
       </c>
       <c r="C19" s="5">
-        <f>$C$7*B19^2+$C$8*B19+$C$9</f>
+        <f t="shared" si="0"/>
         <v>1255</v>
       </c>
       <c r="D19" s="5">
-        <f>$D$7*B19^2+$D$8*B19+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-385</v>
       </c>
     </row>
@@ -7419,11 +8941,11 @@
         <v>-14</v>
       </c>
       <c r="C20" s="5">
-        <f>$C$7*B20^2+$C$8*B20+$C$9</f>
+        <f t="shared" si="0"/>
         <v>1087</v>
       </c>
       <c r="D20" s="5">
-        <f>$D$7*B20^2+$D$8*B20+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-331</v>
       </c>
     </row>
@@ -7432,11 +8954,11 @@
         <v>-13</v>
       </c>
       <c r="C21" s="5">
-        <f>$C$7*B21^2+$C$8*B21+$C$9</f>
+        <f t="shared" si="0"/>
         <v>931</v>
       </c>
       <c r="D21" s="5">
-        <f>$D$7*B21^2+$D$8*B21+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-281</v>
       </c>
     </row>
@@ -7445,11 +8967,11 @@
         <v>-12</v>
       </c>
       <c r="C22" s="5">
-        <f>$C$7*B22^2+$C$8*B22+$C$9</f>
+        <f t="shared" si="0"/>
         <v>787</v>
       </c>
       <c r="D22" s="5">
-        <f>$D$7*B22^2+$D$8*B22+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-235</v>
       </c>
     </row>
@@ -7458,11 +8980,11 @@
         <v>-11</v>
       </c>
       <c r="C23" s="5">
-        <f>$C$7*B23^2+$C$8*B23+$C$9</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="D23" s="5">
-        <f>$D$7*B23^2+$D$8*B23+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-193</v>
       </c>
     </row>
@@ -7471,11 +8993,11 @@
         <v>-10</v>
       </c>
       <c r="C24" s="5">
-        <f>$C$7*B24^2+$C$8*B24+$C$9</f>
+        <f t="shared" si="0"/>
         <v>535</v>
       </c>
       <c r="D24" s="5">
-        <f>$D$7*B24^2+$D$8*B24+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-155</v>
       </c>
     </row>
@@ -7484,11 +9006,11 @@
         <v>-9</v>
       </c>
       <c r="C25" s="5">
-        <f>$C$7*B25^2+$C$8*B25+$C$9</f>
+        <f t="shared" si="0"/>
         <v>427</v>
       </c>
       <c r="D25" s="5">
-        <f>$D$7*B25^2+$D$8*B25+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-121</v>
       </c>
     </row>
@@ -7497,11 +9019,11 @@
         <v>-8</v>
       </c>
       <c r="C26" s="5">
-        <f>$C$7*B26^2+$C$8*B26+$C$9</f>
+        <f t="shared" si="0"/>
         <v>331</v>
       </c>
       <c r="D26" s="5">
-        <f>$D$7*B26^2+$D$8*B26+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-91</v>
       </c>
     </row>
@@ -7510,11 +9032,11 @@
         <v>-7</v>
       </c>
       <c r="C27" s="5">
-        <f>$C$7*B27^2+$C$8*B27+$C$9</f>
+        <f t="shared" si="0"/>
         <v>247</v>
       </c>
       <c r="D27" s="5">
-        <f>$D$7*B27^2+$D$8*B27+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-65</v>
       </c>
     </row>
@@ -7523,11 +9045,11 @@
         <v>-6</v>
       </c>
       <c r="C28" s="5">
-        <f>$C$7*B28^2+$C$8*B28+$C$9</f>
+        <f t="shared" si="0"/>
         <v>175</v>
       </c>
       <c r="D28" s="5">
-        <f>$D$7*B28^2+$D$8*B28+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-43</v>
       </c>
     </row>
@@ -7536,11 +9058,11 @@
         <v>-5</v>
       </c>
       <c r="C29" s="5">
-        <f>$C$7*B29^2+$C$8*B29+$C$9</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="D29" s="5">
-        <f>$D$7*B29^2+$D$8*B29+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-25</v>
       </c>
     </row>
@@ -7549,11 +9071,11 @@
         <v>-4</v>
       </c>
       <c r="C30" s="5">
-        <f>$C$7*B30^2+$C$8*B30+$C$9</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="D30" s="5">
-        <f>$D$7*B30^2+$D$8*B30+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-11</v>
       </c>
     </row>
@@ -7562,11 +9084,11 @@
         <v>-3</v>
       </c>
       <c r="C31" s="5">
-        <f>$C$7*B31^2+$C$8*B31+$C$9</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="D31" s="5">
-        <f>$D$7*B31^2+$D$8*B31+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -7575,11 +9097,11 @@
         <v>-2</v>
       </c>
       <c r="C32" s="5">
-        <f>$C$7*B32^2+$C$8*B32+$C$9</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D32" s="5">
-        <f>$D$7*B32^2+$D$8*B32+$D$9</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -7588,11 +9110,11 @@
         <v>-1</v>
       </c>
       <c r="C33" s="5">
-        <f>$C$7*B33^2+$C$8*B33+$C$9</f>
+        <f t="shared" si="0"/>
         <v>-5</v>
       </c>
       <c r="D33" s="5">
-        <f>$D$7*B33^2+$D$8*B33+$D$9</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -7601,11 +9123,11 @@
         <v>0</v>
       </c>
       <c r="C34" s="5">
-        <f>$C$7*B34^2+$C$8*B34+$C$9</f>
+        <f t="shared" si="0"/>
         <v>-5</v>
       </c>
       <c r="D34" s="5">
-        <f>$D$7*B34^2+$D$8*B34+$D$9</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -7614,11 +9136,11 @@
         <v>1</v>
       </c>
       <c r="C35" s="5">
-        <f>$C$7*B35^2+$C$8*B35+$C$9</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D35" s="5">
-        <f>$D$7*B35^2+$D$8*B35+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -7627,11 +9149,11 @@
         <v>2</v>
       </c>
       <c r="C36" s="5">
-        <f>$C$7*B36^2+$C$8*B36+$C$9</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="D36" s="5">
-        <f>$D$7*B36^2+$D$8*B36+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-11</v>
       </c>
     </row>
@@ -7640,11 +9162,11 @@
         <v>3</v>
       </c>
       <c r="C37" s="5">
-        <f>$C$7*B37^2+$C$8*B37+$C$9</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="D37" s="5">
-        <f>$D$7*B37^2+$D$8*B37+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-25</v>
       </c>
     </row>
@@ -7653,11 +9175,11 @@
         <v>4</v>
       </c>
       <c r="C38" s="5">
-        <f>$C$7*B38^2+$C$8*B38+$C$9</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="D38" s="5">
-        <f>$D$7*B38^2+$D$8*B38+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-43</v>
       </c>
     </row>
@@ -7666,11 +9188,11 @@
         <v>5</v>
       </c>
       <c r="C39" s="5">
-        <f>$C$7*B39^2+$C$8*B39+$C$9</f>
+        <f t="shared" si="0"/>
         <v>175</v>
       </c>
       <c r="D39" s="5">
-        <f>$D$7*B39^2+$D$8*B39+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-65</v>
       </c>
     </row>
@@ -7679,11 +9201,11 @@
         <v>6</v>
       </c>
       <c r="C40" s="5">
-        <f>$C$7*B40^2+$C$8*B40+$C$9</f>
+        <f t="shared" si="0"/>
         <v>247</v>
       </c>
       <c r="D40" s="5">
-        <f>$D$7*B40^2+$D$8*B40+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-91</v>
       </c>
     </row>
@@ -7692,11 +9214,11 @@
         <v>7</v>
       </c>
       <c r="C41" s="5">
-        <f>$C$7*B41^2+$C$8*B41+$C$9</f>
+        <f t="shared" si="0"/>
         <v>331</v>
       </c>
       <c r="D41" s="5">
-        <f>$D$7*B41^2+$D$8*B41+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-121</v>
       </c>
     </row>
@@ -7705,11 +9227,11 @@
         <v>8</v>
       </c>
       <c r="C42" s="5">
-        <f>$C$7*B42^2+$C$8*B42+$C$9</f>
+        <f t="shared" si="0"/>
         <v>427</v>
       </c>
       <c r="D42" s="5">
-        <f>$D$7*B42^2+$D$8*B42+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-155</v>
       </c>
     </row>
@@ -7718,11 +9240,11 @@
         <v>9</v>
       </c>
       <c r="C43" s="5">
-        <f>$C$7*B43^2+$C$8*B43+$C$9</f>
+        <f t="shared" si="0"/>
         <v>535</v>
       </c>
       <c r="D43" s="5">
-        <f>$D$7*B43^2+$D$8*B43+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-193</v>
       </c>
     </row>
@@ -7731,11 +9253,11 @@
         <v>10</v>
       </c>
       <c r="C44" s="5">
-        <f>$C$7*B44^2+$C$8*B44+$C$9</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="D44" s="5">
-        <f>$D$7*B44^2+$D$8*B44+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-235</v>
       </c>
     </row>
@@ -7744,11 +9266,11 @@
         <v>11</v>
       </c>
       <c r="C45" s="5">
-        <f>$C$7*B45^2+$C$8*B45+$C$9</f>
+        <f t="shared" si="0"/>
         <v>787</v>
       </c>
       <c r="D45" s="5">
-        <f>$D$7*B45^2+$D$8*B45+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-281</v>
       </c>
     </row>
@@ -7757,11 +9279,11 @@
         <v>12</v>
       </c>
       <c r="C46" s="5">
-        <f>$C$7*B46^2+$C$8*B46+$C$9</f>
+        <f t="shared" si="0"/>
         <v>931</v>
       </c>
       <c r="D46" s="5">
-        <f>$D$7*B46^2+$D$8*B46+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-331</v>
       </c>
     </row>
@@ -7770,11 +9292,11 @@
         <v>13</v>
       </c>
       <c r="C47" s="5">
-        <f>$C$7*B47^2+$C$8*B47+$C$9</f>
+        <f t="shared" si="0"/>
         <v>1087</v>
       </c>
       <c r="D47" s="5">
-        <f>$D$7*B47^2+$D$8*B47+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-385</v>
       </c>
     </row>
@@ -7783,11 +9305,11 @@
         <v>14</v>
       </c>
       <c r="C48" s="5">
-        <f>$C$7*B48^2+$C$8*B48+$C$9</f>
+        <f t="shared" si="0"/>
         <v>1255</v>
       </c>
       <c r="D48" s="5">
-        <f>$D$7*B48^2+$D$8*B48+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-443</v>
       </c>
     </row>
@@ -7796,11 +9318,11 @@
         <v>15</v>
       </c>
       <c r="C49" s="5">
-        <f>$C$7*B49^2+$C$8*B49+$C$9</f>
+        <f t="shared" si="0"/>
         <v>1435</v>
       </c>
       <c r="D49" s="5">
-        <f>$D$7*B49^2+$D$8*B49+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-505</v>
       </c>
     </row>
@@ -7809,11 +9331,11 @@
         <v>16</v>
       </c>
       <c r="C50" s="5">
-        <f>$C$7*B50^2+$C$8*B50+$C$9</f>
+        <f t="shared" si="0"/>
         <v>1627</v>
       </c>
       <c r="D50" s="5">
-        <f>$D$7*B50^2+$D$8*B50+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-571</v>
       </c>
     </row>
@@ -7822,11 +9344,11 @@
         <v>17</v>
       </c>
       <c r="C51" s="5">
-        <f>$C$7*B51^2+$C$8*B51+$C$9</f>
+        <f t="shared" si="0"/>
         <v>1831</v>
       </c>
       <c r="D51" s="5">
-        <f>$D$7*B51^2+$D$8*B51+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-641</v>
       </c>
     </row>
@@ -7835,11 +9357,11 @@
         <v>18</v>
       </c>
       <c r="C52" s="5">
-        <f>$C$7*B52^2+$C$8*B52+$C$9</f>
+        <f t="shared" si="0"/>
         <v>2047</v>
       </c>
       <c r="D52" s="5">
-        <f>$D$7*B52^2+$D$8*B52+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-715</v>
       </c>
     </row>
@@ -7848,11 +9370,11 @@
         <v>19</v>
       </c>
       <c r="C53" s="5">
-        <f>$C$7*B53^2+$C$8*B53+$C$9</f>
+        <f t="shared" si="0"/>
         <v>2275</v>
       </c>
       <c r="D53" s="5">
-        <f>$D$7*B53^2+$D$8*B53+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-793</v>
       </c>
     </row>
@@ -7861,11 +9383,11 @@
         <v>20</v>
       </c>
       <c r="C54" s="5">
-        <f>$C$7*B54^2+$C$8*B54+$C$9</f>
+        <f t="shared" si="0"/>
         <v>2515</v>
       </c>
       <c r="D54" s="5">
-        <f>$D$7*B54^2+$D$8*B54+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-875</v>
       </c>
     </row>
@@ -7876,25 +9398,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528AA531-1975-4BEE-B143-630F780E047A}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="9">
         <v>6</v>
@@ -7906,7 +9428,7 @@
     <row r="9" spans="1:4" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="9">
         <v>-5</v>
@@ -7920,13 +9442,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -7934,11 +9456,11 @@
         <v>-20</v>
       </c>
       <c r="C14" s="5">
-        <f>$C$8*B14+$C$9</f>
+        <f t="shared" ref="C14:C54" si="0">$C$8*B14+$C$9</f>
         <v>-125</v>
       </c>
       <c r="D14" s="5">
-        <f>-$D$8*B14+$D$9</f>
+        <f t="shared" ref="D14:D54" si="1">-$D$8*B14+$D$9</f>
         <v>-75</v>
       </c>
     </row>
@@ -7947,11 +9469,11 @@
         <v>-19</v>
       </c>
       <c r="C15" s="5">
-        <f>$C$8*B15+$C$9</f>
+        <f t="shared" si="0"/>
         <v>-119</v>
       </c>
       <c r="D15" s="5">
-        <f>-$D$8*B15+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-71</v>
       </c>
     </row>
@@ -7960,11 +9482,11 @@
         <v>-18</v>
       </c>
       <c r="C16" s="5">
-        <f>$C$8*B16+$C$9</f>
+        <f t="shared" si="0"/>
         <v>-113</v>
       </c>
       <c r="D16" s="5">
-        <f>-$D$8*B16+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-67</v>
       </c>
     </row>
@@ -7973,11 +9495,11 @@
         <v>-17</v>
       </c>
       <c r="C17" s="5">
-        <f>$C$8*B17+$C$9</f>
+        <f t="shared" si="0"/>
         <v>-107</v>
       </c>
       <c r="D17" s="5">
-        <f>-$D$8*B17+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-63</v>
       </c>
     </row>
@@ -7986,11 +9508,11 @@
         <v>-16</v>
       </c>
       <c r="C18" s="5">
-        <f>$C$8*B18+$C$9</f>
+        <f t="shared" si="0"/>
         <v>-101</v>
       </c>
       <c r="D18" s="5">
-        <f>-$D$8*B18+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-59</v>
       </c>
     </row>
@@ -7999,11 +9521,11 @@
         <v>-15</v>
       </c>
       <c r="C19" s="5">
-        <f>$C$8*B19+$C$9</f>
+        <f t="shared" si="0"/>
         <v>-95</v>
       </c>
       <c r="D19" s="5">
-        <f>-$D$8*B19+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-55</v>
       </c>
     </row>
@@ -8012,11 +9534,11 @@
         <v>-14</v>
       </c>
       <c r="C20" s="5">
-        <f>$C$8*B20+$C$9</f>
+        <f t="shared" si="0"/>
         <v>-89</v>
       </c>
       <c r="D20" s="5">
-        <f>-$D$8*B20+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-51</v>
       </c>
     </row>
@@ -8025,11 +9547,11 @@
         <v>-13</v>
       </c>
       <c r="C21" s="5">
-        <f>$C$8*B21+$C$9</f>
+        <f t="shared" si="0"/>
         <v>-83</v>
       </c>
       <c r="D21" s="5">
-        <f>-$D$8*B21+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-47</v>
       </c>
     </row>
@@ -8038,11 +9560,11 @@
         <v>-12</v>
       </c>
       <c r="C22" s="5">
-        <f>$C$8*B22+$C$9</f>
+        <f t="shared" si="0"/>
         <v>-77</v>
       </c>
       <c r="D22" s="5">
-        <f>-$D$8*B22+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-43</v>
       </c>
     </row>
@@ -8051,11 +9573,11 @@
         <v>-11</v>
       </c>
       <c r="C23" s="5">
-        <f>$C$8*B23+$C$9</f>
+        <f t="shared" si="0"/>
         <v>-71</v>
       </c>
       <c r="D23" s="5">
-        <f>-$D$8*B23+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-39</v>
       </c>
     </row>
@@ -8064,11 +9586,11 @@
         <v>-10</v>
       </c>
       <c r="C24" s="5">
-        <f>$C$8*B24+$C$9</f>
+        <f t="shared" si="0"/>
         <v>-65</v>
       </c>
       <c r="D24" s="5">
-        <f>-$D$8*B24+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-35</v>
       </c>
     </row>
@@ -8077,11 +9599,11 @@
         <v>-9</v>
       </c>
       <c r="C25" s="5">
-        <f>$C$8*B25+$C$9</f>
+        <f t="shared" si="0"/>
         <v>-59</v>
       </c>
       <c r="D25" s="5">
-        <f>-$D$8*B25+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-31</v>
       </c>
     </row>
@@ -8090,11 +9612,11 @@
         <v>-8</v>
       </c>
       <c r="C26" s="5">
-        <f>$C$8*B26+$C$9</f>
+        <f t="shared" si="0"/>
         <v>-53</v>
       </c>
       <c r="D26" s="5">
-        <f>-$D$8*B26+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-27</v>
       </c>
     </row>
@@ -8103,11 +9625,11 @@
         <v>-7</v>
       </c>
       <c r="C27" s="5">
-        <f>$C$8*B27+$C$9</f>
+        <f t="shared" si="0"/>
         <v>-47</v>
       </c>
       <c r="D27" s="5">
-        <f>-$D$8*B27+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-23</v>
       </c>
     </row>
@@ -8116,11 +9638,11 @@
         <v>-6</v>
       </c>
       <c r="C28" s="5">
-        <f>$C$8*B28+$C$9</f>
+        <f t="shared" si="0"/>
         <v>-41</v>
       </c>
       <c r="D28" s="5">
-        <f>-$D$8*B28+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-19</v>
       </c>
     </row>
@@ -8129,11 +9651,11 @@
         <v>-5</v>
       </c>
       <c r="C29" s="5">
-        <f>$C$8*B29+$C$9</f>
+        <f t="shared" si="0"/>
         <v>-35</v>
       </c>
       <c r="D29" s="5">
-        <f>-$D$8*B29+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-15</v>
       </c>
     </row>
@@ -8142,11 +9664,11 @@
         <v>-4</v>
       </c>
       <c r="C30" s="5">
-        <f>$C$8*B30+$C$9</f>
+        <f t="shared" si="0"/>
         <v>-29</v>
       </c>
       <c r="D30" s="5">
-        <f>-$D$8*B30+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-11</v>
       </c>
     </row>
@@ -8155,11 +9677,11 @@
         <v>-3</v>
       </c>
       <c r="C31" s="5">
-        <f>$C$8*B31+$C$9</f>
+        <f t="shared" si="0"/>
         <v>-23</v>
       </c>
       <c r="D31" s="5">
-        <f>-$D$8*B31+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-7</v>
       </c>
     </row>
@@ -8168,11 +9690,11 @@
         <v>-2</v>
       </c>
       <c r="C32" s="5">
-        <f>$C$8*B32+$C$9</f>
+        <f t="shared" si="0"/>
         <v>-17</v>
       </c>
       <c r="D32" s="5">
-        <f>-$D$8*B32+$D$9</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
     </row>
@@ -8181,11 +9703,11 @@
         <v>-1</v>
       </c>
       <c r="C33" s="5">
-        <f>$C$8*B33+$C$9</f>
+        <f t="shared" si="0"/>
         <v>-11</v>
       </c>
       <c r="D33" s="5">
-        <f>-$D$8*B33+$D$9</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -8194,11 +9716,11 @@
         <v>0</v>
       </c>
       <c r="C34" s="5">
-        <f>$C$8*B34+$C$9</f>
+        <f t="shared" si="0"/>
         <v>-5</v>
       </c>
       <c r="D34" s="5">
-        <f>-$D$8*B34+$D$9</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -8207,11 +9729,11 @@
         <v>1</v>
       </c>
       <c r="C35" s="5">
-        <f>$C$8*B35+$C$9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D35" s="5">
-        <f>-$D$8*B35+$D$9</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -8220,11 +9742,11 @@
         <v>2</v>
       </c>
       <c r="C36" s="5">
-        <f>$C$8*B36+$C$9</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D36" s="5">
-        <f>-$D$8*B36+$D$9</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
@@ -8233,11 +9755,11 @@
         <v>3</v>
       </c>
       <c r="C37" s="5">
-        <f>$C$8*B37+$C$9</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D37" s="5">
-        <f>-$D$8*B37+$D$9</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
@@ -8246,11 +9768,11 @@
         <v>4</v>
       </c>
       <c r="C38" s="5">
-        <f>$C$8*B38+$C$9</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="D38" s="5">
-        <f>-$D$8*B38+$D$9</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
@@ -8259,11 +9781,11 @@
         <v>5</v>
       </c>
       <c r="C39" s="5">
-        <f>$C$8*B39+$C$9</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D39" s="5">
-        <f>-$D$8*B39+$D$9</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
@@ -8272,11 +9794,11 @@
         <v>6</v>
       </c>
       <c r="C40" s="5">
-        <f>$C$8*B40+$C$9</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="D40" s="5">
-        <f>-$D$8*B40+$D$9</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
     </row>
@@ -8285,11 +9807,11 @@
         <v>7</v>
       </c>
       <c r="C41" s="5">
-        <f>$C$8*B41+$C$9</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="D41" s="5">
-        <f>-$D$8*B41+$D$9</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
@@ -8298,11 +9820,11 @@
         <v>8</v>
       </c>
       <c r="C42" s="5">
-        <f>$C$8*B42+$C$9</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="D42" s="5">
-        <f>-$D$8*B42+$D$9</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
@@ -8311,11 +9833,11 @@
         <v>9</v>
       </c>
       <c r="C43" s="5">
-        <f>$C$8*B43+$C$9</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="D43" s="5">
-        <f>-$D$8*B43+$D$9</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
@@ -8324,11 +9846,11 @@
         <v>10</v>
       </c>
       <c r="C44" s="5">
-        <f>$C$8*B44+$C$9</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="D44" s="5">
-        <f>-$D$8*B44+$D$9</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -8337,11 +9859,11 @@
         <v>11</v>
       </c>
       <c r="C45" s="5">
-        <f>$C$8*B45+$C$9</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="D45" s="5">
-        <f>-$D$8*B45+$D$9</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
     </row>
@@ -8350,11 +9872,11 @@
         <v>12</v>
       </c>
       <c r="C46" s="5">
-        <f>$C$8*B46+$C$9</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="D46" s="5">
-        <f>-$D$8*B46+$D$9</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
     </row>
@@ -8363,11 +9885,11 @@
         <v>13</v>
       </c>
       <c r="C47" s="5">
-        <f>$C$8*B47+$C$9</f>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="D47" s="5">
-        <f>-$D$8*B47+$D$9</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
     </row>
@@ -8376,11 +9898,11 @@
         <v>14</v>
       </c>
       <c r="C48" s="5">
-        <f>$C$8*B48+$C$9</f>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
       <c r="D48" s="5">
-        <f>-$D$8*B48+$D$9</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
     </row>
@@ -8389,11 +9911,11 @@
         <v>15</v>
       </c>
       <c r="C49" s="5">
-        <f>$C$8*B49+$C$9</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="D49" s="5">
-        <f>-$D$8*B49+$D$9</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
     </row>
@@ -8402,11 +9924,11 @@
         <v>16</v>
       </c>
       <c r="C50" s="5">
-        <f>$C$8*B50+$C$9</f>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="D50" s="5">
-        <f>-$D$8*B50+$D$9</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
     </row>
@@ -8415,11 +9937,11 @@
         <v>17</v>
       </c>
       <c r="C51" s="5">
-        <f>$C$8*B51+$C$9</f>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D51" s="5">
-        <f>-$D$8*B51+$D$9</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
@@ -8428,11 +9950,11 @@
         <v>18</v>
       </c>
       <c r="C52" s="5">
-        <f>$C$8*B52+$C$9</f>
+        <f t="shared" si="0"/>
         <v>103</v>
       </c>
       <c r="D52" s="5">
-        <f>-$D$8*B52+$D$9</f>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
     </row>
@@ -8441,11 +9963,11 @@
         <v>19</v>
       </c>
       <c r="C53" s="5">
-        <f>$C$8*B53+$C$9</f>
+        <f t="shared" si="0"/>
         <v>109</v>
       </c>
       <c r="D53" s="5">
-        <f>-$D$8*B53+$D$9</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
     </row>
@@ -8454,11 +9976,11 @@
         <v>20</v>
       </c>
       <c r="C54" s="5">
-        <f>$C$8*B54+$C$9</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="D54" s="5">
-        <f>-$D$8*B54+$D$9</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
     </row>
@@ -8468,7 +9990,140 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59ABE01B-AF39-4CC4-8BBE-8E12896ECA1C}">
+  <dimension ref="C5:O13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C8" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="35">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="D12" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="37">
+        <v>0</v>
+      </c>
+      <c r="F12" s="37">
+        <v>1</v>
+      </c>
+      <c r="G12" s="37">
+        <v>2</v>
+      </c>
+      <c r="H12" s="37">
+        <v>3</v>
+      </c>
+      <c r="I12" s="37">
+        <v>4</v>
+      </c>
+      <c r="J12" s="37">
+        <v>5</v>
+      </c>
+      <c r="K12" s="37">
+        <v>6</v>
+      </c>
+      <c r="L12" s="37">
+        <v>7</v>
+      </c>
+      <c r="M12" s="37">
+        <v>8</v>
+      </c>
+      <c r="N12" s="37">
+        <v>9</v>
+      </c>
+      <c r="O12" s="38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D13" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="40">
+        <f>$D$8*E12+$D$9</f>
+        <v>1.5</v>
+      </c>
+      <c r="F13" s="40">
+        <f t="shared" ref="F13:O13" si="0">$D$8*F12+$D$9</f>
+        <v>6</v>
+      </c>
+      <c r="G13" s="40">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="H13" s="40">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I13" s="40">
+        <f t="shared" si="0"/>
+        <v>19.5</v>
+      </c>
+      <c r="J13" s="40">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="K13" s="40">
+        <f t="shared" si="0"/>
+        <v>28.5</v>
+      </c>
+      <c r="L13" s="40">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="M13" s="40">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="N13" s="40">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="O13" s="41">
+        <f t="shared" si="0"/>
+        <v>46.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDB315E-FA8E-4BF4-8658-CD212C5676A3}">
   <dimension ref="A1:E79"/>
   <sheetViews>
@@ -8484,12 +10139,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D2" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="17">
         <v>1.5</v>
@@ -8497,7 +10152,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D3" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="17">
         <v>3.14</v>
@@ -8505,13 +10160,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="17">
         <v>20</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" s="17">
         <v>2</v>
@@ -8519,16 +10174,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -8536,1311 +10191,1311 @@
         <v>-720</v>
       </c>
       <c r="C7" s="5">
-        <f>2*PI()*B7/360</f>
+        <f t="shared" ref="C7:C38" si="0">2*PI()*B7/360</f>
         <v>-12.566370614359172</v>
       </c>
       <c r="D7" s="13">
-        <f>SIN(C7)</f>
+        <f t="shared" ref="D7:D38" si="1">SIN(C7)</f>
         <v>4.90059381963448E-16</v>
       </c>
       <c r="E7" s="12">
-        <f>$E$2*SIN($E$4*C7+$E$3)</f>
+        <f t="shared" ref="E7:E38" si="2">$E$2*SIN($E$4*C7+$E$3)</f>
         <v>2.388979374728106E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="5">
-        <f>B7+$B$4</f>
+        <f t="shared" ref="B8:B39" si="3">B7+$B$4</f>
         <v>-700</v>
       </c>
       <c r="C8" s="5">
-        <f>2*PI()*B8/360</f>
+        <f t="shared" si="0"/>
         <v>-12.217304763960305</v>
       </c>
       <c r="D8" s="13">
-        <f>SIN(C8)</f>
+        <f t="shared" si="1"/>
         <v>0.34202014332567049</v>
       </c>
       <c r="E8" s="12">
-        <f>$E$2*SIN($E$4*C8+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-0.96235012731034086</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="5">
-        <f>B8+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-680</v>
       </c>
       <c r="C9" s="5">
-        <f>2*PI()*B9/360</f>
+        <f t="shared" si="0"/>
         <v>-11.868238913561441</v>
       </c>
       <c r="D9" s="13">
-        <f>SIN(C9)</f>
+        <f t="shared" si="1"/>
         <v>0.64278760968653903</v>
       </c>
       <c r="E9" s="12">
-        <f>$E$2*SIN($E$4*C9+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-1.4767949140965784</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="5">
-        <f>B9+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-660</v>
       </c>
       <c r="C10" s="5">
-        <f>2*PI()*B10/360</f>
+        <f t="shared" si="0"/>
         <v>-11.519173063162574</v>
       </c>
       <c r="D10" s="13">
-        <f>SIN(C10)</f>
+        <f t="shared" si="1"/>
         <v>0.86602540378443915</v>
       </c>
       <c r="E10" s="12">
-        <f>$E$2*SIN($E$4*C10+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-1.3002309478297667</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="5">
-        <f>B10+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-640</v>
       </c>
       <c r="C11" s="5">
-        <f>2*PI()*B11/360</f>
+        <f t="shared" si="0"/>
         <v>-11.170107212763709</v>
       </c>
       <c r="D11" s="13">
-        <f>SIN(C11)</f>
+        <f t="shared" si="1"/>
         <v>0.98480775301220813</v>
       </c>
       <c r="E11" s="12">
-        <f>$E$2*SIN($E$4*C11+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-0.51527447061605136</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="5">
-        <f>B11+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-620</v>
       </c>
       <c r="C12" s="5">
-        <f>2*PI()*B12/360</f>
+        <f t="shared" si="0"/>
         <v>-10.821041362364843</v>
       </c>
       <c r="D12" s="13">
-        <f>SIN(C12)</f>
+        <f t="shared" si="1"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E12" s="12">
-        <f>$E$2*SIN($E$4*C12+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>0.51078465803676754</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="5">
-        <f>B12+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-600</v>
       </c>
       <c r="C13" s="5">
-        <f>2*PI()*B13/360</f>
+        <f t="shared" si="0"/>
         <v>-10.471975511965978</v>
       </c>
       <c r="D13" s="13">
-        <f>SIN(C13)</f>
+        <f t="shared" si="1"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="E13" s="12">
-        <f>$E$2*SIN($E$4*C13+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>1.2978419684550384</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="5">
-        <f>B13+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-580</v>
       </c>
       <c r="C14" s="5">
-        <f>2*PI()*B14/360</f>
+        <f t="shared" si="0"/>
         <v>-10.12290966156711</v>
       </c>
       <c r="D14" s="13">
-        <f>SIN(C14)</f>
+        <f t="shared" si="1"/>
         <v>0.64278760968653836</v>
       </c>
       <c r="E14" s="12">
-        <f>$E$2*SIN($E$4*C14+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>1.4776245979263893</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="5">
-        <f>B14+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-560</v>
       </c>
       <c r="C15" s="5">
-        <f>2*PI()*B15/360</f>
+        <f t="shared" si="0"/>
         <v>-9.7738438111682449</v>
       </c>
       <c r="D15" s="13">
-        <f>SIN(C15)</f>
+        <f t="shared" si="1"/>
         <v>0.34202014332566799</v>
       </c>
       <c r="E15" s="12">
-        <f>$E$2*SIN($E$4*C15+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>0.96601025605980984</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="5">
-        <f>B15+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-540</v>
       </c>
       <c r="C16" s="5">
-        <f>2*PI()*B16/360</f>
+        <f t="shared" si="0"/>
         <v>-9.4247779607693793</v>
       </c>
       <c r="D16" s="13">
-        <f>SIN(C16)</f>
+        <f t="shared" si="1"/>
         <v>-3.67544536472586E-16</v>
       </c>
       <c r="E16" s="12">
-        <f>$E$2*SIN($E$4*C16+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>2.3889793747284734E-3</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="5">
-        <f>B16+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-520</v>
       </c>
       <c r="C17" s="5">
-        <f>2*PI()*B17/360</f>
+        <f t="shared" si="0"/>
         <v>-9.0757121103705138</v>
       </c>
       <c r="D17" s="13">
-        <f>SIN(C17)</f>
+        <f t="shared" si="1"/>
         <v>-0.34202014332566871</v>
       </c>
       <c r="E17" s="12">
-        <f>$E$2*SIN($E$4*C17+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-0.96235012731033653</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="5">
-        <f>B17+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-500</v>
       </c>
       <c r="C18" s="5">
-        <f>2*PI()*B18/360</f>
+        <f t="shared" si="0"/>
         <v>-8.7266462599716466</v>
       </c>
       <c r="D18" s="13">
-        <f>SIN(C18)</f>
+        <f t="shared" si="1"/>
         <v>-0.64278760968654036</v>
       </c>
       <c r="E18" s="12">
-        <f>$E$2*SIN($E$4*C18+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-1.4767949140965793</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="5">
-        <f>B18+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-480</v>
       </c>
       <c r="C19" s="5">
-        <f>2*PI()*B19/360</f>
+        <f t="shared" si="0"/>
         <v>-8.3775804095727811</v>
       </c>
       <c r="D19" s="13">
-        <f>SIN(C19)</f>
+        <f t="shared" si="1"/>
         <v>-0.86602540378443915</v>
       </c>
       <c r="E19" s="12">
-        <f>$E$2*SIN($E$4*C19+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-1.3002309478297669</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="5">
-        <f>B19+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-460</v>
       </c>
       <c r="C20" s="5">
-        <f>2*PI()*B20/360</f>
+        <f t="shared" si="0"/>
         <v>-8.0285145591739155</v>
       </c>
       <c r="D20" s="13">
-        <f>SIN(C20)</f>
+        <f t="shared" si="1"/>
         <v>-0.98480775301220813</v>
       </c>
       <c r="E20" s="12">
-        <f>$E$2*SIN($E$4*C20+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-0.51527447061605169</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="5">
-        <f>B20+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-440</v>
       </c>
       <c r="C21" s="5">
-        <f>2*PI()*B21/360</f>
+        <f t="shared" si="0"/>
         <v>-7.67944870877505</v>
       </c>
       <c r="D21" s="13">
-        <f>SIN(C21)</f>
+        <f t="shared" si="1"/>
         <v>-0.98480775301220802</v>
       </c>
       <c r="E21" s="12">
-        <f>$E$2*SIN($E$4*C21+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>0.5107846580367672</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="5">
-        <f>B21+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-420</v>
       </c>
       <c r="C22" s="5">
-        <f>2*PI()*B22/360</f>
+        <f t="shared" si="0"/>
         <v>-7.3303828583761845</v>
       </c>
       <c r="D22" s="13">
-        <f>SIN(C22)</f>
+        <f t="shared" si="1"/>
         <v>-0.86602540378443882</v>
       </c>
       <c r="E22" s="12">
-        <f>$E$2*SIN($E$4*C22+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>1.2978419684550382</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="5">
-        <f>B22+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-400</v>
       </c>
       <c r="C23" s="5">
-        <f>2*PI()*B23/360</f>
+        <f t="shared" si="0"/>
         <v>-6.9813170079773181</v>
       </c>
       <c r="D23" s="13">
-        <f>SIN(C23)</f>
+        <f t="shared" si="1"/>
         <v>-0.64278760968653914</v>
       </c>
       <c r="E23" s="12">
-        <f>$E$2*SIN($E$4*C23+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>1.4776245979263898</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="5">
-        <f>B23+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-380</v>
       </c>
       <c r="C24" s="5">
-        <f>2*PI()*B24/360</f>
+        <f t="shared" si="0"/>
         <v>-6.6322511575784526</v>
       </c>
       <c r="D24" s="13">
-        <f>SIN(C24)</f>
+        <f t="shared" si="1"/>
         <v>-0.34202014332566893</v>
       </c>
       <c r="E24" s="12">
-        <f>$E$2*SIN($E$4*C24+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>0.96601025605981206</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="5">
-        <f>B24+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-360</v>
       </c>
       <c r="C25" s="5">
-        <f>2*PI()*B25/360</f>
+        <f t="shared" si="0"/>
         <v>-6.2831853071795862</v>
       </c>
       <c r="D25" s="13">
-        <f>SIN(C25)</f>
+        <f t="shared" si="1"/>
         <v>2.45029690981724E-16</v>
       </c>
       <c r="E25" s="12">
-        <f>$E$2*SIN($E$4*C25+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>2.3889793747288411E-3</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="5">
-        <f>B25+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-340</v>
       </c>
       <c r="C26" s="5">
-        <f>2*PI()*B26/360</f>
+        <f t="shared" si="0"/>
         <v>-5.9341194567807207</v>
       </c>
       <c r="D26" s="13">
-        <f>SIN(C26)</f>
+        <f t="shared" si="1"/>
         <v>0.3420201433256686</v>
       </c>
       <c r="E26" s="12">
-        <f>$E$2*SIN($E$4*C26+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-0.9623501273103362</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="5">
-        <f>B26+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-320</v>
       </c>
       <c r="C27" s="5">
-        <f>2*PI()*B27/360</f>
+        <f t="shared" si="0"/>
         <v>-5.5850536063818543</v>
       </c>
       <c r="D27" s="13">
-        <f>SIN(C27)</f>
+        <f t="shared" si="1"/>
         <v>0.64278760968653958</v>
       </c>
       <c r="E27" s="12">
-        <f>$E$2*SIN($E$4*C27+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-1.4767949140965786</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="5">
-        <f>B27+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-300</v>
       </c>
       <c r="C28" s="5">
-        <f>2*PI()*B28/360</f>
+        <f t="shared" si="0"/>
         <v>-5.2359877559829888</v>
       </c>
       <c r="D28" s="13">
-        <f>SIN(C28)</f>
+        <f t="shared" si="1"/>
         <v>0.8660254037844386</v>
       </c>
       <c r="E28" s="12">
-        <f>$E$2*SIN($E$4*C28+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-1.3002309478297684</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="5">
-        <f>B28+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-280</v>
       </c>
       <c r="C29" s="5">
-        <f>2*PI()*B29/360</f>
+        <f t="shared" si="0"/>
         <v>-4.8869219055841224</v>
       </c>
       <c r="D29" s="13">
-        <f>SIN(C29)</f>
+        <f t="shared" si="1"/>
         <v>0.98480775301220813</v>
       </c>
       <c r="E29" s="12">
-        <f>$E$2*SIN($E$4*C29+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-0.51527447061605214</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="5">
-        <f>B29+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-260</v>
       </c>
       <c r="C30" s="5">
-        <f>2*PI()*B30/360</f>
+        <f t="shared" si="0"/>
         <v>-4.5378560551852569</v>
       </c>
       <c r="D30" s="13">
-        <f>SIN(C30)</f>
+        <f t="shared" si="1"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E30" s="12">
-        <f>$E$2*SIN($E$4*C30+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>0.51078465803676687</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="5">
-        <f>B30+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-240</v>
       </c>
       <c r="C31" s="5">
-        <f>2*PI()*B31/360</f>
+        <f t="shared" si="0"/>
         <v>-4.1887902047863905</v>
       </c>
       <c r="D31" s="13">
-        <f>SIN(C31)</f>
+        <f t="shared" si="1"/>
         <v>0.86602540378443837</v>
       </c>
       <c r="E31" s="12">
-        <f>$E$2*SIN($E$4*C31+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>1.2978419684550393</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="5">
-        <f>B31+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-220</v>
       </c>
       <c r="C32" s="5">
-        <f>2*PI()*B32/360</f>
+        <f t="shared" si="0"/>
         <v>-3.839724354387525</v>
       </c>
       <c r="D32" s="13">
-        <f>SIN(C32)</f>
+        <f t="shared" si="1"/>
         <v>0.64278760968653925</v>
       </c>
       <c r="E32" s="12">
-        <f>$E$2*SIN($E$4*C32+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>1.4776245979263898</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="5">
-        <f>B32+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-200</v>
       </c>
       <c r="C33" s="5">
-        <f>2*PI()*B33/360</f>
+        <f t="shared" si="0"/>
         <v>-3.4906585039886591</v>
       </c>
       <c r="D33" s="13">
-        <f>SIN(C33)</f>
+        <f t="shared" si="1"/>
         <v>0.34202014332566866</v>
       </c>
       <c r="E33" s="12">
-        <f>$E$2*SIN($E$4*C33+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>0.96601025605981183</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="5">
-        <f>B33+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-180</v>
       </c>
       <c r="C34" s="5">
-        <f>2*PI()*B34/360</f>
+        <f t="shared" si="0"/>
         <v>-3.1415926535897931</v>
       </c>
       <c r="D34" s="13">
-        <f>SIN(C34)</f>
+        <f t="shared" si="1"/>
         <v>-1.22514845490862E-16</v>
       </c>
       <c r="E34" s="12">
-        <f>$E$2*SIN($E$4*C34+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>2.388979374729875E-3</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="5">
-        <f>B34+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-160</v>
       </c>
       <c r="C35" s="5">
-        <f>2*PI()*B35/360</f>
+        <f t="shared" si="0"/>
         <v>-2.7925268031909272</v>
       </c>
       <c r="D35" s="13">
-        <f>SIN(C35)</f>
+        <f t="shared" si="1"/>
         <v>-0.34202014332566888</v>
       </c>
       <c r="E35" s="12">
-        <f>$E$2*SIN($E$4*C35+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-0.96235012731033653</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="5">
-        <f>B35+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-140</v>
       </c>
       <c r="C36" s="5">
-        <f>2*PI()*B36/360</f>
+        <f t="shared" si="0"/>
         <v>-2.4434609527920612</v>
       </c>
       <c r="D36" s="13">
-        <f>SIN(C36)</f>
+        <f t="shared" si="1"/>
         <v>-0.64278760968653947</v>
       </c>
       <c r="E36" s="12">
-        <f>$E$2*SIN($E$4*C36+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-1.4767949140965784</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="5">
-        <f>B36+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-120</v>
       </c>
       <c r="C37" s="5">
-        <f>2*PI()*B37/360</f>
+        <f t="shared" si="0"/>
         <v>-2.0943951023931953</v>
       </c>
       <c r="D37" s="13">
-        <f>SIN(C37)</f>
+        <f t="shared" si="1"/>
         <v>-0.86602540378443871</v>
       </c>
       <c r="E37" s="12">
-        <f>$E$2*SIN($E$4*C37+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-1.3002309478297682</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="5">
-        <f>B37+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
       <c r="C38" s="5">
-        <f>2*PI()*B38/360</f>
+        <f t="shared" si="0"/>
         <v>-1.7453292519943295</v>
       </c>
       <c r="D38" s="13">
-        <f>SIN(C38)</f>
+        <f t="shared" si="1"/>
         <v>-0.98480775301220802</v>
       </c>
       <c r="E38" s="12">
-        <f>$E$2*SIN($E$4*C38+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-0.51527447061605369</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="5">
-        <f>B38+$B$4</f>
+        <f t="shared" si="3"/>
         <v>-80</v>
       </c>
       <c r="C39" s="5">
-        <f>2*PI()*B39/360</f>
+        <f t="shared" ref="C39:C70" si="4">2*PI()*B39/360</f>
         <v>-1.3962634015954636</v>
       </c>
       <c r="D39" s="13">
-        <f>SIN(C39)</f>
+        <f t="shared" ref="D39:D70" si="5">SIN(C39)</f>
         <v>-0.98480775301220802</v>
       </c>
       <c r="E39" s="12">
-        <f>$E$2*SIN($E$4*C39+$E$3)</f>
+        <f t="shared" ref="E39:E70" si="6">$E$2*SIN($E$4*C39+$E$3)</f>
         <v>0.51078465803676654</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="5">
-        <f>B39+$B$4</f>
+        <f t="shared" ref="B40:B71" si="7">B39+$B$4</f>
         <v>-60</v>
       </c>
       <c r="C40" s="5">
-        <f>2*PI()*B40/360</f>
+        <f t="shared" si="4"/>
         <v>-1.0471975511965976</v>
       </c>
       <c r="D40" s="13">
-        <f>SIN(C40)</f>
+        <f t="shared" si="5"/>
         <v>-0.8660254037844386</v>
       </c>
       <c r="E40" s="12">
-        <f>$E$2*SIN($E$4*C40+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>1.2978419684550384</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="5">
-        <f>B40+$B$4</f>
+        <f t="shared" si="7"/>
         <v>-40</v>
       </c>
       <c r="C41" s="5">
-        <f>2*PI()*B41/360</f>
+        <f t="shared" si="4"/>
         <v>-0.69813170079773179</v>
       </c>
       <c r="D41" s="13">
-        <f>SIN(C41)</f>
+        <f t="shared" si="5"/>
         <v>-0.64278760968653925</v>
       </c>
       <c r="E41" s="12">
-        <f>$E$2*SIN($E$4*C41+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>1.4776245979263898</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42" s="5">
-        <f>B41+$B$4</f>
+        <f t="shared" si="7"/>
         <v>-20</v>
       </c>
       <c r="C42" s="5">
-        <f>2*PI()*B42/360</f>
+        <f t="shared" si="4"/>
         <v>-0.3490658503988659</v>
       </c>
       <c r="D42" s="13">
-        <f>SIN(C42)</f>
+        <f t="shared" si="5"/>
         <v>-0.34202014332566871</v>
       </c>
       <c r="E42" s="12">
-        <f>$E$2*SIN($E$4*C42+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>0.96601025605981206</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43" s="5">
-        <f>B42+$B$4</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C43" s="5">
-        <f>2*PI()*B43/360</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D43" s="13">
-        <f>SIN(C43)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E43" s="12">
-        <f>$E$2*SIN($E$4*C43+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>2.3889793747302423E-3</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44" s="5">
-        <f>B43+$B$4</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="C44" s="5">
-        <f>2*PI()*B44/360</f>
+        <f t="shared" si="4"/>
         <v>0.3490658503988659</v>
       </c>
       <c r="D44" s="13">
-        <f>SIN(C44)</f>
+        <f t="shared" si="5"/>
         <v>0.34202014332566871</v>
       </c>
       <c r="E44" s="12">
-        <f>$E$2*SIN($E$4*C44+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>-0.9623501273103362</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B45" s="5">
-        <f>B44+$B$4</f>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="C45" s="5">
-        <f>2*PI()*B45/360</f>
+        <f t="shared" si="4"/>
         <v>0.69813170079773179</v>
       </c>
       <c r="D45" s="13">
-        <f>SIN(C45)</f>
+        <f t="shared" si="5"/>
         <v>0.64278760968653925</v>
       </c>
       <c r="E45" s="12">
-        <f>$E$2*SIN($E$4*C45+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>-1.4767949140965784</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B46" s="5">
-        <f>B45+$B$4</f>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="C46" s="5">
-        <f>2*PI()*B46/360</f>
+        <f t="shared" si="4"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="D46" s="13">
-        <f>SIN(C46)</f>
+        <f t="shared" si="5"/>
         <v>0.8660254037844386</v>
       </c>
       <c r="E46" s="12">
-        <f>$E$2*SIN($E$4*C46+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>-1.3002309478297687</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B47" s="5">
-        <f>B46+$B$4</f>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="C47" s="5">
-        <f>2*PI()*B47/360</f>
+        <f t="shared" si="4"/>
         <v>1.3962634015954636</v>
       </c>
       <c r="D47" s="13">
-        <f>SIN(C47)</f>
+        <f t="shared" si="5"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E47" s="12">
-        <f>$E$2*SIN($E$4*C47+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>-0.51527447061605403</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B48" s="5">
-        <f>B47+$B$4</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="C48" s="5">
-        <f>2*PI()*B48/360</f>
+        <f t="shared" si="4"/>
         <v>1.7453292519943295</v>
       </c>
       <c r="D48" s="13">
-        <f>SIN(C48)</f>
+        <f t="shared" si="5"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E48" s="12">
-        <f>$E$2*SIN($E$4*C48+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>0.5107846580367662</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B49" s="5">
-        <f>B48+$B$4</f>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="C49" s="5">
-        <f>2*PI()*B49/360</f>
+        <f t="shared" si="4"/>
         <v>2.0943951023931953</v>
       </c>
       <c r="D49" s="13">
-        <f>SIN(C49)</f>
+        <f t="shared" si="5"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="E49" s="12">
-        <f>$E$2*SIN($E$4*C49+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>1.2978419684550377</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50" s="5">
-        <f>B49+$B$4</f>
+        <f t="shared" si="7"/>
         <v>140</v>
       </c>
       <c r="C50" s="5">
-        <f>2*PI()*B50/360</f>
+        <f t="shared" si="4"/>
         <v>2.4434609527920612</v>
       </c>
       <c r="D50" s="13">
-        <f>SIN(C50)</f>
+        <f t="shared" si="5"/>
         <v>0.64278760968653947</v>
       </c>
       <c r="E50" s="12">
-        <f>$E$2*SIN($E$4*C50+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>1.4776245979263898</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51" s="5">
-        <f>B50+$B$4</f>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="C51" s="5">
-        <f>2*PI()*B51/360</f>
+        <f t="shared" si="4"/>
         <v>2.7925268031909272</v>
       </c>
       <c r="D51" s="13">
-        <f>SIN(C51)</f>
+        <f t="shared" si="5"/>
         <v>0.34202014332566888</v>
       </c>
       <c r="E51" s="12">
-        <f>$E$2*SIN($E$4*C51+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>0.96601025605981294</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52" s="5">
-        <f>B51+$B$4</f>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="C52" s="5">
-        <f>2*PI()*B52/360</f>
+        <f t="shared" si="4"/>
         <v>3.1415926535897931</v>
       </c>
       <c r="D52" s="13">
-        <f>SIN(C52)</f>
+        <f t="shared" si="5"/>
         <v>1.22514845490862E-16</v>
       </c>
       <c r="E52" s="12">
-        <f>$E$2*SIN($E$4*C52+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>2.3889793747299435E-3</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B53" s="5">
-        <f>B52+$B$4</f>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="C53" s="5">
-        <f>2*PI()*B53/360</f>
+        <f t="shared" si="4"/>
         <v>3.4906585039886591</v>
       </c>
       <c r="D53" s="13">
-        <f>SIN(C53)</f>
+        <f t="shared" si="5"/>
         <v>-0.34202014332566866</v>
       </c>
       <c r="E53" s="12">
-        <f>$E$2*SIN($E$4*C53+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>-0.96235012731033542</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B54" s="5">
-        <f>B53+$B$4</f>
+        <f t="shared" si="7"/>
         <v>220</v>
       </c>
       <c r="C54" s="5">
-        <f>2*PI()*B54/360</f>
+        <f t="shared" si="4"/>
         <v>3.839724354387525</v>
       </c>
       <c r="D54" s="13">
-        <f>SIN(C54)</f>
+        <f t="shared" si="5"/>
         <v>-0.64278760968653925</v>
       </c>
       <c r="E54" s="12">
-        <f>$E$2*SIN($E$4*C54+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>-1.4767949140965784</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B55" s="5">
-        <f>B54+$B$4</f>
+        <f t="shared" si="7"/>
         <v>240</v>
       </c>
       <c r="C55" s="5">
-        <f>2*PI()*B55/360</f>
+        <f t="shared" si="4"/>
         <v>4.1887902047863905</v>
       </c>
       <c r="D55" s="13">
-        <f>SIN(C55)</f>
+        <f t="shared" si="5"/>
         <v>-0.86602540378443837</v>
       </c>
       <c r="E55" s="12">
-        <f>$E$2*SIN($E$4*C55+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>-1.3002309478297689</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B56" s="5">
-        <f>B55+$B$4</f>
+        <f t="shared" si="7"/>
         <v>260</v>
       </c>
       <c r="C56" s="5">
-        <f>2*PI()*B56/360</f>
+        <f t="shared" si="4"/>
         <v>4.5378560551852569</v>
       </c>
       <c r="D56" s="13">
-        <f>SIN(C56)</f>
+        <f t="shared" si="5"/>
         <v>-0.98480775301220802</v>
       </c>
       <c r="E56" s="12">
-        <f>$E$2*SIN($E$4*C56+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>-0.51527447061605314</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B57" s="5">
-        <f>B56+$B$4</f>
+        <f t="shared" si="7"/>
         <v>280</v>
       </c>
       <c r="C57" s="5">
-        <f>2*PI()*B57/360</f>
+        <f t="shared" si="4"/>
         <v>4.8869219055841224</v>
       </c>
       <c r="D57" s="13">
-        <f>SIN(C57)</f>
+        <f t="shared" si="5"/>
         <v>-0.98480775301220813</v>
       </c>
       <c r="E57" s="12">
-        <f>$E$2*SIN($E$4*C57+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>0.51078465803676587</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B58" s="5">
-        <f>B57+$B$4</f>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="C58" s="5">
-        <f>2*PI()*B58/360</f>
+        <f t="shared" si="4"/>
         <v>5.2359877559829888</v>
       </c>
       <c r="D58" s="13">
-        <f>SIN(C58)</f>
+        <f t="shared" si="5"/>
         <v>-0.8660254037844386</v>
       </c>
       <c r="E58" s="12">
-        <f>$E$2*SIN($E$4*C58+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>1.2978419684550389</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B59" s="5">
-        <f>B58+$B$4</f>
+        <f t="shared" si="7"/>
         <v>320</v>
       </c>
       <c r="C59" s="5">
-        <f>2*PI()*B59/360</f>
+        <f t="shared" si="4"/>
         <v>5.5850536063818543</v>
       </c>
       <c r="D59" s="13">
-        <f>SIN(C59)</f>
+        <f t="shared" si="5"/>
         <v>-0.64278760968653958</v>
       </c>
       <c r="E59" s="12">
-        <f>$E$2*SIN($E$4*C59+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>1.4776245979263898</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B60" s="5">
-        <f>B59+$B$4</f>
+        <f t="shared" si="7"/>
         <v>340</v>
       </c>
       <c r="C60" s="5">
-        <f>2*PI()*B60/360</f>
+        <f t="shared" si="4"/>
         <v>5.9341194567807207</v>
       </c>
       <c r="D60" s="13">
-        <f>SIN(C60)</f>
+        <f t="shared" si="5"/>
         <v>-0.3420201433256686</v>
       </c>
       <c r="E60" s="12">
-        <f>$E$2*SIN($E$4*C60+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>0.96601025605981117</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B61" s="5">
-        <f>B60+$B$4</f>
+        <f t="shared" si="7"/>
         <v>360</v>
       </c>
       <c r="C61" s="5">
-        <f>2*PI()*B61/360</f>
+        <f t="shared" si="4"/>
         <v>6.2831853071795862</v>
       </c>
       <c r="D61" s="13">
-        <f>SIN(C61)</f>
+        <f t="shared" si="5"/>
         <v>-2.45029690981724E-16</v>
       </c>
       <c r="E61" s="12">
-        <f>$E$2*SIN($E$4*C61+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>2.3889793747303113E-3</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B62" s="5">
-        <f>B61+$B$4</f>
+        <f t="shared" si="7"/>
         <v>380</v>
       </c>
       <c r="C62" s="5">
-        <f>2*PI()*B62/360</f>
+        <f t="shared" si="4"/>
         <v>6.6322511575784526</v>
       </c>
       <c r="D62" s="13">
-        <f>SIN(C62)</f>
+        <f t="shared" si="5"/>
         <v>0.34202014332566893</v>
       </c>
       <c r="E62" s="12">
-        <f>$E$2*SIN($E$4*C62+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>-0.96235012731033498</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B63" s="5">
-        <f>B62+$B$4</f>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="C63" s="5">
-        <f>2*PI()*B63/360</f>
+        <f t="shared" si="4"/>
         <v>6.9813170079773181</v>
       </c>
       <c r="D63" s="13">
-        <f>SIN(C63)</f>
+        <f t="shared" si="5"/>
         <v>0.64278760968653914</v>
       </c>
       <c r="E63" s="12">
-        <f>$E$2*SIN($E$4*C63+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>-1.4767949140965779</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B64" s="5">
-        <f>B63+$B$4</f>
+        <f t="shared" si="7"/>
         <v>420</v>
       </c>
       <c r="C64" s="5">
-        <f>2*PI()*B64/360</f>
+        <f t="shared" si="4"/>
         <v>7.3303828583761845</v>
       </c>
       <c r="D64" s="13">
-        <f>SIN(C64)</f>
+        <f t="shared" si="5"/>
         <v>0.86602540378443882</v>
       </c>
       <c r="E64" s="12">
-        <f>$E$2*SIN($E$4*C64+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>-1.3002309478297678</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B65" s="5">
-        <f>B64+$B$4</f>
+        <f t="shared" si="7"/>
         <v>440</v>
       </c>
       <c r="C65" s="5">
-        <f>2*PI()*B65/360</f>
+        <f t="shared" si="4"/>
         <v>7.67944870877505</v>
       </c>
       <c r="D65" s="13">
-        <f>SIN(C65)</f>
+        <f t="shared" si="5"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E65" s="12">
-        <f>$E$2*SIN($E$4*C65+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>-0.51527447061605347</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B66" s="5">
-        <f>B65+$B$4</f>
+        <f t="shared" si="7"/>
         <v>460</v>
       </c>
       <c r="C66" s="5">
-        <f>2*PI()*B66/360</f>
+        <f t="shared" si="4"/>
         <v>8.0285145591739155</v>
       </c>
       <c r="D66" s="13">
-        <f>SIN(C66)</f>
+        <f t="shared" si="5"/>
         <v>0.98480775301220813</v>
       </c>
       <c r="E66" s="12">
-        <f>$E$2*SIN($E$4*C66+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>0.51078465803676543</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B67" s="5">
-        <f>B66+$B$4</f>
+        <f t="shared" si="7"/>
         <v>480</v>
       </c>
       <c r="C67" s="5">
-        <f>2*PI()*B67/360</f>
+        <f t="shared" si="4"/>
         <v>8.3775804095727811</v>
       </c>
       <c r="D67" s="13">
-        <f>SIN(C67)</f>
+        <f t="shared" si="5"/>
         <v>0.86602540378443915</v>
       </c>
       <c r="E67" s="12">
-        <f>$E$2*SIN($E$4*C67+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>1.2978419684550373</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B68" s="5">
-        <f>B67+$B$4</f>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="C68" s="5">
-        <f>2*PI()*B68/360</f>
+        <f t="shared" si="4"/>
         <v>8.7266462599716466</v>
       </c>
       <c r="D68" s="13">
-        <f>SIN(C68)</f>
+        <f t="shared" si="5"/>
         <v>0.64278760968654036</v>
       </c>
       <c r="E68" s="12">
-        <f>$E$2*SIN($E$4*C68+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>1.4776245979263904</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B69" s="5">
-        <f>B68+$B$4</f>
+        <f t="shared" si="7"/>
         <v>520</v>
       </c>
       <c r="C69" s="5">
-        <f>2*PI()*B69/360</f>
+        <f t="shared" si="4"/>
         <v>9.0757121103705138</v>
       </c>
       <c r="D69" s="13">
-        <f>SIN(C69)</f>
+        <f t="shared" si="5"/>
         <v>0.34202014332566871</v>
       </c>
       <c r="E69" s="12">
-        <f>$E$2*SIN($E$4*C69+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>0.96601025605981139</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B70" s="5">
-        <f>B69+$B$4</f>
+        <f t="shared" si="7"/>
         <v>540</v>
       </c>
       <c r="C70" s="5">
-        <f>2*PI()*B70/360</f>
+        <f t="shared" si="4"/>
         <v>9.4247779607693793</v>
       </c>
       <c r="D70" s="13">
-        <f>SIN(C70)</f>
+        <f t="shared" si="5"/>
         <v>3.67544536472586E-16</v>
       </c>
       <c r="E70" s="12">
-        <f>$E$2*SIN($E$4*C70+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>2.3889793747306791E-3</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B71" s="5">
-        <f>B70+$B$4</f>
+        <f t="shared" si="7"/>
         <v>560</v>
       </c>
       <c r="C71" s="5">
-        <f>2*PI()*B71/360</f>
+        <f t="shared" ref="C71:C102" si="8">2*PI()*B71/360</f>
         <v>9.7738438111682449</v>
       </c>
       <c r="D71" s="13">
-        <f>SIN(C71)</f>
+        <f t="shared" ref="D71:D102" si="9">SIN(C71)</f>
         <v>-0.34202014332566799</v>
       </c>
       <c r="E71" s="12">
-        <f>$E$2*SIN($E$4*C71+$E$3)</f>
+        <f t="shared" ref="E71:E79" si="10">$E$2*SIN($E$4*C71+$E$3)</f>
         <v>-0.96235012731033487</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B72" s="5">
-        <f>B71+$B$4</f>
+        <f t="shared" ref="B72:B79" si="11">B71+$B$4</f>
         <v>580</v>
       </c>
       <c r="C72" s="5">
-        <f>2*PI()*B72/360</f>
+        <f t="shared" si="8"/>
         <v>10.12290966156711</v>
       </c>
       <c r="D72" s="13">
-        <f>SIN(C72)</f>
+        <f t="shared" si="9"/>
         <v>-0.64278760968653836</v>
       </c>
       <c r="E72" s="12">
-        <f>$E$2*SIN($E$4*C72+$E$3)</f>
+        <f t="shared" si="10"/>
         <v>-1.4767949140965779</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B73" s="5">
-        <f>B72+$B$4</f>
+        <f t="shared" si="11"/>
         <v>600</v>
       </c>
       <c r="C73" s="5">
-        <f>2*PI()*B73/360</f>
+        <f t="shared" si="8"/>
         <v>10.471975511965978</v>
       </c>
       <c r="D73" s="13">
-        <f>SIN(C73)</f>
+        <f t="shared" si="9"/>
         <v>-0.86602540378443871</v>
       </c>
       <c r="E73" s="12">
-        <f>$E$2*SIN($E$4*C73+$E$3)</f>
+        <f t="shared" si="10"/>
         <v>-1.300230947829768</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B74" s="5">
-        <f>B73+$B$4</f>
+        <f t="shared" si="11"/>
         <v>620</v>
       </c>
       <c r="C74" s="5">
-        <f>2*PI()*B74/360</f>
+        <f t="shared" si="8"/>
         <v>10.821041362364843</v>
       </c>
       <c r="D74" s="13">
-        <f>SIN(C74)</f>
+        <f t="shared" si="9"/>
         <v>-0.98480775301220802</v>
       </c>
       <c r="E74" s="12">
-        <f>$E$2*SIN($E$4*C74+$E$3)</f>
+        <f t="shared" si="10"/>
         <v>-0.5152744706160538</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B75" s="5">
-        <f>B74+$B$4</f>
+        <f t="shared" si="11"/>
         <v>640</v>
       </c>
       <c r="C75" s="5">
-        <f>2*PI()*B75/360</f>
+        <f t="shared" si="8"/>
         <v>11.170107212763709</v>
       </c>
       <c r="D75" s="13">
-        <f>SIN(C75)</f>
+        <f t="shared" si="9"/>
         <v>-0.98480775301220813</v>
       </c>
       <c r="E75" s="12">
-        <f>$E$2*SIN($E$4*C75+$E$3)</f>
+        <f t="shared" si="10"/>
         <v>0.51078465803676509</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B76" s="5">
-        <f>B75+$B$4</f>
+        <f t="shared" si="11"/>
         <v>660</v>
       </c>
       <c r="C76" s="5">
-        <f>2*PI()*B76/360</f>
+        <f t="shared" si="8"/>
         <v>11.519173063162574</v>
       </c>
       <c r="D76" s="13">
-        <f>SIN(C76)</f>
+        <f t="shared" si="9"/>
         <v>-0.86602540378443915</v>
       </c>
       <c r="E76" s="12">
-        <f>$E$2*SIN($E$4*C76+$E$3)</f>
+        <f t="shared" si="10"/>
         <v>1.2978419684550371</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B77" s="5">
-        <f>B76+$B$4</f>
+        <f t="shared" si="11"/>
         <v>680</v>
       </c>
       <c r="C77" s="5">
-        <f>2*PI()*B77/360</f>
+        <f t="shared" si="8"/>
         <v>11.868238913561441</v>
       </c>
       <c r="D77" s="13">
-        <f>SIN(C77)</f>
+        <f t="shared" si="9"/>
         <v>-0.64278760968653903</v>
       </c>
       <c r="E77" s="12">
-        <f>$E$2*SIN($E$4*C77+$E$3)</f>
+        <f t="shared" si="10"/>
         <v>1.4776245979263896</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B78" s="5">
-        <f>B77+$B$4</f>
+        <f t="shared" si="11"/>
         <v>700</v>
       </c>
       <c r="C78" s="5">
-        <f>2*PI()*B78/360</f>
+        <f t="shared" si="8"/>
         <v>12.217304763960305</v>
       </c>
       <c r="D78" s="13">
-        <f>SIN(C78)</f>
+        <f t="shared" si="9"/>
         <v>-0.34202014332567049</v>
       </c>
       <c r="E78" s="12">
-        <f>$E$2*SIN($E$4*C78+$E$3)</f>
+        <f t="shared" si="10"/>
         <v>0.96601025605981583</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B79" s="5">
-        <f>B78+$B$4</f>
+        <f t="shared" si="11"/>
         <v>720</v>
       </c>
       <c r="C79" s="5">
-        <f>2*PI()*B79/360</f>
+        <f t="shared" si="8"/>
         <v>12.566370614359172</v>
       </c>
       <c r="D79" s="13">
-        <f>SIN(C79)</f>
+        <f t="shared" si="9"/>
         <v>-4.90059381963448E-16</v>
       </c>
       <c r="E79" s="12">
-        <f>$E$2*SIN($E$4*C79+$E$3)</f>
+        <f t="shared" si="10"/>
         <v>2.3889793747310464E-3</v>
       </c>
     </row>
@@ -9850,7 +11505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7384F8D4-2EE4-402A-A3D1-82575B13571C}">
   <dimension ref="A2:E55"/>
   <sheetViews>
@@ -9865,7 +11520,7 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C2" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="17">
@@ -9874,13 +11529,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="17">
         <v>20</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="17">
@@ -9889,16 +11544,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -9906,915 +11561,915 @@
         <v>-360</v>
       </c>
       <c r="C5" s="5">
-        <f>2*PI()*B5/360</f>
+        <f t="shared" ref="C5:C36" si="0">2*PI()*B5/360</f>
         <v>-6.2831853071795862</v>
       </c>
       <c r="D5" s="5">
-        <f>SIN(C5)</f>
+        <f t="shared" ref="D5:D36" si="1">SIN(C5)</f>
         <v>2.45029690981724E-16</v>
       </c>
       <c r="E5" s="5">
-        <f>$E$2*SIN(C5+$E$3)</f>
+        <f t="shared" ref="E5:E36" si="2">$E$2*SIN(C5+$E$3)</f>
         <v>0.71913830790630484</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="5">
-        <f>B5+$B$3</f>
+        <f t="shared" ref="B6:B37" si="3">B5+$B$3</f>
         <v>-340</v>
       </c>
       <c r="C6" s="5">
-        <f>2*PI()*B6/360</f>
+        <f t="shared" si="0"/>
         <v>-5.9341194567807207</v>
       </c>
       <c r="D6" s="5">
-        <f>SIN(C6)</f>
+        <f t="shared" si="1"/>
         <v>0.3420201433256686</v>
       </c>
       <c r="E6" s="5">
-        <f>$E$2*SIN(C6+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>1.1259953316607978</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" s="5">
-        <f>B6+$B$3</f>
+        <f t="shared" si="3"/>
         <v>-320</v>
       </c>
       <c r="C7" s="5">
-        <f>2*PI()*B7/360</f>
+        <f t="shared" si="0"/>
         <v>-5.5850536063818543</v>
       </c>
       <c r="D7" s="5">
-        <f>SIN(C7)</f>
+        <f t="shared" si="1"/>
         <v>0.64278760968653958</v>
       </c>
       <c r="E7" s="5">
-        <f>$E$2*SIN(C7+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>1.3970407004957626</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="5">
-        <f>B7+$B$3</f>
+        <f t="shared" si="3"/>
         <v>-300</v>
       </c>
       <c r="C8" s="5">
-        <f>2*PI()*B8/360</f>
+        <f t="shared" si="0"/>
         <v>-5.2359877559829888</v>
       </c>
       <c r="D8" s="5">
-        <f>SIN(C8)</f>
+        <f t="shared" si="1"/>
         <v>0.8660254037844386</v>
       </c>
       <c r="E8" s="5">
-        <f>$E$2*SIN(C8+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>1.4995823427260906</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="5">
-        <f>B8+$B$3</f>
+        <f t="shared" si="3"/>
         <v>-280</v>
       </c>
       <c r="C9" s="5">
-        <f>2*PI()*B9/360</f>
+        <f t="shared" si="0"/>
         <v>-4.8869219055841224</v>
       </c>
       <c r="D9" s="5">
-        <f>SIN(C9)</f>
+        <f t="shared" si="1"/>
         <v>0.98480775301220813</v>
       </c>
       <c r="E9" s="5">
-        <f>$E$2*SIN(C9+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>1.4212522229453417</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="5">
-        <f>B9+$B$3</f>
+        <f t="shared" si="3"/>
         <v>-260</v>
       </c>
       <c r="C10" s="5">
-        <f>2*PI()*B10/360</f>
+        <f t="shared" si="0"/>
         <v>-4.5378560551852569</v>
       </c>
       <c r="D10" s="5">
-        <f>SIN(C10)</f>
+        <f t="shared" si="1"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E10" s="5">
-        <f>$E$2*SIN(C10+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>1.1714981096285229</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="5">
-        <f>B10+$B$3</f>
+        <f t="shared" si="3"/>
         <v>-240</v>
       </c>
       <c r="C11" s="5">
-        <f>2*PI()*B11/360</f>
+        <f t="shared" si="0"/>
         <v>-4.1887902047863905</v>
       </c>
       <c r="D11" s="5">
-        <f>SIN(C11)</f>
+        <f t="shared" si="1"/>
         <v>0.86602540378443837</v>
       </c>
       <c r="E11" s="5">
-        <f>$E$2*SIN(C11+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>0.78044403481978541</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="5">
-        <f>B11+$B$3</f>
+        <f t="shared" si="3"/>
         <v>-220</v>
       </c>
       <c r="C12" s="5">
-        <f>2*PI()*B12/360</f>
+        <f t="shared" si="0"/>
         <v>-3.839724354387525</v>
       </c>
       <c r="D12" s="5">
-        <f>SIN(C12)</f>
+        <f t="shared" si="1"/>
         <v>0.64278760968653925</v>
       </c>
       <c r="E12" s="5">
-        <f>$E$2*SIN(C12+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>0.29525689128454391</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="5">
-        <f>B12+$B$3</f>
+        <f t="shared" si="3"/>
         <v>-200</v>
       </c>
       <c r="C13" s="5">
-        <f>2*PI()*B13/360</f>
+        <f t="shared" si="0"/>
         <v>-3.4906585039886591</v>
       </c>
       <c r="D13" s="5">
-        <f>SIN(C13)</f>
+        <f t="shared" si="1"/>
         <v>0.34202014332566866</v>
       </c>
       <c r="E13" s="5">
-        <f>$E$2*SIN(C13+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-0.22554259086723971</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="5">
-        <f>B13+$B$3</f>
+        <f t="shared" si="3"/>
         <v>-180</v>
       </c>
       <c r="C14" s="5">
-        <f>2*PI()*B14/360</f>
+        <f t="shared" si="0"/>
         <v>-3.1415926535897931</v>
       </c>
       <c r="D14" s="5">
-        <f>SIN(C14)</f>
+        <f t="shared" si="1"/>
         <v>-1.22514845490862E-16</v>
       </c>
       <c r="E14" s="5">
-        <f>$E$2*SIN(C14+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-0.71913830790630473</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="5">
-        <f>B14+$B$3</f>
+        <f t="shared" si="3"/>
         <v>-160</v>
       </c>
       <c r="C15" s="5">
-        <f>2*PI()*B15/360</f>
+        <f t="shared" si="0"/>
         <v>-2.7925268031909272</v>
       </c>
       <c r="D15" s="5">
-        <f>SIN(C15)</f>
+        <f t="shared" si="1"/>
         <v>-0.34202014332566888</v>
       </c>
       <c r="E15" s="5">
-        <f>$E$2*SIN(C15+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-1.1259953316607982</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="5">
-        <f>B15+$B$3</f>
+        <f t="shared" si="3"/>
         <v>-140</v>
       </c>
       <c r="C16" s="5">
-        <f>2*PI()*B16/360</f>
+        <f t="shared" si="0"/>
         <v>-2.4434609527920612</v>
       </c>
       <c r="D16" s="5">
-        <f>SIN(C16)</f>
+        <f t="shared" si="1"/>
         <v>-0.64278760968653947</v>
       </c>
       <c r="E16" s="5">
-        <f>$E$2*SIN(C16+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-1.3970407004957626</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="5">
-        <f>B16+$B$3</f>
+        <f t="shared" si="3"/>
         <v>-120</v>
       </c>
       <c r="C17" s="5">
-        <f>2*PI()*B17/360</f>
+        <f t="shared" si="0"/>
         <v>-2.0943951023931953</v>
       </c>
       <c r="D17" s="5">
-        <f>SIN(C17)</f>
+        <f t="shared" si="1"/>
         <v>-0.86602540378443871</v>
       </c>
       <c r="E17" s="5">
-        <f>$E$2*SIN(C17+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-1.4995823427260906</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="5">
-        <f>B17+$B$3</f>
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
       <c r="C18" s="5">
-        <f>2*PI()*B18/360</f>
+        <f t="shared" si="0"/>
         <v>-1.7453292519943295</v>
       </c>
       <c r="D18" s="5">
-        <f>SIN(C18)</f>
+        <f t="shared" si="1"/>
         <v>-0.98480775301220802</v>
       </c>
       <c r="E18" s="5">
-        <f>$E$2*SIN(C18+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-1.4212522229453419</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="5">
-        <f>B18+$B$3</f>
+        <f t="shared" si="3"/>
         <v>-80</v>
       </c>
       <c r="C19" s="5">
-        <f>2*PI()*B19/360</f>
+        <f t="shared" si="0"/>
         <v>-1.3962634015954636</v>
       </c>
       <c r="D19" s="5">
-        <f>SIN(C19)</f>
+        <f t="shared" si="1"/>
         <v>-0.98480775301220802</v>
       </c>
       <c r="E19" s="5">
-        <f>$E$2*SIN(C19+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-1.1714981096285226</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="5">
-        <f>B19+$B$3</f>
+        <f t="shared" si="3"/>
         <v>-60</v>
       </c>
       <c r="C20" s="5">
-        <f>2*PI()*B20/360</f>
+        <f t="shared" si="0"/>
         <v>-1.0471975511965976</v>
       </c>
       <c r="D20" s="5">
-        <f>SIN(C20)</f>
+        <f t="shared" si="1"/>
         <v>-0.8660254037844386</v>
       </c>
       <c r="E20" s="5">
-        <f>$E$2*SIN(C20+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-0.78044403481978586</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="5">
-        <f>B20+$B$3</f>
+        <f t="shared" si="3"/>
         <v>-40</v>
       </c>
       <c r="C21" s="5">
-        <f>2*PI()*B21/360</f>
+        <f t="shared" si="0"/>
         <v>-0.69813170079773179</v>
       </c>
       <c r="D21" s="5">
-        <f>SIN(C21)</f>
+        <f t="shared" si="1"/>
         <v>-0.64278760968653925</v>
       </c>
       <c r="E21" s="5">
-        <f>$E$2*SIN(C21+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-0.29525689128454397</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="5">
-        <f>B21+$B$3</f>
+        <f t="shared" si="3"/>
         <v>-20</v>
       </c>
       <c r="C22" s="5">
-        <f>2*PI()*B22/360</f>
+        <f t="shared" si="0"/>
         <v>-0.3490658503988659</v>
       </c>
       <c r="D22" s="5">
-        <f>SIN(C22)</f>
+        <f t="shared" si="1"/>
         <v>-0.34202014332566871</v>
       </c>
       <c r="E22" s="5">
-        <f>$E$2*SIN(C22+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>0.2255425908672396</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="5">
-        <f>B22+$B$3</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C23" s="5">
-        <f>2*PI()*B23/360</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D23" s="5">
-        <f>SIN(C23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E23" s="5">
-        <f>$E$2*SIN(C23+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>0.71913830790630451</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="5">
-        <f>B23+$B$3</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="C24" s="5">
-        <f>2*PI()*B24/360</f>
+        <f t="shared" si="0"/>
         <v>0.3490658503988659</v>
       </c>
       <c r="D24" s="5">
-        <f>SIN(C24)</f>
+        <f t="shared" si="1"/>
         <v>0.34202014332566871</v>
       </c>
       <c r="E24" s="5">
-        <f>$E$2*SIN(C24+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>1.125995331660798</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="5">
-        <f>B24+$B$3</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="C25" s="5">
-        <f>2*PI()*B25/360</f>
+        <f t="shared" si="0"/>
         <v>0.69813170079773179</v>
       </c>
       <c r="D25" s="5">
-        <f>SIN(C25)</f>
+        <f t="shared" si="1"/>
         <v>0.64278760968653925</v>
       </c>
       <c r="E25" s="5">
-        <f>$E$2*SIN(C25+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>1.3970407004957626</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="5">
-        <f>B25+$B$3</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="C26" s="5">
-        <f>2*PI()*B26/360</f>
+        <f t="shared" si="0"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="D26" s="5">
-        <f>SIN(C26)</f>
+        <f t="shared" si="1"/>
         <v>0.8660254037844386</v>
       </c>
       <c r="E26" s="5">
-        <f>$E$2*SIN(C26+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>1.4995823427260906</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="5">
-        <f>B26+$B$3</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="C27" s="5">
-        <f>2*PI()*B27/360</f>
+        <f t="shared" si="0"/>
         <v>1.3962634015954636</v>
       </c>
       <c r="D27" s="5">
-        <f>SIN(C27)</f>
+        <f t="shared" si="1"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E27" s="5">
-        <f>$E$2*SIN(C27+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>1.4212522229453421</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="5">
-        <f>B27+$B$3</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="C28" s="5">
-        <f>2*PI()*B28/360</f>
+        <f t="shared" si="0"/>
         <v>1.7453292519943295</v>
       </c>
       <c r="D28" s="5">
-        <f>SIN(C28)</f>
+        <f t="shared" si="1"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E28" s="5">
-        <f>$E$2*SIN(C28+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>1.1714981096285231</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="5">
-        <f>B28+$B$3</f>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="C29" s="5">
-        <f>2*PI()*B29/360</f>
+        <f t="shared" si="0"/>
         <v>2.0943951023931953</v>
       </c>
       <c r="D29" s="5">
-        <f>SIN(C29)</f>
+        <f t="shared" si="1"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="E29" s="5">
-        <f>$E$2*SIN(C29+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>0.78044403481978619</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="5">
-        <f>B29+$B$3</f>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="C30" s="5">
-        <f>2*PI()*B30/360</f>
+        <f t="shared" si="0"/>
         <v>2.4434609527920612</v>
       </c>
       <c r="D30" s="5">
-        <f>SIN(C30)</f>
+        <f t="shared" si="1"/>
         <v>0.64278760968653947</v>
       </c>
       <c r="E30" s="5">
-        <f>$E$2*SIN(C30+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>0.2952568912845443</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="5">
-        <f>B30+$B$3</f>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="C31" s="5">
-        <f>2*PI()*B31/360</f>
+        <f t="shared" si="0"/>
         <v>2.7925268031909272</v>
       </c>
       <c r="D31" s="5">
-        <f>SIN(C31)</f>
+        <f t="shared" si="1"/>
         <v>0.34202014332566888</v>
       </c>
       <c r="E31" s="5">
-        <f>$E$2*SIN(C31+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-0.22554259086723932</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="5">
-        <f>B31+$B$3</f>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="C32" s="5">
-        <f>2*PI()*B32/360</f>
+        <f t="shared" si="0"/>
         <v>3.1415926535897931</v>
       </c>
       <c r="D32" s="5">
-        <f>SIN(C32)</f>
+        <f t="shared" si="1"/>
         <v>1.22514845490862E-16</v>
       </c>
       <c r="E32" s="5">
-        <f>$E$2*SIN(C32+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-0.71913830790630429</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="5">
-        <f>B32+$B$3</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="C33" s="5">
-        <f>2*PI()*B33/360</f>
+        <f t="shared" si="0"/>
         <v>3.4906585039886591</v>
       </c>
       <c r="D33" s="5">
-        <f>SIN(C33)</f>
+        <f t="shared" si="1"/>
         <v>-0.34202014332566866</v>
       </c>
       <c r="E33" s="5">
-        <f>$E$2*SIN(C33+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-1.125995331660798</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="5">
-        <f>B33+$B$3</f>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="C34" s="5">
-        <f>2*PI()*B34/360</f>
+        <f t="shared" si="0"/>
         <v>3.839724354387525</v>
       </c>
       <c r="D34" s="5">
-        <f>SIN(C34)</f>
+        <f t="shared" si="1"/>
         <v>-0.64278760968653925</v>
       </c>
       <c r="E34" s="5">
-        <f>$E$2*SIN(C34+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-1.3970407004957623</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="5">
-        <f>B34+$B$3</f>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="C35" s="5">
-        <f>2*PI()*B35/360</f>
+        <f t="shared" si="0"/>
         <v>4.1887902047863905</v>
       </c>
       <c r="D35" s="5">
-        <f>SIN(C35)</f>
+        <f t="shared" si="1"/>
         <v>-0.86602540378443837</v>
       </c>
       <c r="E35" s="5">
-        <f>$E$2*SIN(C35+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-1.4995823427260906</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="5">
-        <f>B35+$B$3</f>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="C36" s="5">
-        <f>2*PI()*B36/360</f>
+        <f t="shared" si="0"/>
         <v>4.5378560551852569</v>
       </c>
       <c r="D36" s="5">
-        <f>SIN(C36)</f>
+        <f t="shared" si="1"/>
         <v>-0.98480775301220802</v>
       </c>
       <c r="E36" s="5">
-        <f>$E$2*SIN(C36+$E$3)</f>
+        <f t="shared" si="2"/>
         <v>-1.4212522229453421</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="5">
-        <f>B36+$B$3</f>
+        <f t="shared" si="3"/>
         <v>280</v>
       </c>
       <c r="C37" s="5">
-        <f>2*PI()*B37/360</f>
+        <f t="shared" ref="C37:C68" si="4">2*PI()*B37/360</f>
         <v>4.8869219055841224</v>
       </c>
       <c r="D37" s="5">
-        <f>SIN(C37)</f>
+        <f t="shared" ref="D37:D68" si="5">SIN(C37)</f>
         <v>-0.98480775301220813</v>
       </c>
       <c r="E37" s="5">
-        <f>$E$2*SIN(C37+$E$3)</f>
+        <f t="shared" ref="E37:E55" si="6">$E$2*SIN(C37+$E$3)</f>
         <v>-1.1714981096285233</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="5">
-        <f>B37+$B$3</f>
+        <f t="shared" ref="B38:B55" si="7">B37+$B$3</f>
         <v>300</v>
       </c>
       <c r="C38" s="5">
-        <f>2*PI()*B38/360</f>
+        <f t="shared" si="4"/>
         <v>5.2359877559829888</v>
       </c>
       <c r="D38" s="5">
-        <f>SIN(C38)</f>
+        <f t="shared" si="5"/>
         <v>-0.8660254037844386</v>
       </c>
       <c r="E38" s="5">
-        <f>$E$2*SIN(C38+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>-0.78044403481978586</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="5">
-        <f>B38+$B$3</f>
+        <f t="shared" si="7"/>
         <v>320</v>
       </c>
       <c r="C39" s="5">
-        <f>2*PI()*B39/360</f>
+        <f t="shared" si="4"/>
         <v>5.5850536063818543</v>
       </c>
       <c r="D39" s="5">
-        <f>SIN(C39)</f>
+        <f t="shared" si="5"/>
         <v>-0.64278760968653958</v>
       </c>
       <c r="E39" s="5">
-        <f>$E$2*SIN(C39+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>-0.29525689128454446</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="5">
-        <f>B39+$B$3</f>
+        <f t="shared" si="7"/>
         <v>340</v>
       </c>
       <c r="C40" s="5">
-        <f>2*PI()*B40/360</f>
+        <f t="shared" si="4"/>
         <v>5.9341194567807207</v>
       </c>
       <c r="D40" s="5">
-        <f>SIN(C40)</f>
+        <f t="shared" si="5"/>
         <v>-0.3420201433256686</v>
       </c>
       <c r="E40" s="5">
-        <f>$E$2*SIN(C40+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>0.22554259086723982</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="5">
-        <f>B40+$B$3</f>
+        <f t="shared" si="7"/>
         <v>360</v>
       </c>
       <c r="C41" s="5">
-        <f>2*PI()*B41/360</f>
+        <f t="shared" si="4"/>
         <v>6.2831853071795862</v>
       </c>
       <c r="D41" s="5">
-        <f>SIN(C41)</f>
+        <f t="shared" si="5"/>
         <v>-2.45029690981724E-16</v>
       </c>
       <c r="E41" s="5">
-        <f>$E$2*SIN(C41+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>0.71913830790630417</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42" s="5">
-        <f>B41+$B$3</f>
+        <f t="shared" si="7"/>
         <v>380</v>
       </c>
       <c r="C42" s="5">
-        <f>2*PI()*B42/360</f>
+        <f t="shared" si="4"/>
         <v>6.6322511575784526</v>
       </c>
       <c r="D42" s="5">
-        <f>SIN(C42)</f>
+        <f t="shared" si="5"/>
         <v>0.34202014332566893</v>
       </c>
       <c r="E42" s="5">
-        <f>$E$2*SIN(C42+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>1.1259953316607985</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43" s="5">
-        <f>B42+$B$3</f>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="C43" s="5">
-        <f>2*PI()*B43/360</f>
+        <f t="shared" si="4"/>
         <v>6.9813170079773181</v>
       </c>
       <c r="D43" s="5">
-        <f>SIN(C43)</f>
+        <f t="shared" si="5"/>
         <v>0.64278760968653914</v>
       </c>
       <c r="E43" s="5">
-        <f>$E$2*SIN(C43+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>1.3970407004957623</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44" s="5">
-        <f>B43+$B$3</f>
+        <f t="shared" si="7"/>
         <v>420</v>
       </c>
       <c r="C44" s="5">
-        <f>2*PI()*B44/360</f>
+        <f t="shared" si="4"/>
         <v>7.3303828583761845</v>
       </c>
       <c r="D44" s="5">
-        <f>SIN(C44)</f>
+        <f t="shared" si="5"/>
         <v>0.86602540378443882</v>
       </c>
       <c r="E44" s="5">
-        <f>$E$2*SIN(C44+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>1.4995823427260906</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B45" s="5">
-        <f>B44+$B$3</f>
+        <f t="shared" si="7"/>
         <v>440</v>
       </c>
       <c r="C45" s="5">
-        <f>2*PI()*B45/360</f>
+        <f t="shared" si="4"/>
         <v>7.67944870877505</v>
       </c>
       <c r="D45" s="5">
-        <f>SIN(C45)</f>
+        <f t="shared" si="5"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="E45" s="5">
-        <f>$E$2*SIN(C45+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>1.4212522229453421</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B46" s="5">
-        <f>B45+$B$3</f>
+        <f t="shared" si="7"/>
         <v>460</v>
       </c>
       <c r="C46" s="5">
-        <f>2*PI()*B46/360</f>
+        <f t="shared" si="4"/>
         <v>8.0285145591739155</v>
       </c>
       <c r="D46" s="5">
-        <f>SIN(C46)</f>
+        <f t="shared" si="5"/>
         <v>0.98480775301220813</v>
       </c>
       <c r="E46" s="5">
-        <f>$E$2*SIN(C46+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>1.1714981096285233</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B47" s="5">
-        <f>B46+$B$3</f>
+        <f t="shared" si="7"/>
         <v>480</v>
       </c>
       <c r="C47" s="5">
-        <f>2*PI()*B47/360</f>
+        <f t="shared" si="4"/>
         <v>8.3775804095727811</v>
       </c>
       <c r="D47" s="5">
-        <f>SIN(C47)</f>
+        <f t="shared" si="5"/>
         <v>0.86602540378443915</v>
       </c>
       <c r="E47" s="5">
-        <f>$E$2*SIN(C47+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>0.78044403481978719</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B48" s="5">
-        <f>B47+$B$3</f>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="C48" s="5">
-        <f>2*PI()*B48/360</f>
+        <f t="shared" si="4"/>
         <v>8.7266462599716466</v>
       </c>
       <c r="D48" s="5">
-        <f>SIN(C48)</f>
+        <f t="shared" si="5"/>
         <v>0.64278760968654036</v>
       </c>
       <c r="E48" s="5">
-        <f>$E$2*SIN(C48+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>0.29525689128454596</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B49" s="5">
-        <f>B48+$B$3</f>
+        <f t="shared" si="7"/>
         <v>520</v>
       </c>
       <c r="C49" s="5">
-        <f>2*PI()*B49/360</f>
+        <f t="shared" si="4"/>
         <v>9.0757121103705138</v>
       </c>
       <c r="D49" s="5">
-        <f>SIN(C49)</f>
+        <f t="shared" si="5"/>
         <v>0.34202014332566871</v>
       </c>
       <c r="E49" s="5">
-        <f>$E$2*SIN(C49+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>-0.2255425908672396</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50" s="5">
-        <f>B49+$B$3</f>
+        <f t="shared" si="7"/>
         <v>540</v>
       </c>
       <c r="C50" s="5">
-        <f>2*PI()*B50/360</f>
+        <f t="shared" si="4"/>
         <v>9.4247779607693793</v>
       </c>
       <c r="D50" s="5">
-        <f>SIN(C50)</f>
+        <f t="shared" si="5"/>
         <v>3.67544536472586E-16</v>
       </c>
       <c r="E50" s="5">
-        <f>$E$2*SIN(C50+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>-0.71913830790630406</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51" s="5">
-        <f>B50+$B$3</f>
+        <f t="shared" si="7"/>
         <v>560</v>
       </c>
       <c r="C51" s="5">
-        <f>2*PI()*B51/360</f>
+        <f t="shared" si="4"/>
         <v>9.7738438111682449</v>
       </c>
       <c r="D51" s="5">
-        <f>SIN(C51)</f>
+        <f t="shared" si="5"/>
         <v>-0.34202014332566799</v>
       </c>
       <c r="E51" s="5">
-        <f>$E$2*SIN(C51+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>-1.1259953316607973</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52" s="5">
-        <f>B51+$B$3</f>
+        <f t="shared" si="7"/>
         <v>580</v>
       </c>
       <c r="C52" s="5">
-        <f>2*PI()*B52/360</f>
+        <f t="shared" si="4"/>
         <v>10.12290966156711</v>
       </c>
       <c r="D52" s="5">
-        <f>SIN(C52)</f>
+        <f t="shared" si="5"/>
         <v>-0.64278760968653836</v>
       </c>
       <c r="E52" s="5">
-        <f>$E$2*SIN(C52+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>-1.3970407004957617</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B53" s="5">
-        <f>B52+$B$3</f>
+        <f t="shared" si="7"/>
         <v>600</v>
       </c>
       <c r="C53" s="5">
-        <f>2*PI()*B53/360</f>
+        <f t="shared" si="4"/>
         <v>10.471975511965978</v>
       </c>
       <c r="D53" s="5">
-        <f>SIN(C53)</f>
+        <f t="shared" si="5"/>
         <v>-0.86602540378443871</v>
       </c>
       <c r="E53" s="5">
-        <f>$E$2*SIN(C53+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>-1.4995823427260906</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B54" s="5">
-        <f>B53+$B$3</f>
+        <f t="shared" si="7"/>
         <v>620</v>
       </c>
       <c r="C54" s="5">
-        <f>2*PI()*B54/360</f>
+        <f t="shared" si="4"/>
         <v>10.821041362364843</v>
       </c>
       <c r="D54" s="5">
-        <f>SIN(C54)</f>
+        <f t="shared" si="5"/>
         <v>-0.98480775301220802</v>
       </c>
       <c r="E54" s="5">
-        <f>$E$2*SIN(C54+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>-1.4212522229453421</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B55" s="5">
-        <f>B54+$B$3</f>
+        <f t="shared" si="7"/>
         <v>640</v>
       </c>
       <c r="C55" s="5">
-        <f>2*PI()*B55/360</f>
+        <f t="shared" si="4"/>
         <v>11.170107212763709</v>
       </c>
       <c r="D55" s="5">
-        <f>SIN(C55)</f>
+        <f t="shared" si="5"/>
         <v>-0.98480775301220813</v>
       </c>
       <c r="E55" s="5">
-        <f>$E$2*SIN(C55+$E$3)</f>
+        <f t="shared" si="6"/>
         <v>-1.1714981096285233</v>
       </c>
     </row>

--- a/SchulungsUnterlagen/BZU/Mathe.xlsx
+++ b/SchulungsUnterlagen/BZU/Mathe.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\BZU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B19D3A5-69EB-43A8-823B-8B778384B291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6119D1AB-77F3-4341-A0AD-C5D00B42D76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{6916D51C-5897-4E1F-8155-1260435C5535}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{6916D51C-5897-4E1F-8155-1260435C5535}"/>
   </bookViews>
   <sheets>
     <sheet name="Kennlinien" sheetId="6" r:id="rId1"/>
     <sheet name="Zinses_Zins" sheetId="1" r:id="rId2"/>
     <sheet name="QuadratischeFunktion" sheetId="2" r:id="rId3"/>
-    <sheet name="LineareFunktion" sheetId="3" r:id="rId4"/>
-    <sheet name="LinFunktion" sheetId="8" r:id="rId5"/>
+    <sheet name="LinFunktion (Kinematik II)" sheetId="8" r:id="rId4"/>
+    <sheet name="LinFunktion" sheetId="3" r:id="rId5"/>
     <sheet name="Trigonometrie" sheetId="4" r:id="rId6"/>
     <sheet name="Sinus" sheetId="5" r:id="rId7"/>
   </sheets>
@@ -41,8 +41,47 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Landwirtschaft</author>
+  </authors>
+  <commentList>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{868629F3-FDC1-4CDC-BC80-E4785A74DE8E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Lineare Fct
+Graph: Gerade
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{B01C0646-3F41-4273-8752-F1AB2542DE55}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Quadratische Fct
+Graph: Parabel</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>Zinseszins</t>
   </si>
@@ -312,20 +351,161 @@
     <t>z=</t>
   </si>
   <si>
-    <t>Preis = Gewicht * KiloPreis + Verpackungspreis</t>
+    <t>y = ax+ b</t>
   </si>
   <si>
-    <t>y</t>
+    <t>a=Steigung</t>
   </si>
   <si>
-    <t>y = a * x + c</t>
+    <t>b=y-Achsenabschnitt</t>
+  </si>
+  <si>
+    <t>Physik: Kinematik II (Beschleunigte Bewegung)</t>
+  </si>
+  <si>
+    <t>Geschwindigkeit-Zeit Diagramm</t>
+  </si>
+  <si>
+    <t>v = f(t) = at + v0</t>
+  </si>
+  <si>
+    <r>
+      <t>[m/s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>[m/s]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Anfangsgeschwindigkeit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  v0 =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Beschleunigung </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a =</t>
+    </r>
+  </si>
+  <si>
+    <t>Zeit t [s]</t>
+  </si>
+  <si>
+    <t>Geschwindigkeit v [m/s]</t>
+  </si>
+  <si>
+    <t>Weg-Zeit Dagramm</t>
+  </si>
+  <si>
+    <r>
+      <t>s = f(t) = (a/2)t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <t>Strecke s [m]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,6 +584,63 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -437,7 +674,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -667,11 +904,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -724,32 +1017,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2153,7 +2491,445 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>LineareFunktion!$C$13</c:f>
+              <c:f>'LinFunktion (Kinematik II)'!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LinFunktion (Kinematik II)'!$E$13:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LinFunktion (Kinematik II)'!$E$14:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-932B-49B9-8789-FA73E7E02AA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LinFunktion (Kinematik II)'!$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strecke s [m]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LinFunktion (Kinematik II)'!$E$13:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LinFunktion (Kinematik II)'!$E$15:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>137.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>409.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-932B-49B9-8789-FA73E7E02AA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1534098784"/>
+        <c:axId val="1457428224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1534098784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1457428224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1457428224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1534098784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LinFunktion!$C$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2188,7 +2964,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>LineareFunktion!$B$14:$B$54</c:f>
+              <c:f>LinFunktion!$B$14:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2320,7 +3096,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>LineareFunktion!$C$14:$C$54</c:f>
+              <c:f>LinFunktion!$C$14:$C$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2462,7 +3238,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>LineareFunktion!$D$13</c:f>
+              <c:f>LinFunktion!$D$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2497,7 +3273,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>LineareFunktion!$B$14:$B$54</c:f>
+              <c:f>LinFunktion!$B$14:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2629,7 +3405,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>LineareFunktion!$D$14:$D$54</c:f>
+              <c:f>LinFunktion!$D$14:$D$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2946,7 +3722,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -4148,7 +4924,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -5286,6 +6062,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7351,6 +8167,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8057,6 +9389,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10199</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>149411</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B3DE5FD-F281-244C-E5EA-F4ABB9BCD74D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>590549</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -8096,7 +9469,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8139,7 +9512,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8546,7 +9919,7 @@
       <c r="B5" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="31">
         <f>C3*C4</f>
         <v>20</v>
       </c>
@@ -8614,75 +9987,75 @@
       <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="30">
         <f>$C$3*(1+$C$4)^C9</f>
         <v>1000</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="30">
         <f t="shared" ref="D10:T10" si="0">$C$3*(1+$C$4)^D9</f>
         <v>1020</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="30">
         <f t="shared" si="0"/>
         <v>1040.4000000000001</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="30">
         <f t="shared" si="0"/>
         <v>1061.2079999999999</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="30">
         <f t="shared" si="0"/>
         <v>1082.4321600000001</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="30">
         <f t="shared" si="0"/>
         <v>1104.0808032</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="30">
         <f t="shared" si="0"/>
         <v>1126.1624192640002</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="30">
         <f t="shared" si="0"/>
         <v>1148.6856676492798</v>
       </c>
-      <c r="K10" s="31">
+      <c r="K10" s="30">
         <f t="shared" si="0"/>
         <v>1171.6593810022655</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="30">
         <f t="shared" si="0"/>
         <v>1195.0925686223109</v>
       </c>
-      <c r="M10" s="31">
+      <c r="M10" s="30">
         <f t="shared" si="0"/>
         <v>1218.9944199947572</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="30">
         <f t="shared" si="0"/>
         <v>1243.374308394652</v>
       </c>
-      <c r="O10" s="31">
+      <c r="O10" s="30">
         <f t="shared" si="0"/>
         <v>1268.2417945625452</v>
       </c>
-      <c r="P10" s="31">
+      <c r="P10" s="30">
         <f t="shared" si="0"/>
         <v>1293.606630453796</v>
       </c>
-      <c r="Q10" s="31">
+      <c r="Q10" s="30">
         <f t="shared" si="0"/>
         <v>1319.4787630628721</v>
       </c>
-      <c r="R10" s="31">
+      <c r="R10" s="30">
         <f t="shared" si="0"/>
         <v>1345.8683383241291</v>
       </c>
-      <c r="S10" s="31">
+      <c r="S10" s="30">
         <f t="shared" si="0"/>
         <v>1372.7857050906121</v>
       </c>
-      <c r="T10" s="31">
+      <c r="T10" s="30">
         <f t="shared" si="0"/>
         <v>1400.2414191924245</v>
       </c>
@@ -8691,87 +10064,87 @@
       <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="30">
         <f>$C$3+($C$5*C9)</f>
         <v>1000</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="30">
         <f t="shared" ref="D11:T11" si="1">$C$3+($C$5*D9)</f>
         <v>1020</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="30">
         <f t="shared" si="1"/>
         <v>1040</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="30">
         <f t="shared" si="1"/>
         <v>1060</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="30">
         <f t="shared" si="1"/>
         <v>1080</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="30">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="30">
         <f t="shared" si="1"/>
         <v>1120</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="30">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="30">
         <f t="shared" si="1"/>
         <v>1160</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="30">
         <f t="shared" si="1"/>
         <v>1180</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="30">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="30">
         <f t="shared" si="1"/>
         <v>1220</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O11" s="30">
         <f t="shared" si="1"/>
         <v>1240</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="30">
         <f t="shared" si="1"/>
         <v>1260</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="30">
         <f t="shared" si="1"/>
         <v>1280</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11" s="30">
         <f t="shared" si="1"/>
         <v>1300</v>
       </c>
-      <c r="S11" s="31">
+      <c r="S11" s="30">
         <f t="shared" si="1"/>
         <v>1320</v>
       </c>
-      <c r="T11" s="31">
+      <c r="T11" s="30">
         <f t="shared" si="1"/>
         <v>1340</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C17" s="31"/>
+      <c r="C17" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8784,7 +10157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27979EBB-26AD-44A4-966E-F549129CFD36}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView topLeftCell="A15" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -9399,11 +10772,248 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59ABE01B-AF39-4CC4-8BBE-8E12896ECA1C}">
+  <dimension ref="C3:X26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="7.90625" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:15" ht="26" x14ac:dyDescent="0.6">
+      <c r="C3" s="44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15" ht="27" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="3:15" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C6" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="65"/>
+      <c r="E6" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="I6" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="69"/>
+      <c r="K6" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="67"/>
+    </row>
+    <row r="8" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="3:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="C9" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="47">
+        <v>9</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+    </row>
+    <row r="10" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="48">
+        <v>5</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+    </row>
+    <row r="12" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C13" s="53"/>
+      <c r="D13" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="58">
+        <v>0</v>
+      </c>
+      <c r="F13" s="32">
+        <v>1</v>
+      </c>
+      <c r="G13" s="32">
+        <v>2</v>
+      </c>
+      <c r="H13" s="32">
+        <v>3</v>
+      </c>
+      <c r="I13" s="32">
+        <v>4</v>
+      </c>
+      <c r="J13" s="32">
+        <v>5</v>
+      </c>
+      <c r="K13" s="32">
+        <v>6</v>
+      </c>
+      <c r="L13" s="32">
+        <v>7</v>
+      </c>
+      <c r="M13" s="32">
+        <v>8</v>
+      </c>
+      <c r="N13" s="32">
+        <v>9</v>
+      </c>
+      <c r="O13" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C14" s="72"/>
+      <c r="D14" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="59">
+        <f>$D$9*E13+$D$10</f>
+        <v>5</v>
+      </c>
+      <c r="F14" s="57">
+        <f t="shared" ref="F14:O14" si="0">$D$9*F13+$D$10</f>
+        <v>14</v>
+      </c>
+      <c r="G14" s="57">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H14" s="57">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="I14" s="57">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="J14" s="57">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="K14" s="57">
+        <f>$D$9*K13+$D$10</f>
+        <v>59</v>
+      </c>
+      <c r="L14" s="57">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="M14" s="57">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="N14" s="57">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="O14" s="60">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="70"/>
+      <c r="D15" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="61">
+        <f>($D$9/2)*E13^2 + $D$10*E13</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="62">
+        <f t="shared" ref="F15:O15" si="1">($D$9/2)*F13^2 + $D$10*F13</f>
+        <v>9.5</v>
+      </c>
+      <c r="G15" s="62">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="H15" s="62">
+        <f t="shared" si="1"/>
+        <v>55.5</v>
+      </c>
+      <c r="I15" s="62">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="J15" s="62">
+        <f t="shared" si="1"/>
+        <v>137.5</v>
+      </c>
+      <c r="K15" s="62">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="L15" s="62">
+        <f t="shared" si="1"/>
+        <v>255.5</v>
+      </c>
+      <c r="M15" s="62">
+        <f t="shared" si="1"/>
+        <v>328</v>
+      </c>
+      <c r="N15" s="62">
+        <f t="shared" si="1"/>
+        <v>409.5</v>
+      </c>
+      <c r="O15" s="63">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="21:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="21:24" ht="21" x14ac:dyDescent="0.5">
+      <c r="U25" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="X25" s="40"/>
+    </row>
+    <row r="26" spans="21:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U26" s="41"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="X26" s="43"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528AA531-1975-4BEE-B143-630F780E047A}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9413,6 +11023,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="8" spans="1:4" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="10" t="s">
@@ -9444,10 +11059,10 @@
       <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="36" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9455,12 +11070,12 @@
       <c r="B14" s="5">
         <v>-20</v>
       </c>
-      <c r="C14" s="5">
-        <f t="shared" ref="C14:C54" si="0">$C$8*B14+$C$9</f>
+      <c r="C14" s="35">
+        <f>$C$8*B14+$C$9</f>
         <v>-125</v>
       </c>
-      <c r="D14" s="5">
-        <f t="shared" ref="D14:D54" si="1">-$D$8*B14+$D$9</f>
+      <c r="D14" s="37">
+        <f t="shared" ref="D14:D54" si="0">-$D$8*B14+$D$9</f>
         <v>-75</v>
       </c>
     </row>
@@ -9468,12 +11083,12 @@
       <c r="B15" s="5">
         <v>-19</v>
       </c>
-      <c r="C15" s="5">
-        <f t="shared" si="0"/>
+      <c r="C15" s="35">
+        <f t="shared" ref="C14:C54" si="1">$C$8*B15+$C$9</f>
         <v>-119</v>
       </c>
-      <c r="D15" s="5">
-        <f t="shared" si="1"/>
+      <c r="D15" s="37">
+        <f t="shared" si="0"/>
         <v>-71</v>
       </c>
     </row>
@@ -9481,12 +11096,12 @@
       <c r="B16" s="5">
         <v>-18</v>
       </c>
-      <c r="C16" s="5">
-        <f t="shared" si="0"/>
+      <c r="C16" s="35">
+        <f t="shared" si="1"/>
         <v>-113</v>
       </c>
-      <c r="D16" s="5">
-        <f t="shared" si="1"/>
+      <c r="D16" s="37">
+        <f t="shared" si="0"/>
         <v>-67</v>
       </c>
     </row>
@@ -9494,12 +11109,12 @@
       <c r="B17" s="5">
         <v>-17</v>
       </c>
-      <c r="C17" s="5">
-        <f t="shared" si="0"/>
+      <c r="C17" s="35">
+        <f t="shared" si="1"/>
         <v>-107</v>
       </c>
-      <c r="D17" s="5">
-        <f t="shared" si="1"/>
+      <c r="D17" s="37">
+        <f t="shared" si="0"/>
         <v>-63</v>
       </c>
     </row>
@@ -9507,12 +11122,12 @@
       <c r="B18" s="5">
         <v>-16</v>
       </c>
-      <c r="C18" s="5">
-        <f t="shared" si="0"/>
+      <c r="C18" s="35">
+        <f t="shared" si="1"/>
         <v>-101</v>
       </c>
-      <c r="D18" s="5">
-        <f t="shared" si="1"/>
+      <c r="D18" s="37">
+        <f t="shared" si="0"/>
         <v>-59</v>
       </c>
     </row>
@@ -9520,12 +11135,12 @@
       <c r="B19" s="5">
         <v>-15</v>
       </c>
-      <c r="C19" s="5">
-        <f t="shared" si="0"/>
+      <c r="C19" s="35">
+        <f t="shared" si="1"/>
         <v>-95</v>
       </c>
-      <c r="D19" s="5">
-        <f t="shared" si="1"/>
+      <c r="D19" s="37">
+        <f t="shared" si="0"/>
         <v>-55</v>
       </c>
     </row>
@@ -9533,12 +11148,12 @@
       <c r="B20" s="5">
         <v>-14</v>
       </c>
-      <c r="C20" s="5">
-        <f t="shared" si="0"/>
+      <c r="C20" s="35">
+        <f t="shared" si="1"/>
         <v>-89</v>
       </c>
-      <c r="D20" s="5">
-        <f t="shared" si="1"/>
+      <c r="D20" s="37">
+        <f t="shared" si="0"/>
         <v>-51</v>
       </c>
     </row>
@@ -9546,12 +11161,12 @@
       <c r="B21" s="5">
         <v>-13</v>
       </c>
-      <c r="C21" s="5">
-        <f t="shared" si="0"/>
+      <c r="C21" s="35">
+        <f t="shared" si="1"/>
         <v>-83</v>
       </c>
-      <c r="D21" s="5">
-        <f t="shared" si="1"/>
+      <c r="D21" s="37">
+        <f t="shared" si="0"/>
         <v>-47</v>
       </c>
     </row>
@@ -9559,12 +11174,12 @@
       <c r="B22" s="5">
         <v>-12</v>
       </c>
-      <c r="C22" s="5">
-        <f t="shared" si="0"/>
+      <c r="C22" s="35">
+        <f t="shared" si="1"/>
         <v>-77</v>
       </c>
-      <c r="D22" s="5">
-        <f t="shared" si="1"/>
+      <c r="D22" s="37">
+        <f t="shared" si="0"/>
         <v>-43</v>
       </c>
     </row>
@@ -9572,12 +11187,12 @@
       <c r="B23" s="5">
         <v>-11</v>
       </c>
-      <c r="C23" s="5">
-        <f t="shared" si="0"/>
+      <c r="C23" s="35">
+        <f t="shared" si="1"/>
         <v>-71</v>
       </c>
-      <c r="D23" s="5">
-        <f t="shared" si="1"/>
+      <c r="D23" s="37">
+        <f t="shared" si="0"/>
         <v>-39</v>
       </c>
     </row>
@@ -9585,12 +11200,12 @@
       <c r="B24" s="5">
         <v>-10</v>
       </c>
-      <c r="C24" s="5">
-        <f t="shared" si="0"/>
+      <c r="C24" s="35">
+        <f t="shared" si="1"/>
         <v>-65</v>
       </c>
-      <c r="D24" s="5">
-        <f t="shared" si="1"/>
+      <c r="D24" s="37">
+        <f t="shared" si="0"/>
         <v>-35</v>
       </c>
     </row>
@@ -9598,12 +11213,12 @@
       <c r="B25" s="5">
         <v>-9</v>
       </c>
-      <c r="C25" s="5">
-        <f t="shared" si="0"/>
+      <c r="C25" s="35">
+        <f t="shared" si="1"/>
         <v>-59</v>
       </c>
-      <c r="D25" s="5">
-        <f t="shared" si="1"/>
+      <c r="D25" s="37">
+        <f t="shared" si="0"/>
         <v>-31</v>
       </c>
     </row>
@@ -9611,12 +11226,12 @@
       <c r="B26" s="5">
         <v>-8</v>
       </c>
-      <c r="C26" s="5">
-        <f t="shared" si="0"/>
+      <c r="C26" s="35">
+        <f t="shared" si="1"/>
         <v>-53</v>
       </c>
-      <c r="D26" s="5">
-        <f t="shared" si="1"/>
+      <c r="D26" s="37">
+        <f t="shared" si="0"/>
         <v>-27</v>
       </c>
     </row>
@@ -9624,12 +11239,12 @@
       <c r="B27" s="5">
         <v>-7</v>
       </c>
-      <c r="C27" s="5">
-        <f t="shared" si="0"/>
+      <c r="C27" s="35">
+        <f t="shared" si="1"/>
         <v>-47</v>
       </c>
-      <c r="D27" s="5">
-        <f t="shared" si="1"/>
+      <c r="D27" s="37">
+        <f t="shared" si="0"/>
         <v>-23</v>
       </c>
     </row>
@@ -9637,12 +11252,12 @@
       <c r="B28" s="5">
         <v>-6</v>
       </c>
-      <c r="C28" s="5">
-        <f t="shared" si="0"/>
+      <c r="C28" s="35">
+        <f t="shared" si="1"/>
         <v>-41</v>
       </c>
-      <c r="D28" s="5">
-        <f t="shared" si="1"/>
+      <c r="D28" s="37">
+        <f t="shared" si="0"/>
         <v>-19</v>
       </c>
     </row>
@@ -9650,12 +11265,12 @@
       <c r="B29" s="5">
         <v>-5</v>
       </c>
-      <c r="C29" s="5">
-        <f t="shared" si="0"/>
+      <c r="C29" s="35">
+        <f t="shared" si="1"/>
         <v>-35</v>
       </c>
-      <c r="D29" s="5">
-        <f t="shared" si="1"/>
+      <c r="D29" s="37">
+        <f t="shared" si="0"/>
         <v>-15</v>
       </c>
     </row>
@@ -9663,12 +11278,12 @@
       <c r="B30" s="5">
         <v>-4</v>
       </c>
-      <c r="C30" s="5">
-        <f t="shared" si="0"/>
+      <c r="C30" s="35">
+        <f t="shared" si="1"/>
         <v>-29</v>
       </c>
-      <c r="D30" s="5">
-        <f t="shared" si="1"/>
+      <c r="D30" s="37">
+        <f t="shared" si="0"/>
         <v>-11</v>
       </c>
     </row>
@@ -9676,12 +11291,12 @@
       <c r="B31" s="5">
         <v>-3</v>
       </c>
-      <c r="C31" s="5">
-        <f t="shared" si="0"/>
+      <c r="C31" s="35">
+        <f t="shared" si="1"/>
         <v>-23</v>
       </c>
-      <c r="D31" s="5">
-        <f t="shared" si="1"/>
+      <c r="D31" s="37">
+        <f t="shared" si="0"/>
         <v>-7</v>
       </c>
     </row>
@@ -9689,12 +11304,12 @@
       <c r="B32" s="5">
         <v>-2</v>
       </c>
-      <c r="C32" s="5">
-        <f t="shared" si="0"/>
+      <c r="C32" s="35">
+        <f t="shared" si="1"/>
         <v>-17</v>
       </c>
-      <c r="D32" s="5">
-        <f t="shared" si="1"/>
+      <c r="D32" s="37">
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
     </row>
@@ -9702,12 +11317,12 @@
       <c r="B33" s="5">
         <v>-1</v>
       </c>
-      <c r="C33" s="5">
-        <f t="shared" si="0"/>
+      <c r="C33" s="35">
+        <f t="shared" si="1"/>
         <v>-11</v>
       </c>
-      <c r="D33" s="5">
-        <f t="shared" si="1"/>
+      <c r="D33" s="37">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9715,12 +11330,12 @@
       <c r="B34" s="5">
         <v>0</v>
       </c>
-      <c r="C34" s="5">
-        <f t="shared" si="0"/>
+      <c r="C34" s="35">
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="D34" s="5">
-        <f t="shared" si="1"/>
+      <c r="D34" s="37">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -9728,12 +11343,12 @@
       <c r="B35" s="5">
         <v>1</v>
       </c>
-      <c r="C35" s="5">
-        <f t="shared" si="0"/>
+      <c r="C35" s="35">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D35" s="5">
-        <f t="shared" si="1"/>
+      <c r="D35" s="37">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -9741,12 +11356,12 @@
       <c r="B36" s="5">
         <v>2</v>
       </c>
-      <c r="C36" s="5">
-        <f t="shared" si="0"/>
+      <c r="C36" s="35">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D36" s="5">
-        <f t="shared" si="1"/>
+      <c r="D36" s="37">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -9754,12 +11369,12 @@
       <c r="B37" s="5">
         <v>3</v>
       </c>
-      <c r="C37" s="5">
-        <f t="shared" si="0"/>
+      <c r="C37" s="35">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D37" s="5">
-        <f t="shared" si="1"/>
+      <c r="D37" s="37">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
@@ -9767,12 +11382,12 @@
       <c r="B38" s="5">
         <v>4</v>
       </c>
-      <c r="C38" s="5">
-        <f t="shared" si="0"/>
+      <c r="C38" s="35">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D38" s="5">
-        <f t="shared" si="1"/>
+      <c r="D38" s="37">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
@@ -9780,12 +11395,12 @@
       <c r="B39" s="5">
         <v>5</v>
       </c>
-      <c r="C39" s="5">
-        <f t="shared" si="0"/>
+      <c r="C39" s="35">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="D39" s="5">
-        <f t="shared" si="1"/>
+      <c r="D39" s="37">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
@@ -9793,12 +11408,12 @@
       <c r="B40" s="5">
         <v>6</v>
       </c>
-      <c r="C40" s="5">
-        <f t="shared" si="0"/>
+      <c r="C40" s="35">
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="D40" s="5">
-        <f t="shared" si="1"/>
+      <c r="D40" s="37">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
@@ -9806,12 +11421,12 @@
       <c r="B41" s="5">
         <v>7</v>
       </c>
-      <c r="C41" s="5">
-        <f t="shared" si="0"/>
+      <c r="C41" s="35">
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="D41" s="5">
-        <f t="shared" si="1"/>
+      <c r="D41" s="37">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
@@ -9819,12 +11434,12 @@
       <c r="B42" s="5">
         <v>8</v>
       </c>
-      <c r="C42" s="5">
-        <f t="shared" si="0"/>
+      <c r="C42" s="35">
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="D42" s="5">
-        <f t="shared" si="1"/>
+      <c r="D42" s="37">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
@@ -9832,12 +11447,12 @@
       <c r="B43" s="5">
         <v>9</v>
       </c>
-      <c r="C43" s="5">
-        <f t="shared" si="0"/>
+      <c r="C43" s="35">
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="D43" s="5">
-        <f t="shared" si="1"/>
+      <c r="D43" s="37">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
@@ -9845,12 +11460,12 @@
       <c r="B44" s="5">
         <v>10</v>
       </c>
-      <c r="C44" s="5">
-        <f t="shared" si="0"/>
+      <c r="C44" s="35">
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="D44" s="5">
-        <f t="shared" si="1"/>
+      <c r="D44" s="37">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
@@ -9858,12 +11473,12 @@
       <c r="B45" s="5">
         <v>11</v>
       </c>
-      <c r="C45" s="5">
-        <f t="shared" si="0"/>
+      <c r="C45" s="35">
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="D45" s="5">
-        <f t="shared" si="1"/>
+      <c r="D45" s="37">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
     </row>
@@ -9871,12 +11486,12 @@
       <c r="B46" s="5">
         <v>12</v>
       </c>
-      <c r="C46" s="5">
-        <f t="shared" si="0"/>
+      <c r="C46" s="35">
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="D46" s="5">
-        <f t="shared" si="1"/>
+      <c r="D46" s="37">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
@@ -9884,12 +11499,12 @@
       <c r="B47" s="5">
         <v>13</v>
       </c>
-      <c r="C47" s="5">
-        <f t="shared" si="0"/>
+      <c r="C47" s="35">
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="D47" s="5">
-        <f t="shared" si="1"/>
+      <c r="D47" s="37">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
     </row>
@@ -9897,12 +11512,12 @@
       <c r="B48" s="5">
         <v>14</v>
       </c>
-      <c r="C48" s="5">
-        <f t="shared" si="0"/>
+      <c r="C48" s="35">
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="D48" s="5">
-        <f t="shared" si="1"/>
+      <c r="D48" s="37">
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
@@ -9910,12 +11525,12 @@
       <c r="B49" s="5">
         <v>15</v>
       </c>
-      <c r="C49" s="5">
-        <f t="shared" si="0"/>
+      <c r="C49" s="35">
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="D49" s="5">
-        <f t="shared" si="1"/>
+      <c r="D49" s="37">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
@@ -9923,12 +11538,12 @@
       <c r="B50" s="5">
         <v>16</v>
       </c>
-      <c r="C50" s="5">
-        <f t="shared" si="0"/>
+      <c r="C50" s="35">
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="D50" s="5">
-        <f t="shared" si="1"/>
+      <c r="D50" s="37">
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
     </row>
@@ -9936,12 +11551,12 @@
       <c r="B51" s="5">
         <v>17</v>
       </c>
-      <c r="C51" s="5">
-        <f t="shared" si="0"/>
+      <c r="C51" s="35">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="D51" s="5">
-        <f t="shared" si="1"/>
+      <c r="D51" s="37">
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
     </row>
@@ -9949,12 +11564,12 @@
       <c r="B52" s="5">
         <v>18</v>
       </c>
-      <c r="C52" s="5">
-        <f t="shared" si="0"/>
+      <c r="C52" s="35">
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="D52" s="5">
-        <f t="shared" si="1"/>
+      <c r="D52" s="37">
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
     </row>
@@ -9962,12 +11577,12 @@
       <c r="B53" s="5">
         <v>19</v>
       </c>
-      <c r="C53" s="5">
-        <f t="shared" si="0"/>
+      <c r="C53" s="35">
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="D53" s="5">
-        <f t="shared" si="1"/>
+      <c r="D53" s="37">
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
     </row>
@@ -9975,151 +11590,18 @@
       <c r="B54" s="5">
         <v>20</v>
       </c>
-      <c r="C54" s="5">
-        <f t="shared" si="0"/>
+      <c r="C54" s="35">
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="D54" s="5">
-        <f t="shared" si="1"/>
+      <c r="D54" s="37">
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59ABE01B-AF39-4CC4-8BBE-8E12896ECA1C}">
-  <dimension ref="C5:O13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="21" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C8" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="35">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="9" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="30">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="11" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="D12" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="37">
-        <v>0</v>
-      </c>
-      <c r="F12" s="37">
-        <v>1</v>
-      </c>
-      <c r="G12" s="37">
-        <v>2</v>
-      </c>
-      <c r="H12" s="37">
-        <v>3</v>
-      </c>
-      <c r="I12" s="37">
-        <v>4</v>
-      </c>
-      <c r="J12" s="37">
-        <v>5</v>
-      </c>
-      <c r="K12" s="37">
-        <v>6</v>
-      </c>
-      <c r="L12" s="37">
-        <v>7</v>
-      </c>
-      <c r="M12" s="37">
-        <v>8</v>
-      </c>
-      <c r="N12" s="37">
-        <v>9</v>
-      </c>
-      <c r="O12" s="38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D13" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="40">
-        <f>$D$8*E12+$D$9</f>
-        <v>1.5</v>
-      </c>
-      <c r="F13" s="40">
-        <f t="shared" ref="F13:O13" si="0">$D$8*F12+$D$9</f>
-        <v>6</v>
-      </c>
-      <c r="G13" s="40">
-        <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-      <c r="H13" s="40">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="I13" s="40">
-        <f t="shared" si="0"/>
-        <v>19.5</v>
-      </c>
-      <c r="J13" s="40">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="K13" s="40">
-        <f t="shared" si="0"/>
-        <v>28.5</v>
-      </c>
-      <c r="L13" s="40">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="M13" s="40">
-        <f t="shared" si="0"/>
-        <v>37.5</v>
-      </c>
-      <c r="N13" s="40">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="O13" s="41">
-        <f t="shared" si="0"/>
-        <v>46.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11343,11 +12825,11 @@
         <v>560</v>
       </c>
       <c r="C71" s="5">
-        <f t="shared" ref="C71:C102" si="8">2*PI()*B71/360</f>
+        <f t="shared" ref="C71:C79" si="8">2*PI()*B71/360</f>
         <v>9.7738438111682449</v>
       </c>
       <c r="D71" s="13">
-        <f t="shared" ref="D71:D102" si="9">SIN(C71)</f>
+        <f t="shared" ref="D71:D79" si="9">SIN(C71)</f>
         <v>-0.34202014332566799</v>
       </c>
       <c r="E71" s="12">
@@ -12137,11 +13619,11 @@
         <v>280</v>
       </c>
       <c r="C37" s="5">
-        <f t="shared" ref="C37:C68" si="4">2*PI()*B37/360</f>
+        <f t="shared" ref="C37:C55" si="4">2*PI()*B37/360</f>
         <v>4.8869219055841224</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" ref="D37:D68" si="5">SIN(C37)</f>
+        <f t="shared" ref="D37:D55" si="5">SIN(C37)</f>
         <v>-0.98480775301220813</v>
       </c>
       <c r="E37" s="5">

--- a/SchulungsUnterlagen/BZU/Mathe.xlsx
+++ b/SchulungsUnterlagen/BZU/Mathe.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\BZU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6119D1AB-77F3-4341-A0AD-C5D00B42D76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27DB430-FC02-44CC-AF89-23DFAC99073E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{6916D51C-5897-4E1F-8155-1260435C5535}"/>
+    <workbookView xWindow="735" yWindow="-17400" windowWidth="27675" windowHeight="17310" xr2:uid="{6916D51C-5897-4E1F-8155-1260435C5535}"/>
   </bookViews>
   <sheets>
-    <sheet name="Kennlinien" sheetId="6" r:id="rId1"/>
-    <sheet name="Zinses_Zins" sheetId="1" r:id="rId2"/>
-    <sheet name="QuadratischeFunktion" sheetId="2" r:id="rId3"/>
-    <sheet name="LinFunktion (Kinematik II)" sheetId="8" r:id="rId4"/>
-    <sheet name="LinFunktion" sheetId="3" r:id="rId5"/>
-    <sheet name="Trigonometrie" sheetId="4" r:id="rId6"/>
-    <sheet name="Sinus" sheetId="5" r:id="rId7"/>
+    <sheet name="Kopfrechnungsblatt" sheetId="9" r:id="rId1"/>
+    <sheet name="Kennlinien" sheetId="6" r:id="rId2"/>
+    <sheet name="Zinses_Zins" sheetId="1" r:id="rId3"/>
+    <sheet name="QuadratischeFunktion" sheetId="2" r:id="rId4"/>
+    <sheet name="LinFunktion (Kinematik II)" sheetId="8" r:id="rId5"/>
+    <sheet name="LinFunktion" sheetId="3" r:id="rId6"/>
+    <sheet name="Trigonometrie" sheetId="4" r:id="rId7"/>
+    <sheet name="Sinus" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="371">
   <si>
     <t>Zinseszins</t>
   </si>
@@ -499,6 +500,985 @@
   </si>
   <si>
     <t>Strecke s [m]</t>
+  </si>
+  <si>
+    <t>5 * 3</t>
+  </si>
+  <si>
+    <t>56 : 8</t>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>13 * 13</t>
+  </si>
+  <si>
+    <t>11 * 11</t>
+  </si>
+  <si>
+    <t>12 * 12</t>
+  </si>
+  <si>
+    <t>10 * 456</t>
+  </si>
+  <si>
+    <t>45 + 45</t>
+  </si>
+  <si>
+    <t>6 * 6</t>
+  </si>
+  <si>
+    <t>7 * 6</t>
+  </si>
+  <si>
+    <t>8 * 9</t>
+  </si>
+  <si>
+    <t>24 : 3</t>
+  </si>
+  <si>
+    <t>72 + 30</t>
+  </si>
+  <si>
+    <t>4 * 9</t>
+  </si>
+  <si>
+    <t>9 * 9</t>
+  </si>
+  <si>
+    <t>8 * 3</t>
+  </si>
+  <si>
+    <t>10 * 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * </t>
+  </si>
+  <si>
+    <t>2 * 2  = 4</t>
+  </si>
+  <si>
+    <t>2 * 3  = 6</t>
+  </si>
+  <si>
+    <t>2 * 4  = 8</t>
+  </si>
+  <si>
+    <t>2 * 5  = 10</t>
+  </si>
+  <si>
+    <t>2 * 6  = 12</t>
+  </si>
+  <si>
+    <t>2 * 7  = 14</t>
+  </si>
+  <si>
+    <t>2 * 8  = 16</t>
+  </si>
+  <si>
+    <t>2 * 9  = 18</t>
+  </si>
+  <si>
+    <t>2 * 10  = 20</t>
+  </si>
+  <si>
+    <t>2 * 11  = 22</t>
+  </si>
+  <si>
+    <t>2 * 12  = 24</t>
+  </si>
+  <si>
+    <t>2 * 13  = 26</t>
+  </si>
+  <si>
+    <t>2 * 14  = 28</t>
+  </si>
+  <si>
+    <t>2 * 15  = 30</t>
+  </si>
+  <si>
+    <t>2 * 16  = 32</t>
+  </si>
+  <si>
+    <t>2 * 17  = 34</t>
+  </si>
+  <si>
+    <t>2 * 18  = 36</t>
+  </si>
+  <si>
+    <t>2 * 19  = 38</t>
+  </si>
+  <si>
+    <t>2 * 20  = 40</t>
+  </si>
+  <si>
+    <t>3 * 2  = 6</t>
+  </si>
+  <si>
+    <t>3 * 3  = 9</t>
+  </si>
+  <si>
+    <t>3 * 4  = 12</t>
+  </si>
+  <si>
+    <t>3 * 5  = 15</t>
+  </si>
+  <si>
+    <t>3 * 6  = 18</t>
+  </si>
+  <si>
+    <t>3 * 7  = 21</t>
+  </si>
+  <si>
+    <t>3 * 8  = 24</t>
+  </si>
+  <si>
+    <t>3 * 9  = 27</t>
+  </si>
+  <si>
+    <t>3 * 10  = 30</t>
+  </si>
+  <si>
+    <t>3 * 11  = 33</t>
+  </si>
+  <si>
+    <t>3 * 12  = 36</t>
+  </si>
+  <si>
+    <t>3 * 13  = 39</t>
+  </si>
+  <si>
+    <t>3 * 14  = 42</t>
+  </si>
+  <si>
+    <t>3 * 15  = 45</t>
+  </si>
+  <si>
+    <t>3 * 16  = 48</t>
+  </si>
+  <si>
+    <t>3 * 17  = 51</t>
+  </si>
+  <si>
+    <t>3 * 18  = 54</t>
+  </si>
+  <si>
+    <t>3 * 19  = 57</t>
+  </si>
+  <si>
+    <t>3 * 20  = 60</t>
+  </si>
+  <si>
+    <t>4 * 2  = 8</t>
+  </si>
+  <si>
+    <t>4 * 3  = 12</t>
+  </si>
+  <si>
+    <t>4 * 4  = 16</t>
+  </si>
+  <si>
+    <t>4 * 5  = 20</t>
+  </si>
+  <si>
+    <t>4 * 6  = 24</t>
+  </si>
+  <si>
+    <t>4 * 7  = 28</t>
+  </si>
+  <si>
+    <t>4 * 8  = 32</t>
+  </si>
+  <si>
+    <t>4 * 9  = 36</t>
+  </si>
+  <si>
+    <t>4 * 10  = 40</t>
+  </si>
+  <si>
+    <t>4 * 11  = 44</t>
+  </si>
+  <si>
+    <t>4 * 12  = 48</t>
+  </si>
+  <si>
+    <t>4 * 13  = 52</t>
+  </si>
+  <si>
+    <t>4 * 14  = 56</t>
+  </si>
+  <si>
+    <t>4 * 15  = 60</t>
+  </si>
+  <si>
+    <t>4 * 16  = 64</t>
+  </si>
+  <si>
+    <t>4 * 18  = 72</t>
+  </si>
+  <si>
+    <t>4 * 19  = 76</t>
+  </si>
+  <si>
+    <t>4 * 20  = 80</t>
+  </si>
+  <si>
+    <t>5 * 2  = 10</t>
+  </si>
+  <si>
+    <t>5 * 3  = 15</t>
+  </si>
+  <si>
+    <t>5 * 4  = 20</t>
+  </si>
+  <si>
+    <t>5 * 5  = 25</t>
+  </si>
+  <si>
+    <t>5 * 6  = 30</t>
+  </si>
+  <si>
+    <t>5 * 7  = 35</t>
+  </si>
+  <si>
+    <t>5 * 8  = 40</t>
+  </si>
+  <si>
+    <t>5 * 9  = 45</t>
+  </si>
+  <si>
+    <t>5 * 10  = 50</t>
+  </si>
+  <si>
+    <t>5 * 11  = 55</t>
+  </si>
+  <si>
+    <t>5 * 12  = 60</t>
+  </si>
+  <si>
+    <t>5 * 13  = 65</t>
+  </si>
+  <si>
+    <t>5 * 14  = 70</t>
+  </si>
+  <si>
+    <t>5 * 15  = 75</t>
+  </si>
+  <si>
+    <t>5 * 16  = 80</t>
+  </si>
+  <si>
+    <t>5 * 18  = 90</t>
+  </si>
+  <si>
+    <t>5 * 19  = 95</t>
+  </si>
+  <si>
+    <t>5 * 20  = 100</t>
+  </si>
+  <si>
+    <t>6 * 2  = 12</t>
+  </si>
+  <si>
+    <t>6 * 3  = 18</t>
+  </si>
+  <si>
+    <t>6 * 4  = 24</t>
+  </si>
+  <si>
+    <t>6 * 5  = 30</t>
+  </si>
+  <si>
+    <t>6 * 6  = 36</t>
+  </si>
+  <si>
+    <t>6 * 7  = 42</t>
+  </si>
+  <si>
+    <t>6 * 8  = 48</t>
+  </si>
+  <si>
+    <t>6 * 9  = 54</t>
+  </si>
+  <si>
+    <t>6 * 10  = 60</t>
+  </si>
+  <si>
+    <t>6 * 11  = 66</t>
+  </si>
+  <si>
+    <t>6 * 12  = 72</t>
+  </si>
+  <si>
+    <t>6 * 14  = 84</t>
+  </si>
+  <si>
+    <t>6 * 15  = 90</t>
+  </si>
+  <si>
+    <t>6 * 18  = 108</t>
+  </si>
+  <si>
+    <t>6 * 20  = 120</t>
+  </si>
+  <si>
+    <t>7 * 2  = 14</t>
+  </si>
+  <si>
+    <t>7 * 3  = 21</t>
+  </si>
+  <si>
+    <t>7 * 4  = 28</t>
+  </si>
+  <si>
+    <t>7 * 5  = 35</t>
+  </si>
+  <si>
+    <t>7 * 6  = 42</t>
+  </si>
+  <si>
+    <t>7 * 7  = 49</t>
+  </si>
+  <si>
+    <t>7 * 8  = 56</t>
+  </si>
+  <si>
+    <t>7 * 9  = 63</t>
+  </si>
+  <si>
+    <t>7 * 10  = 70</t>
+  </si>
+  <si>
+    <t>7 * 11  = 77</t>
+  </si>
+  <si>
+    <t>7 * 12  = 84</t>
+  </si>
+  <si>
+    <t>7 * 15  = 105</t>
+  </si>
+  <si>
+    <t>7 * 20  = 140</t>
+  </si>
+  <si>
+    <t>8 * 2  = 16</t>
+  </si>
+  <si>
+    <t>8 * 3  = 24</t>
+  </si>
+  <si>
+    <t>8 * 4  = 32</t>
+  </si>
+  <si>
+    <t>8 * 5  = 40</t>
+  </si>
+  <si>
+    <t>8 * 6  = 48</t>
+  </si>
+  <si>
+    <t>8 * 7  = 56</t>
+  </si>
+  <si>
+    <t>8 * 8  = 64</t>
+  </si>
+  <si>
+    <t>8 * 9  = 72</t>
+  </si>
+  <si>
+    <t>8 * 10  = 80</t>
+  </si>
+  <si>
+    <t>8 * 11  = 88</t>
+  </si>
+  <si>
+    <t>8 * 12  = 96</t>
+  </si>
+  <si>
+    <t>8 * 15  = 120</t>
+  </si>
+  <si>
+    <t>8 * 20  = 160</t>
+  </si>
+  <si>
+    <t>9 * 2  = 18</t>
+  </si>
+  <si>
+    <t>9 * 3  = 27</t>
+  </si>
+  <si>
+    <t>9 * 4  = 36</t>
+  </si>
+  <si>
+    <t>9 * 5  = 45</t>
+  </si>
+  <si>
+    <t>9 * 6  = 54</t>
+  </si>
+  <si>
+    <t>9 * 7  = 63</t>
+  </si>
+  <si>
+    <t>9 * 8  = 72</t>
+  </si>
+  <si>
+    <t>9 * 9  = 81</t>
+  </si>
+  <si>
+    <t>9 * 10  = 90</t>
+  </si>
+  <si>
+    <t>9 * 11  = 99</t>
+  </si>
+  <si>
+    <t>9 * 12  = 108</t>
+  </si>
+  <si>
+    <t>9 * 13  = 117</t>
+  </si>
+  <si>
+    <t>9 * 14  = 126</t>
+  </si>
+  <si>
+    <t>9 * 15  = 135</t>
+  </si>
+  <si>
+    <t>9 * 17  = 153</t>
+  </si>
+  <si>
+    <t>9 * 18  = 162</t>
+  </si>
+  <si>
+    <t>9 * 19  = 171</t>
+  </si>
+  <si>
+    <t>9 * 20  = 180</t>
+  </si>
+  <si>
+    <t>10 * 2  = 20</t>
+  </si>
+  <si>
+    <t>10 * 3  = 30</t>
+  </si>
+  <si>
+    <t>10 * 4  = 40</t>
+  </si>
+  <si>
+    <t>10 * 5  = 50</t>
+  </si>
+  <si>
+    <t>10 * 6  = 60</t>
+  </si>
+  <si>
+    <t>10 * 7  = 70</t>
+  </si>
+  <si>
+    <t>10 * 8  = 80</t>
+  </si>
+  <si>
+    <t>10 * 9  = 90</t>
+  </si>
+  <si>
+    <t>10 * 10  = 100</t>
+  </si>
+  <si>
+    <t>10 * 11  = 110</t>
+  </si>
+  <si>
+    <t>10 * 12  = 120</t>
+  </si>
+  <si>
+    <t>10 * 13  = 130</t>
+  </si>
+  <si>
+    <t>10 * 14  = 140</t>
+  </si>
+  <si>
+    <t>10 * 15  = 150</t>
+  </si>
+  <si>
+    <t>10 * 17  = 170</t>
+  </si>
+  <si>
+    <t>10 * 18  = 180</t>
+  </si>
+  <si>
+    <t>10 * 19  = 190</t>
+  </si>
+  <si>
+    <t>10 * 20  = 200</t>
+  </si>
+  <si>
+    <t>11 * 2  = 22</t>
+  </si>
+  <si>
+    <t>11 * 3  = 33</t>
+  </si>
+  <si>
+    <t>11 * 4  = 44</t>
+  </si>
+  <si>
+    <t>11 * 5  = 55</t>
+  </si>
+  <si>
+    <t>11 * 6  = 66</t>
+  </si>
+  <si>
+    <t>11 * 7  = 77</t>
+  </si>
+  <si>
+    <t>11 * 8  = 88</t>
+  </si>
+  <si>
+    <t>11 * 9  = 99</t>
+  </si>
+  <si>
+    <t>11 * 10  = 110</t>
+  </si>
+  <si>
+    <t>11 * 11  = 121</t>
+  </si>
+  <si>
+    <t>11 * 12  = 132</t>
+  </si>
+  <si>
+    <t>11 * 13  = 143</t>
+  </si>
+  <si>
+    <t>11 * 14  = 154</t>
+  </si>
+  <si>
+    <t>11 * 15  = 165</t>
+  </si>
+  <si>
+    <t>11 * 17  = 187</t>
+  </si>
+  <si>
+    <t>11 * 18  = 198</t>
+  </si>
+  <si>
+    <t>11 * 19  = 209</t>
+  </si>
+  <si>
+    <t>11 * 20  = 220</t>
+  </si>
+  <si>
+    <t>12 * 2  = 24</t>
+  </si>
+  <si>
+    <t>12 * 3  = 36</t>
+  </si>
+  <si>
+    <t>12 * 4  = 48</t>
+  </si>
+  <si>
+    <t>12 * 5  = 60</t>
+  </si>
+  <si>
+    <t>12 * 6  = 72</t>
+  </si>
+  <si>
+    <t>12 * 7  = 84</t>
+  </si>
+  <si>
+    <t>12 * 8  = 96</t>
+  </si>
+  <si>
+    <t>12 * 9  = 108</t>
+  </si>
+  <si>
+    <t>12 * 10  = 120</t>
+  </si>
+  <si>
+    <t>12 * 11  = 132</t>
+  </si>
+  <si>
+    <t>12 * 12  = 144</t>
+  </si>
+  <si>
+    <t>12 * 13  = 156</t>
+  </si>
+  <si>
+    <t>12 * 15  = 180</t>
+  </si>
+  <si>
+    <t>12 * 20  = 240</t>
+  </si>
+  <si>
+    <t>13 * 2  = 26</t>
+  </si>
+  <si>
+    <t>13 * 3  = 39</t>
+  </si>
+  <si>
+    <t>13 * 4  = 52</t>
+  </si>
+  <si>
+    <t>13 * 5  = 65</t>
+  </si>
+  <si>
+    <t>13 * 6  = 78</t>
+  </si>
+  <si>
+    <t>13 * 7  = 91</t>
+  </si>
+  <si>
+    <t>13 * 8  = 104</t>
+  </si>
+  <si>
+    <t>13 * 9  = 117</t>
+  </si>
+  <si>
+    <t>13 * 10  = 130</t>
+  </si>
+  <si>
+    <t>13 * 11  = 143</t>
+  </si>
+  <si>
+    <t>13 * 13  = 169</t>
+  </si>
+  <si>
+    <t>13 * 15  = 195</t>
+  </si>
+  <si>
+    <t>13 * 20  = 260</t>
+  </si>
+  <si>
+    <t>14 * 2  = 28</t>
+  </si>
+  <si>
+    <t>14 * 3  = 42</t>
+  </si>
+  <si>
+    <t>14 * 4  = 56</t>
+  </si>
+  <si>
+    <t>14 * 5  = 70</t>
+  </si>
+  <si>
+    <t>14 * 6  = 84</t>
+  </si>
+  <si>
+    <t>14 * 7  = 98</t>
+  </si>
+  <si>
+    <t>14 * 8  = 112</t>
+  </si>
+  <si>
+    <t>14 * 9  = 126</t>
+  </si>
+  <si>
+    <t>14 * 10  = 140</t>
+  </si>
+  <si>
+    <t>14 * 11  = 154</t>
+  </si>
+  <si>
+    <t>14 * 14  = 196</t>
+  </si>
+  <si>
+    <t>14 * 15  = 210</t>
+  </si>
+  <si>
+    <t>14 * 20  = 280</t>
+  </si>
+  <si>
+    <t>15 * 2  = 30</t>
+  </si>
+  <si>
+    <t>15 * 3  = 45</t>
+  </si>
+  <si>
+    <t>15 * 4  = 60</t>
+  </si>
+  <si>
+    <t>15 * 5  = 75</t>
+  </si>
+  <si>
+    <t>15 * 6  = 90</t>
+  </si>
+  <si>
+    <t>15 * 7  = 105</t>
+  </si>
+  <si>
+    <t>15 * 8  = 120</t>
+  </si>
+  <si>
+    <t>15 * 9  = 135</t>
+  </si>
+  <si>
+    <t>15 * 10  = 150</t>
+  </si>
+  <si>
+    <t>15 * 11  = 165</t>
+  </si>
+  <si>
+    <t>15 * 14  = 210</t>
+  </si>
+  <si>
+    <t>15 * 15  = 225</t>
+  </si>
+  <si>
+    <t>15 * 20  = 300</t>
+  </si>
+  <si>
+    <t>16 * 2  = 32</t>
+  </si>
+  <si>
+    <t>16 * 3  = 48</t>
+  </si>
+  <si>
+    <t>16 * 4  = 64</t>
+  </si>
+  <si>
+    <t>16 * 5  = 80</t>
+  </si>
+  <si>
+    <t>16 * 6  = 96</t>
+  </si>
+  <si>
+    <t>16 * 7  = 112</t>
+  </si>
+  <si>
+    <t>16 * 8  = 128</t>
+  </si>
+  <si>
+    <t>16 * 9  = 144</t>
+  </si>
+  <si>
+    <t>16 * 10  = 160</t>
+  </si>
+  <si>
+    <t>16 * 11  = 176</t>
+  </si>
+  <si>
+    <t>16 * 15  = 240</t>
+  </si>
+  <si>
+    <t>16 * 16  = 256</t>
+  </si>
+  <si>
+    <t>16 * 20  = 320</t>
+  </si>
+  <si>
+    <t>17 * 2  = 34</t>
+  </si>
+  <si>
+    <t>17 * 3  = 51</t>
+  </si>
+  <si>
+    <t>17 * 4  = 68</t>
+  </si>
+  <si>
+    <t>17 * 5  = 85</t>
+  </si>
+  <si>
+    <t>17 * 6  = 102</t>
+  </si>
+  <si>
+    <t>17 * 7  = 119</t>
+  </si>
+  <si>
+    <t>17 * 8  = 136</t>
+  </si>
+  <si>
+    <t>17 * 9  = 153</t>
+  </si>
+  <si>
+    <t>17 * 10  = 170</t>
+  </si>
+  <si>
+    <t>17 * 11  = 187</t>
+  </si>
+  <si>
+    <t>17 * 15  = 255</t>
+  </si>
+  <si>
+    <t>17 * 17  = 289</t>
+  </si>
+  <si>
+    <t>17 * 20  = 340</t>
+  </si>
+  <si>
+    <t>18 * 2  = 36</t>
+  </si>
+  <si>
+    <t>18 * 3  = 54</t>
+  </si>
+  <si>
+    <t>18 * 4  = 72</t>
+  </si>
+  <si>
+    <t>18 * 5  = 90</t>
+  </si>
+  <si>
+    <t>18 * 6  = 108</t>
+  </si>
+  <si>
+    <t>18 * 7  = 126</t>
+  </si>
+  <si>
+    <t>18 * 8  = 144</t>
+  </si>
+  <si>
+    <t>18 * 9  = 162</t>
+  </si>
+  <si>
+    <t>18 * 10  = 180</t>
+  </si>
+  <si>
+    <t>18 * 11  = 198</t>
+  </si>
+  <si>
+    <t>18 * 15  = 270</t>
+  </si>
+  <si>
+    <t>18 * 18  = 324</t>
+  </si>
+  <si>
+    <t>18 * 20  = 360</t>
+  </si>
+  <si>
+    <t>19 * 2  = 38</t>
+  </si>
+  <si>
+    <t>19 * 3  = 57</t>
+  </si>
+  <si>
+    <t>19 * 4  = 76</t>
+  </si>
+  <si>
+    <t>19 * 5  = 95</t>
+  </si>
+  <si>
+    <t>19 * 6  = 114</t>
+  </si>
+  <si>
+    <t>19 * 7  = 133</t>
+  </si>
+  <si>
+    <t>19 * 8  = 152</t>
+  </si>
+  <si>
+    <t>19 * 9  = 171</t>
+  </si>
+  <si>
+    <t>19 * 10  = 190</t>
+  </si>
+  <si>
+    <t>19 * 11  = 209</t>
+  </si>
+  <si>
+    <t>19 * 13  = 247</t>
+  </si>
+  <si>
+    <t>19 * 14  = 266</t>
+  </si>
+  <si>
+    <t>19 * 15  = 285</t>
+  </si>
+  <si>
+    <t>19 * 16  = 304</t>
+  </si>
+  <si>
+    <t>19 * 17  = 323</t>
+  </si>
+  <si>
+    <t>19 * 19  = 361</t>
+  </si>
+  <si>
+    <t>19 * 20  = 380</t>
+  </si>
+  <si>
+    <t>20 * 2  = 40</t>
+  </si>
+  <si>
+    <t>20 * 3  = 60</t>
+  </si>
+  <si>
+    <t>20 * 4  = 80</t>
+  </si>
+  <si>
+    <t>20 * 5  = 100</t>
+  </si>
+  <si>
+    <t>20 * 6  = 120</t>
+  </si>
+  <si>
+    <t>20 * 7  = 140</t>
+  </si>
+  <si>
+    <t>20 * 8  = 160</t>
+  </si>
+  <si>
+    <t>20 * 9  = 180</t>
+  </si>
+  <si>
+    <t>20 * 10  = 200</t>
+  </si>
+  <si>
+    <t>20 * 11  = 220</t>
+  </si>
+  <si>
+    <t>20 * 12  = 240</t>
+  </si>
+  <si>
+    <t>20 * 13  = 260</t>
+  </si>
+  <si>
+    <t>20 * 14  = 280</t>
+  </si>
+  <si>
+    <t>20 * 15  = 300</t>
+  </si>
+  <si>
+    <t>20 * 16  = 320</t>
+  </si>
+  <si>
+    <t>20 * 17  = 340</t>
+  </si>
+  <si>
+    <t>20 * 18  = 360</t>
+  </si>
+  <si>
+    <t>20 * 19  = 380</t>
+  </si>
+  <si>
+    <t>20 * 20  = 400</t>
+  </si>
+  <si>
+    <t>63 : 9 = 7</t>
+  </si>
+  <si>
+    <t>81 : 9 = 9</t>
+  </si>
+  <si>
+    <t>56 : 7 = 8</t>
+  </si>
+  <si>
+    <t>56 : 8 = 7</t>
+  </si>
+  <si>
+    <t>169 : 13 = 13</t>
+  </si>
+  <si>
+    <t>72 : 8 = 9</t>
+  </si>
+  <si>
+    <t>121 : 11 = 11</t>
   </si>
 </sst>
 </file>
@@ -964,7 +1944,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1049,10 +2029,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1076,6 +2052,16 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9851,6 +10837,3216 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB498065-E96F-43C6-BBFC-DE65CF9747D3}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AS67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA30" sqref="AA30:AO67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="26" max="27" width="14.7265625" style="74" customWidth="1"/>
+    <col min="28" max="28" width="7.36328125" style="74" customWidth="1"/>
+    <col min="29" max="29" width="14.7265625" style="74" customWidth="1"/>
+    <col min="30" max="30" width="7.36328125" style="74" customWidth="1"/>
+    <col min="31" max="31" width="14.7265625" style="74" customWidth="1"/>
+    <col min="32" max="32" width="7.36328125" style="74" customWidth="1"/>
+    <col min="33" max="33" width="14.7265625" style="74" customWidth="1"/>
+    <col min="34" max="34" width="7.36328125" style="74" customWidth="1"/>
+    <col min="35" max="35" width="14.7265625" style="74" customWidth="1"/>
+    <col min="36" max="36" width="7.36328125" style="74" customWidth="1"/>
+    <col min="37" max="37" width="14.7265625" style="74" customWidth="1"/>
+    <col min="38" max="38" width="7.36328125" style="74" customWidth="1"/>
+    <col min="39" max="39" width="14.7265625" style="74" customWidth="1"/>
+    <col min="40" max="40" width="7.36328125" style="74" customWidth="1"/>
+    <col min="41" max="45" width="14.7265625" style="74" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="Y1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z1" s="73">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="73">
+        <v>2</v>
+      </c>
+      <c r="AB1" s="73">
+        <v>3</v>
+      </c>
+      <c r="AC1" s="73">
+        <v>4</v>
+      </c>
+      <c r="AD1" s="73">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="73">
+        <v>6</v>
+      </c>
+      <c r="AF1" s="73">
+        <v>7</v>
+      </c>
+      <c r="AG1" s="73">
+        <v>8</v>
+      </c>
+      <c r="AH1" s="73">
+        <v>9</v>
+      </c>
+      <c r="AI1" s="73">
+        <v>10</v>
+      </c>
+      <c r="AJ1" s="73">
+        <v>11</v>
+      </c>
+      <c r="AK1" s="73">
+        <v>12</v>
+      </c>
+      <c r="AL1" s="73">
+        <v>13</v>
+      </c>
+      <c r="AM1" s="73">
+        <v>14</v>
+      </c>
+      <c r="AN1" s="73">
+        <v>15</v>
+      </c>
+      <c r="AO1" s="73">
+        <v>16</v>
+      </c>
+      <c r="AP1" s="73">
+        <v>17</v>
+      </c>
+      <c r="AQ1" s="73">
+        <v>18</v>
+      </c>
+      <c r="AR1" s="73">
+        <v>19</v>
+      </c>
+      <c r="AS1" s="73">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A2" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="72"/>
+      <c r="D2" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="Y2" s="72">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="74" t="str">
+        <f>CONCATENATE($Y2, $Y$1,Z$1,"  = ",$Y2*Z$1)</f>
+        <v>1 * 1  = 1</v>
+      </c>
+      <c r="AA2" s="74" t="str">
+        <f t="shared" ref="AA2:AS15" si="0">CONCATENATE($Y2, $Y$1,AA$1,"  = ",$Y2*AA$1)</f>
+        <v>1 * 2  = 2</v>
+      </c>
+      <c r="AB2" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>1 * 3  = 3</v>
+      </c>
+      <c r="AC2" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>1 * 4  = 4</v>
+      </c>
+      <c r="AD2" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>1 * 5  = 5</v>
+      </c>
+      <c r="AE2" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>1 * 6  = 6</v>
+      </c>
+      <c r="AF2" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>1 * 7  = 7</v>
+      </c>
+      <c r="AG2" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>1 * 8  = 8</v>
+      </c>
+      <c r="AH2" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>1 * 9  = 9</v>
+      </c>
+      <c r="AI2" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>1 * 10  = 10</v>
+      </c>
+      <c r="AJ2" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>1 * 11  = 11</v>
+      </c>
+      <c r="AK2" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>1 * 12  = 12</v>
+      </c>
+      <c r="AL2" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>1 * 13  = 13</v>
+      </c>
+      <c r="AM2" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>1 * 14  = 14</v>
+      </c>
+      <c r="AN2" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>1 * 15  = 15</v>
+      </c>
+      <c r="AO2" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>1 * 16  = 16</v>
+      </c>
+      <c r="AP2" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>1 * 17  = 17</v>
+      </c>
+      <c r="AQ2" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>1 * 18  = 18</v>
+      </c>
+      <c r="AR2" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>1 * 19  = 19</v>
+      </c>
+      <c r="AS2" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>1 * 20  = 20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A3" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="D3" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="72"/>
+      <c r="Y3" s="72">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="74" t="str">
+        <f t="shared" ref="Z3:AO21" si="1">CONCATENATE($Y3, $Y$1,Z$1,"  = ",$Y3*Z$1)</f>
+        <v>2 * 1  = 2</v>
+      </c>
+      <c r="AA3" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>2 * 2  = 4</v>
+      </c>
+      <c r="AB3" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>2 * 3  = 6</v>
+      </c>
+      <c r="AC3" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>2 * 4  = 8</v>
+      </c>
+      <c r="AD3" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>2 * 5  = 10</v>
+      </c>
+      <c r="AE3" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>2 * 6  = 12</v>
+      </c>
+      <c r="AF3" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>2 * 7  = 14</v>
+      </c>
+      <c r="AG3" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>2 * 8  = 16</v>
+      </c>
+      <c r="AH3" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>2 * 9  = 18</v>
+      </c>
+      <c r="AI3" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>2 * 10  = 20</v>
+      </c>
+      <c r="AJ3" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>2 * 11  = 22</v>
+      </c>
+      <c r="AK3" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>2 * 12  = 24</v>
+      </c>
+      <c r="AL3" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>2 * 13  = 26</v>
+      </c>
+      <c r="AM3" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>2 * 14  = 28</v>
+      </c>
+      <c r="AN3" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>2 * 15  = 30</v>
+      </c>
+      <c r="AO3" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>2 * 16  = 32</v>
+      </c>
+      <c r="AP3" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>2 * 17  = 34</v>
+      </c>
+      <c r="AQ3" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>2 * 18  = 36</v>
+      </c>
+      <c r="AR3" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>2 * 19  = 38</v>
+      </c>
+      <c r="AS3" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>2 * 20  = 40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="72"/>
+      <c r="D4" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="72"/>
+      <c r="Y4" s="72">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>3 * 1  = 3</v>
+      </c>
+      <c r="AA4" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>3 * 2  = 6</v>
+      </c>
+      <c r="AB4" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>3 * 3  = 9</v>
+      </c>
+      <c r="AC4" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>3 * 4  = 12</v>
+      </c>
+      <c r="AD4" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>3 * 5  = 15</v>
+      </c>
+      <c r="AE4" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>3 * 6  = 18</v>
+      </c>
+      <c r="AF4" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>3 * 7  = 21</v>
+      </c>
+      <c r="AG4" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>3 * 8  = 24</v>
+      </c>
+      <c r="AH4" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>3 * 9  = 27</v>
+      </c>
+      <c r="AI4" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>3 * 10  = 30</v>
+      </c>
+      <c r="AJ4" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>3 * 11  = 33</v>
+      </c>
+      <c r="AK4" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>3 * 12  = 36</v>
+      </c>
+      <c r="AL4" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>3 * 13  = 39</v>
+      </c>
+      <c r="AM4" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>3 * 14  = 42</v>
+      </c>
+      <c r="AN4" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>3 * 15  = 45</v>
+      </c>
+      <c r="AO4" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>3 * 16  = 48</v>
+      </c>
+      <c r="AP4" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>3 * 17  = 51</v>
+      </c>
+      <c r="AQ4" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>3 * 18  = 54</v>
+      </c>
+      <c r="AR4" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>3 * 19  = 57</v>
+      </c>
+      <c r="AS4" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>3 * 20  = 60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A5" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="72"/>
+      <c r="D5" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="72"/>
+      <c r="Y5" s="72">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>4 * 1  = 4</v>
+      </c>
+      <c r="AA5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>4 * 2  = 8</v>
+      </c>
+      <c r="AB5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>4 * 3  = 12</v>
+      </c>
+      <c r="AC5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>4 * 4  = 16</v>
+      </c>
+      <c r="AD5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>4 * 5  = 20</v>
+      </c>
+      <c r="AE5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>4 * 6  = 24</v>
+      </c>
+      <c r="AF5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>4 * 7  = 28</v>
+      </c>
+      <c r="AG5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>4 * 8  = 32</v>
+      </c>
+      <c r="AH5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>4 * 9  = 36</v>
+      </c>
+      <c r="AI5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>4 * 10  = 40</v>
+      </c>
+      <c r="AJ5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>4 * 11  = 44</v>
+      </c>
+      <c r="AK5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>4 * 12  = 48</v>
+      </c>
+      <c r="AL5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>4 * 13  = 52</v>
+      </c>
+      <c r="AM5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>4 * 14  = 56</v>
+      </c>
+      <c r="AN5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>4 * 15  = 60</v>
+      </c>
+      <c r="AO5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>4 * 16  = 64</v>
+      </c>
+      <c r="AP5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>4 * 17  = 68</v>
+      </c>
+      <c r="AQ5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>4 * 18  = 72</v>
+      </c>
+      <c r="AR5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>4 * 19  = 76</v>
+      </c>
+      <c r="AS5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>4 * 20  = 80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A6" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="72"/>
+      <c r="D6" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="72"/>
+      <c r="Y6" s="72">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>5 * 1  = 5</v>
+      </c>
+      <c r="AA6" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>5 * 2  = 10</v>
+      </c>
+      <c r="AB6" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>5 * 3  = 15</v>
+      </c>
+      <c r="AC6" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>5 * 4  = 20</v>
+      </c>
+      <c r="AD6" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>5 * 5  = 25</v>
+      </c>
+      <c r="AE6" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>5 * 6  = 30</v>
+      </c>
+      <c r="AF6" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>5 * 7  = 35</v>
+      </c>
+      <c r="AG6" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>5 * 8  = 40</v>
+      </c>
+      <c r="AH6" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>5 * 9  = 45</v>
+      </c>
+      <c r="AI6" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>5 * 10  = 50</v>
+      </c>
+      <c r="AJ6" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>5 * 11  = 55</v>
+      </c>
+      <c r="AK6" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>5 * 12  = 60</v>
+      </c>
+      <c r="AL6" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>5 * 13  = 65</v>
+      </c>
+      <c r="AM6" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>5 * 14  = 70</v>
+      </c>
+      <c r="AN6" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>5 * 15  = 75</v>
+      </c>
+      <c r="AO6" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>5 * 16  = 80</v>
+      </c>
+      <c r="AP6" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>5 * 17  = 85</v>
+      </c>
+      <c r="AQ6" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>5 * 18  = 90</v>
+      </c>
+      <c r="AR6" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>5 * 19  = 95</v>
+      </c>
+      <c r="AS6" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>5 * 20  = 100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="B7" s="72"/>
+      <c r="D7" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="72"/>
+      <c r="Y7" s="72">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>6 * 1  = 6</v>
+      </c>
+      <c r="AA7" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>6 * 2  = 12</v>
+      </c>
+      <c r="AB7" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>6 * 3  = 18</v>
+      </c>
+      <c r="AC7" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>6 * 4  = 24</v>
+      </c>
+      <c r="AD7" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>6 * 5  = 30</v>
+      </c>
+      <c r="AE7" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>6 * 6  = 36</v>
+      </c>
+      <c r="AF7" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>6 * 7  = 42</v>
+      </c>
+      <c r="AG7" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>6 * 8  = 48</v>
+      </c>
+      <c r="AH7" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>6 * 9  = 54</v>
+      </c>
+      <c r="AI7" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>6 * 10  = 60</v>
+      </c>
+      <c r="AJ7" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>6 * 11  = 66</v>
+      </c>
+      <c r="AK7" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>6 * 12  = 72</v>
+      </c>
+      <c r="AL7" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>6 * 13  = 78</v>
+      </c>
+      <c r="AM7" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>6 * 14  = 84</v>
+      </c>
+      <c r="AN7" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>6 * 15  = 90</v>
+      </c>
+      <c r="AO7" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>6 * 16  = 96</v>
+      </c>
+      <c r="AP7" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>6 * 17  = 102</v>
+      </c>
+      <c r="AQ7" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>6 * 18  = 108</v>
+      </c>
+      <c r="AR7" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>6 * 19  = 114</v>
+      </c>
+      <c r="AS7" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>6 * 20  = 120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="B8" s="72"/>
+      <c r="D8" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="72"/>
+      <c r="Y8" s="72">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>7 * 1  = 7</v>
+      </c>
+      <c r="AA8" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>7 * 2  = 14</v>
+      </c>
+      <c r="AB8" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>7 * 3  = 21</v>
+      </c>
+      <c r="AC8" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>7 * 4  = 28</v>
+      </c>
+      <c r="AD8" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>7 * 5  = 35</v>
+      </c>
+      <c r="AE8" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>7 * 6  = 42</v>
+      </c>
+      <c r="AF8" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>7 * 7  = 49</v>
+      </c>
+      <c r="AG8" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>7 * 8  = 56</v>
+      </c>
+      <c r="AH8" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>7 * 9  = 63</v>
+      </c>
+      <c r="AI8" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>7 * 10  = 70</v>
+      </c>
+      <c r="AJ8" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>7 * 11  = 77</v>
+      </c>
+      <c r="AK8" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>7 * 12  = 84</v>
+      </c>
+      <c r="AL8" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>7 * 13  = 91</v>
+      </c>
+      <c r="AM8" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>7 * 14  = 98</v>
+      </c>
+      <c r="AN8" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>7 * 15  = 105</v>
+      </c>
+      <c r="AO8" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>7 * 16  = 112</v>
+      </c>
+      <c r="AP8" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>7 * 17  = 119</v>
+      </c>
+      <c r="AQ8" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>7 * 18  = 126</v>
+      </c>
+      <c r="AR8" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>7 * 19  = 133</v>
+      </c>
+      <c r="AS8" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>7 * 20  = 140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="D9" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="72"/>
+      <c r="Y9" s="72">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>8 * 1  = 8</v>
+      </c>
+      <c r="AA9" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>8 * 2  = 16</v>
+      </c>
+      <c r="AB9" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>8 * 3  = 24</v>
+      </c>
+      <c r="AC9" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>8 * 4  = 32</v>
+      </c>
+      <c r="AD9" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>8 * 5  = 40</v>
+      </c>
+      <c r="AE9" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>8 * 6  = 48</v>
+      </c>
+      <c r="AF9" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>8 * 7  = 56</v>
+      </c>
+      <c r="AG9" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>8 * 8  = 64</v>
+      </c>
+      <c r="AH9" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>8 * 9  = 72</v>
+      </c>
+      <c r="AI9" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>8 * 10  = 80</v>
+      </c>
+      <c r="AJ9" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>8 * 11  = 88</v>
+      </c>
+      <c r="AK9" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>8 * 12  = 96</v>
+      </c>
+      <c r="AL9" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>8 * 13  = 104</v>
+      </c>
+      <c r="AM9" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>8 * 14  = 112</v>
+      </c>
+      <c r="AN9" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>8 * 15  = 120</v>
+      </c>
+      <c r="AO9" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>8 * 16  = 128</v>
+      </c>
+      <c r="AP9" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>8 * 17  = 136</v>
+      </c>
+      <c r="AQ9" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>8 * 18  = 144</v>
+      </c>
+      <c r="AR9" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>8 * 19  = 152</v>
+      </c>
+      <c r="AS9" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>8 * 20  = 160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A10" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="72"/>
+      <c r="D10" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="72"/>
+      <c r="Y10" s="72">
+        <v>9</v>
+      </c>
+      <c r="Z10" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>9 * 1  = 9</v>
+      </c>
+      <c r="AA10" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>9 * 2  = 18</v>
+      </c>
+      <c r="AB10" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>9 * 3  = 27</v>
+      </c>
+      <c r="AC10" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>9 * 4  = 36</v>
+      </c>
+      <c r="AD10" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>9 * 5  = 45</v>
+      </c>
+      <c r="AE10" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>9 * 6  = 54</v>
+      </c>
+      <c r="AF10" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>9 * 7  = 63</v>
+      </c>
+      <c r="AG10" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>9 * 8  = 72</v>
+      </c>
+      <c r="AH10" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>9 * 9  = 81</v>
+      </c>
+      <c r="AI10" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>9 * 10  = 90</v>
+      </c>
+      <c r="AJ10" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>9 * 11  = 99</v>
+      </c>
+      <c r="AK10" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>9 * 12  = 108</v>
+      </c>
+      <c r="AL10" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>9 * 13  = 117</v>
+      </c>
+      <c r="AM10" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>9 * 14  = 126</v>
+      </c>
+      <c r="AN10" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>9 * 15  = 135</v>
+      </c>
+      <c r="AO10" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>9 * 16  = 144</v>
+      </c>
+      <c r="AP10" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>9 * 17  = 153</v>
+      </c>
+      <c r="AQ10" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>9 * 18  = 162</v>
+      </c>
+      <c r="AR10" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>9 * 19  = 171</v>
+      </c>
+      <c r="AS10" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>9 * 20  = 180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="Y11" s="72">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>10 * 1  = 10</v>
+      </c>
+      <c r="AA11" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>10 * 2  = 20</v>
+      </c>
+      <c r="AB11" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>10 * 3  = 30</v>
+      </c>
+      <c r="AC11" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>10 * 4  = 40</v>
+      </c>
+      <c r="AD11" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>10 * 5  = 50</v>
+      </c>
+      <c r="AE11" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>10 * 6  = 60</v>
+      </c>
+      <c r="AF11" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>10 * 7  = 70</v>
+      </c>
+      <c r="AG11" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>10 * 8  = 80</v>
+      </c>
+      <c r="AH11" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>10 * 9  = 90</v>
+      </c>
+      <c r="AI11" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>10 * 10  = 100</v>
+      </c>
+      <c r="AJ11" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>10 * 11  = 110</v>
+      </c>
+      <c r="AK11" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>10 * 12  = 120</v>
+      </c>
+      <c r="AL11" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>10 * 13  = 130</v>
+      </c>
+      <c r="AM11" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>10 * 14  = 140</v>
+      </c>
+      <c r="AN11" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>10 * 15  = 150</v>
+      </c>
+      <c r="AO11" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>10 * 16  = 160</v>
+      </c>
+      <c r="AP11" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>10 * 17  = 170</v>
+      </c>
+      <c r="AQ11" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>10 * 18  = 180</v>
+      </c>
+      <c r="AR11" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>10 * 19  = 190</v>
+      </c>
+      <c r="AS11" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>10 * 20  = 200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A12" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="72"/>
+      <c r="D12" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="72"/>
+      <c r="Y12" s="72">
+        <v>11</v>
+      </c>
+      <c r="Z12" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>11 * 1  = 11</v>
+      </c>
+      <c r="AA12" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>11 * 2  = 22</v>
+      </c>
+      <c r="AB12" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>11 * 3  = 33</v>
+      </c>
+      <c r="AC12" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>11 * 4  = 44</v>
+      </c>
+      <c r="AD12" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>11 * 5  = 55</v>
+      </c>
+      <c r="AE12" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>11 * 6  = 66</v>
+      </c>
+      <c r="AF12" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>11 * 7  = 77</v>
+      </c>
+      <c r="AG12" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>11 * 8  = 88</v>
+      </c>
+      <c r="AH12" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>11 * 9  = 99</v>
+      </c>
+      <c r="AI12" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>11 * 10  = 110</v>
+      </c>
+      <c r="AJ12" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>11 * 11  = 121</v>
+      </c>
+      <c r="AK12" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>11 * 12  = 132</v>
+      </c>
+      <c r="AL12" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>11 * 13  = 143</v>
+      </c>
+      <c r="AM12" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>11 * 14  = 154</v>
+      </c>
+      <c r="AN12" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>11 * 15  = 165</v>
+      </c>
+      <c r="AO12" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>11 * 16  = 176</v>
+      </c>
+      <c r="AP12" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>11 * 17  = 187</v>
+      </c>
+      <c r="AQ12" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>11 * 18  = 198</v>
+      </c>
+      <c r="AR12" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>11 * 19  = 209</v>
+      </c>
+      <c r="AS12" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>11 * 20  = 220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="Y13" s="72">
+        <v>12</v>
+      </c>
+      <c r="Z13" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>12 * 1  = 12</v>
+      </c>
+      <c r="AA13" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>12 * 2  = 24</v>
+      </c>
+      <c r="AB13" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>12 * 3  = 36</v>
+      </c>
+      <c r="AC13" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>12 * 4  = 48</v>
+      </c>
+      <c r="AD13" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>12 * 5  = 60</v>
+      </c>
+      <c r="AE13" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>12 * 6  = 72</v>
+      </c>
+      <c r="AF13" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>12 * 7  = 84</v>
+      </c>
+      <c r="AG13" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>12 * 8  = 96</v>
+      </c>
+      <c r="AH13" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>12 * 9  = 108</v>
+      </c>
+      <c r="AI13" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>12 * 10  = 120</v>
+      </c>
+      <c r="AJ13" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>12 * 11  = 132</v>
+      </c>
+      <c r="AK13" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>12 * 12  = 144</v>
+      </c>
+      <c r="AL13" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>12 * 13  = 156</v>
+      </c>
+      <c r="AM13" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>12 * 14  = 168</v>
+      </c>
+      <c r="AN13" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>12 * 15  = 180</v>
+      </c>
+      <c r="AO13" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>12 * 16  = 192</v>
+      </c>
+      <c r="AP13" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>12 * 17  = 204</v>
+      </c>
+      <c r="AQ13" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>12 * 18  = 216</v>
+      </c>
+      <c r="AR13" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>12 * 19  = 228</v>
+      </c>
+      <c r="AS13" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>12 * 20  = 240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A14" s="72"/>
+      <c r="B14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="Y14" s="72">
+        <v>13</v>
+      </c>
+      <c r="Z14" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>13 * 1  = 13</v>
+      </c>
+      <c r="AA14" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>13 * 2  = 26</v>
+      </c>
+      <c r="AB14" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>13 * 3  = 39</v>
+      </c>
+      <c r="AC14" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>13 * 4  = 52</v>
+      </c>
+      <c r="AD14" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>13 * 5  = 65</v>
+      </c>
+      <c r="AE14" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>13 * 6  = 78</v>
+      </c>
+      <c r="AF14" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>13 * 7  = 91</v>
+      </c>
+      <c r="AG14" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>13 * 8  = 104</v>
+      </c>
+      <c r="AH14" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>13 * 9  = 117</v>
+      </c>
+      <c r="AI14" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>13 * 10  = 130</v>
+      </c>
+      <c r="AJ14" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>13 * 11  = 143</v>
+      </c>
+      <c r="AK14" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>13 * 12  = 156</v>
+      </c>
+      <c r="AL14" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>13 * 13  = 169</v>
+      </c>
+      <c r="AM14" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>13 * 14  = 182</v>
+      </c>
+      <c r="AN14" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>13 * 15  = 195</v>
+      </c>
+      <c r="AO14" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>13 * 16  = 208</v>
+      </c>
+      <c r="AP14" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>13 * 17  = 221</v>
+      </c>
+      <c r="AQ14" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>13 * 18  = 234</v>
+      </c>
+      <c r="AR14" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>13 * 19  = 247</v>
+      </c>
+      <c r="AS14" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>13 * 20  = 260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="Y15" s="72">
+        <v>14</v>
+      </c>
+      <c r="Z15" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>14 * 1  = 14</v>
+      </c>
+      <c r="AA15" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>14 * 2  = 28</v>
+      </c>
+      <c r="AB15" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>14 * 3  = 42</v>
+      </c>
+      <c r="AC15" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>14 * 4  = 56</v>
+      </c>
+      <c r="AD15" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>14 * 5  = 70</v>
+      </c>
+      <c r="AE15" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>14 * 6  = 84</v>
+      </c>
+      <c r="AF15" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>14 * 7  = 98</v>
+      </c>
+      <c r="AG15" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>14 * 8  = 112</v>
+      </c>
+      <c r="AH15" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>14 * 9  = 126</v>
+      </c>
+      <c r="AI15" s="74" t="str">
+        <f t="shared" ref="AI15:AS21" si="2">CONCATENATE($Y15, $Y$1,AI$1,"  = ",$Y15*AI$1)</f>
+        <v>14 * 10  = 140</v>
+      </c>
+      <c r="AJ15" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>14 * 11  = 154</v>
+      </c>
+      <c r="AK15" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>14 * 12  = 168</v>
+      </c>
+      <c r="AL15" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>14 * 13  = 182</v>
+      </c>
+      <c r="AM15" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>14 * 14  = 196</v>
+      </c>
+      <c r="AN15" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>14 * 15  = 210</v>
+      </c>
+      <c r="AO15" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>14 * 16  = 224</v>
+      </c>
+      <c r="AP15" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>14 * 17  = 238</v>
+      </c>
+      <c r="AQ15" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>14 * 18  = 252</v>
+      </c>
+      <c r="AR15" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>14 * 19  = 266</v>
+      </c>
+      <c r="AS15" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>14 * 20  = 280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A16" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="72"/>
+      <c r="D16" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="72"/>
+      <c r="Y16" s="72">
+        <v>15</v>
+      </c>
+      <c r="Z16" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>15 * 1  = 15</v>
+      </c>
+      <c r="AA16" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>15 * 2  = 30</v>
+      </c>
+      <c r="AB16" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>15 * 3  = 45</v>
+      </c>
+      <c r="AC16" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>15 * 4  = 60</v>
+      </c>
+      <c r="AD16" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>15 * 5  = 75</v>
+      </c>
+      <c r="AE16" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>15 * 6  = 90</v>
+      </c>
+      <c r="AF16" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>15 * 7  = 105</v>
+      </c>
+      <c r="AG16" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>15 * 8  = 120</v>
+      </c>
+      <c r="AH16" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>15 * 9  = 135</v>
+      </c>
+      <c r="AI16" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>15 * 10  = 150</v>
+      </c>
+      <c r="AJ16" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>15 * 11  = 165</v>
+      </c>
+      <c r="AK16" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>15 * 12  = 180</v>
+      </c>
+      <c r="AL16" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>15 * 13  = 195</v>
+      </c>
+      <c r="AM16" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>15 * 14  = 210</v>
+      </c>
+      <c r="AN16" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>15 * 15  = 225</v>
+      </c>
+      <c r="AO16" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>15 * 16  = 240</v>
+      </c>
+      <c r="AP16" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>15 * 17  = 255</v>
+      </c>
+      <c r="AQ16" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>15 * 18  = 270</v>
+      </c>
+      <c r="AR16" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>15 * 19  = 285</v>
+      </c>
+      <c r="AS16" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>15 * 20  = 300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="Y17" s="72">
+        <v>16</v>
+      </c>
+      <c r="Z17" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>16 * 1  = 16</v>
+      </c>
+      <c r="AA17" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>16 * 2  = 32</v>
+      </c>
+      <c r="AB17" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>16 * 3  = 48</v>
+      </c>
+      <c r="AC17" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>16 * 4  = 64</v>
+      </c>
+      <c r="AD17" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>16 * 5  = 80</v>
+      </c>
+      <c r="AE17" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>16 * 6  = 96</v>
+      </c>
+      <c r="AF17" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>16 * 7  = 112</v>
+      </c>
+      <c r="AG17" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>16 * 8  = 128</v>
+      </c>
+      <c r="AH17" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>16 * 9  = 144</v>
+      </c>
+      <c r="AI17" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>16 * 10  = 160</v>
+      </c>
+      <c r="AJ17" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>16 * 11  = 176</v>
+      </c>
+      <c r="AK17" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>16 * 12  = 192</v>
+      </c>
+      <c r="AL17" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>16 * 13  = 208</v>
+      </c>
+      <c r="AM17" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>16 * 14  = 224</v>
+      </c>
+      <c r="AN17" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>16 * 15  = 240</v>
+      </c>
+      <c r="AO17" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>16 * 16  = 256</v>
+      </c>
+      <c r="AP17" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>16 * 17  = 272</v>
+      </c>
+      <c r="AQ17" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>16 * 18  = 288</v>
+      </c>
+      <c r="AR17" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>16 * 19  = 304</v>
+      </c>
+      <c r="AS17" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>16 * 20  = 320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="Y18" s="72">
+        <v>17</v>
+      </c>
+      <c r="Z18" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>17 * 1  = 17</v>
+      </c>
+      <c r="AA18" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>17 * 2  = 34</v>
+      </c>
+      <c r="AB18" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>17 * 3  = 51</v>
+      </c>
+      <c r="AC18" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>17 * 4  = 68</v>
+      </c>
+      <c r="AD18" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>17 * 5  = 85</v>
+      </c>
+      <c r="AE18" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>17 * 6  = 102</v>
+      </c>
+      <c r="AF18" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>17 * 7  = 119</v>
+      </c>
+      <c r="AG18" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>17 * 8  = 136</v>
+      </c>
+      <c r="AH18" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>17 * 9  = 153</v>
+      </c>
+      <c r="AI18" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>17 * 10  = 170</v>
+      </c>
+      <c r="AJ18" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>17 * 11  = 187</v>
+      </c>
+      <c r="AK18" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>17 * 12  = 204</v>
+      </c>
+      <c r="AL18" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>17 * 13  = 221</v>
+      </c>
+      <c r="AM18" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>17 * 14  = 238</v>
+      </c>
+      <c r="AN18" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>17 * 15  = 255</v>
+      </c>
+      <c r="AO18" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>17 * 16  = 272</v>
+      </c>
+      <c r="AP18" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>17 * 17  = 289</v>
+      </c>
+      <c r="AQ18" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>17 * 18  = 306</v>
+      </c>
+      <c r="AR18" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>17 * 19  = 323</v>
+      </c>
+      <c r="AS18" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>17 * 20  = 340</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A19" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="72"/>
+      <c r="D19" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="72"/>
+      <c r="Y19" s="72">
+        <v>18</v>
+      </c>
+      <c r="Z19" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>18 * 1  = 18</v>
+      </c>
+      <c r="AA19" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>18 * 2  = 36</v>
+      </c>
+      <c r="AB19" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>18 * 3  = 54</v>
+      </c>
+      <c r="AC19" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>18 * 4  = 72</v>
+      </c>
+      <c r="AD19" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>18 * 5  = 90</v>
+      </c>
+      <c r="AE19" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>18 * 6  = 108</v>
+      </c>
+      <c r="AF19" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>18 * 7  = 126</v>
+      </c>
+      <c r="AG19" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>18 * 8  = 144</v>
+      </c>
+      <c r="AH19" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>18 * 9  = 162</v>
+      </c>
+      <c r="AI19" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>18 * 10  = 180</v>
+      </c>
+      <c r="AJ19" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>18 * 11  = 198</v>
+      </c>
+      <c r="AK19" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>18 * 12  = 216</v>
+      </c>
+      <c r="AL19" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>18 * 13  = 234</v>
+      </c>
+      <c r="AM19" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>18 * 14  = 252</v>
+      </c>
+      <c r="AN19" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>18 * 15  = 270</v>
+      </c>
+      <c r="AO19" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>18 * 16  = 288</v>
+      </c>
+      <c r="AP19" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>18 * 17  = 306</v>
+      </c>
+      <c r="AQ19" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>18 * 18  = 324</v>
+      </c>
+      <c r="AR19" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>18 * 19  = 342</v>
+      </c>
+      <c r="AS19" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>18 * 20  = 360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A20" s="72"/>
+      <c r="B20" s="72"/>
+      <c r="Y20" s="72">
+        <v>19</v>
+      </c>
+      <c r="Z20" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>19 * 1  = 19</v>
+      </c>
+      <c r="AA20" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>19 * 2  = 38</v>
+      </c>
+      <c r="AB20" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>19 * 3  = 57</v>
+      </c>
+      <c r="AC20" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>19 * 4  = 76</v>
+      </c>
+      <c r="AD20" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>19 * 5  = 95</v>
+      </c>
+      <c r="AE20" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>19 * 6  = 114</v>
+      </c>
+      <c r="AF20" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>19 * 7  = 133</v>
+      </c>
+      <c r="AG20" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>19 * 8  = 152</v>
+      </c>
+      <c r="AH20" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>19 * 9  = 171</v>
+      </c>
+      <c r="AI20" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>19 * 10  = 190</v>
+      </c>
+      <c r="AJ20" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>19 * 11  = 209</v>
+      </c>
+      <c r="AK20" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>19 * 12  = 228</v>
+      </c>
+      <c r="AL20" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>19 * 13  = 247</v>
+      </c>
+      <c r="AM20" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>19 * 14  = 266</v>
+      </c>
+      <c r="AN20" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>19 * 15  = 285</v>
+      </c>
+      <c r="AO20" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>19 * 16  = 304</v>
+      </c>
+      <c r="AP20" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>19 * 17  = 323</v>
+      </c>
+      <c r="AQ20" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>19 * 18  = 342</v>
+      </c>
+      <c r="AR20" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>19 * 19  = 361</v>
+      </c>
+      <c r="AS20" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>19 * 20  = 380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="Y21" s="72">
+        <v>20</v>
+      </c>
+      <c r="Z21" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>20 * 1  = 20</v>
+      </c>
+      <c r="AA21" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>20 * 2  = 40</v>
+      </c>
+      <c r="AB21" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>20 * 3  = 60</v>
+      </c>
+      <c r="AC21" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>20 * 4  = 80</v>
+      </c>
+      <c r="AD21" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>20 * 5  = 100</v>
+      </c>
+      <c r="AE21" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>20 * 6  = 120</v>
+      </c>
+      <c r="AF21" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>20 * 7  = 140</v>
+      </c>
+      <c r="AG21" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>20 * 8  = 160</v>
+      </c>
+      <c r="AH21" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>20 * 9  = 180</v>
+      </c>
+      <c r="AI21" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>20 * 10  = 200</v>
+      </c>
+      <c r="AJ21" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>20 * 11  = 220</v>
+      </c>
+      <c r="AK21" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>20 * 12  = 240</v>
+      </c>
+      <c r="AL21" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>20 * 13  = 260</v>
+      </c>
+      <c r="AM21" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>20 * 14  = 280</v>
+      </c>
+      <c r="AN21" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>20 * 15  = 300</v>
+      </c>
+      <c r="AO21" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>20 * 16  = 320</v>
+      </c>
+      <c r="AP21" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>20 * 17  = 340</v>
+      </c>
+      <c r="AQ21" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>20 * 18  = 360</v>
+      </c>
+      <c r="AR21" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>20 * 19  = 380</v>
+      </c>
+      <c r="AS21" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>20 * 20  = 400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A22" s="72"/>
+      <c r="B22" s="72"/>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
+      <c r="Y24" s="72"/>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A25" s="72"/>
+      <c r="B25" s="72"/>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A26" s="72"/>
+      <c r="B26" s="72"/>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A27" s="72"/>
+      <c r="B27" s="72"/>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A28" s="72"/>
+      <c r="B28" s="72"/>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A29" s="72"/>
+      <c r="B29" s="72"/>
+    </row>
+    <row r="30" spans="1:45" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="72"/>
+      <c r="B30" s="72"/>
+      <c r="AA30" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB30" s="75"/>
+      <c r="AC30" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD30" s="75"/>
+      <c r="AE30" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF30" s="75"/>
+      <c r="AG30" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH30" s="75"/>
+      <c r="AI30" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ30" s="75"/>
+      <c r="AK30" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL30" s="75"/>
+      <c r="AM30" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN30" s="75"/>
+      <c r="AO30" s="75" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="72"/>
+      <c r="B31" s="72"/>
+      <c r="AA31" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB31" s="75"/>
+      <c r="AC31" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD31" s="75"/>
+      <c r="AE31" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF31" s="75"/>
+      <c r="AG31" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH31" s="75"/>
+      <c r="AI31" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ31" s="75"/>
+      <c r="AK31" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL31" s="75"/>
+      <c r="AM31" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN31" s="75"/>
+      <c r="AO31" s="75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA32" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB32" s="75"/>
+      <c r="AC32" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD32" s="75"/>
+      <c r="AE32" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF32" s="75"/>
+      <c r="AG32" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH32" s="75"/>
+      <c r="AI32" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ32" s="75"/>
+      <c r="AK32" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL32" s="75"/>
+      <c r="AM32" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN32" s="75"/>
+      <c r="AO32" s="75" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA33" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB33" s="75"/>
+      <c r="AC33" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD33" s="75"/>
+      <c r="AE33" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF33" s="75"/>
+      <c r="AG33" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH33" s="75"/>
+      <c r="AI33" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ33" s="75"/>
+      <c r="AK33" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL33" s="75"/>
+      <c r="AM33" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN33" s="75"/>
+      <c r="AO33" s="75" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA34" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB34" s="75"/>
+      <c r="AC34" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD34" s="75"/>
+      <c r="AE34" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF34" s="75"/>
+      <c r="AG34" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH34" s="75"/>
+      <c r="AI34" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ34" s="75"/>
+      <c r="AK34" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL34" s="75"/>
+      <c r="AM34" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN34" s="75"/>
+      <c r="AO34" s="75" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA35" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB35" s="75"/>
+      <c r="AC35" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD35" s="75"/>
+      <c r="AE35" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF35" s="75"/>
+      <c r="AG35" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH35" s="75"/>
+      <c r="AI35" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ35" s="75"/>
+      <c r="AK35" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL35" s="75"/>
+      <c r="AM35" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN35" s="75"/>
+      <c r="AO35" s="75" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA36" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB36" s="75"/>
+      <c r="AC36" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD36" s="75"/>
+      <c r="AE36" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF36" s="75"/>
+      <c r="AG36" s="75" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH36" s="75"/>
+      <c r="AI36" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ36" s="75"/>
+      <c r="AK36" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL36" s="75"/>
+      <c r="AM36" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN36" s="75"/>
+      <c r="AO36" s="75" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA37" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB37" s="75"/>
+      <c r="AC37" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD37" s="75"/>
+      <c r="AE37" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF37" s="75"/>
+      <c r="AG37" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH37" s="75"/>
+      <c r="AI37" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ37" s="75"/>
+      <c r="AK37" s="75" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL37" s="75"/>
+      <c r="AM37" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN37" s="75"/>
+      <c r="AO37" s="75" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA38" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB38" s="75"/>
+      <c r="AC38" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD38" s="75"/>
+      <c r="AE38" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF38" s="75"/>
+      <c r="AG38" s="75" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH38" s="75"/>
+      <c r="AI38" s="75" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ38" s="75"/>
+      <c r="AK38" s="75" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL38" s="75"/>
+      <c r="AM38" s="75" t="s">
+        <v>213</v>
+      </c>
+      <c r="AN38" s="75"/>
+      <c r="AO38" s="75" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA39" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB39" s="75"/>
+      <c r="AC39" s="75" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD39" s="75"/>
+      <c r="AE39" s="75" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF39" s="75"/>
+      <c r="AG39" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH39" s="75"/>
+      <c r="AI39" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ39" s="75"/>
+      <c r="AK39" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="AL39" s="75"/>
+      <c r="AM39" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="AN39" s="75"/>
+      <c r="AO39" s="75" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="40" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA40" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB40" s="75"/>
+      <c r="AC40" s="75" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD40" s="75"/>
+      <c r="AE40" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF40" s="75"/>
+      <c r="AG40" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH40" s="75"/>
+      <c r="AI40" s="75" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ40" s="75"/>
+      <c r="AK40" s="75" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL40" s="75"/>
+      <c r="AM40" s="75" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN40" s="75"/>
+      <c r="AO40" s="75" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA41" s="75" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB41" s="75"/>
+      <c r="AC41" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD41" s="75"/>
+      <c r="AE41" s="75" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF41" s="75"/>
+      <c r="AG41" s="75" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH41" s="75"/>
+      <c r="AI41" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ41" s="75"/>
+      <c r="AK41" s="75" t="s">
+        <v>355</v>
+      </c>
+      <c r="AL41" s="75"/>
+      <c r="AM41" s="75" t="s">
+        <v>261</v>
+      </c>
+      <c r="AN41" s="75"/>
+      <c r="AO41" s="75" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="42" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA42" s="75" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB42" s="75"/>
+      <c r="AC42" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD42" s="75"/>
+      <c r="AE42" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF42" s="75"/>
+      <c r="AG42" s="75" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH42" s="75"/>
+      <c r="AI42" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ42" s="75"/>
+      <c r="AK42" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL42" s="75"/>
+      <c r="AM42" s="75" t="s">
+        <v>274</v>
+      </c>
+      <c r="AN42" s="75"/>
+      <c r="AO42" s="75" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="43" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA43" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB43" s="75"/>
+      <c r="AC43" s="75" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD43" s="75"/>
+      <c r="AE43" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF43" s="75"/>
+      <c r="AG43" s="75" t="s">
+        <v>282</v>
+      </c>
+      <c r="AH43" s="75"/>
+      <c r="AI43" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="AJ43" s="75"/>
+      <c r="AK43" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL43" s="75"/>
+      <c r="AM43" s="75" t="s">
+        <v>287</v>
+      </c>
+      <c r="AN43" s="75"/>
+      <c r="AO43" s="75" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="44" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA44" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB44" s="75"/>
+      <c r="AC44" s="75" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD44" s="75"/>
+      <c r="AE44" s="75" t="s">
+        <v>293</v>
+      </c>
+      <c r="AF44" s="75"/>
+      <c r="AG44" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="AH44" s="75"/>
+      <c r="AI44" s="75" t="s">
+        <v>297</v>
+      </c>
+      <c r="AJ44" s="75"/>
+      <c r="AK44" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL44" s="75"/>
+      <c r="AM44" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="AN44" s="75"/>
+      <c r="AO44" s="75" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="45" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA45" s="75" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB45" s="75"/>
+      <c r="AC45" s="75" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD45" s="75"/>
+      <c r="AE45" s="75" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF45" s="75"/>
+      <c r="AG45" s="75" t="s">
+        <v>308</v>
+      </c>
+      <c r="AH45" s="75"/>
+      <c r="AI45" s="75" t="s">
+        <v>310</v>
+      </c>
+      <c r="AJ45" s="75"/>
+      <c r="AK45" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL45" s="75"/>
+      <c r="AM45" s="75" t="s">
+        <v>312</v>
+      </c>
+      <c r="AN45" s="75"/>
+      <c r="AO45" s="75" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA46" s="75" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB46" s="75"/>
+      <c r="AC46" s="75" t="s">
+        <v>317</v>
+      </c>
+      <c r="AD46" s="75"/>
+      <c r="AE46" s="75" t="s">
+        <v>319</v>
+      </c>
+      <c r="AF46" s="75"/>
+      <c r="AG46" s="75" t="s">
+        <v>321</v>
+      </c>
+      <c r="AH46" s="75"/>
+      <c r="AI46" s="75" t="s">
+        <v>323</v>
+      </c>
+      <c r="AJ46" s="75"/>
+      <c r="AK46" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL46" s="75"/>
+      <c r="AM46" s="75" t="s">
+        <v>325</v>
+      </c>
+      <c r="AN46" s="75"/>
+      <c r="AO46" s="75" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="47" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA47" s="75" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB47" s="75"/>
+      <c r="AC47" s="75" t="s">
+        <v>330</v>
+      </c>
+      <c r="AD47" s="75"/>
+      <c r="AE47" s="75" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF47" s="75"/>
+      <c r="AG47" s="75" t="s">
+        <v>334</v>
+      </c>
+      <c r="AH47" s="75"/>
+      <c r="AI47" s="75" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ47" s="75"/>
+      <c r="AK47" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL47" s="75"/>
+      <c r="AM47" s="75" t="s">
+        <v>340</v>
+      </c>
+      <c r="AN47" s="75"/>
+      <c r="AO47" s="75" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="48" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA48" s="75" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB48" s="75"/>
+      <c r="AC48" s="75" t="s">
+        <v>347</v>
+      </c>
+      <c r="AD48" s="75"/>
+      <c r="AE48" s="75" t="s">
+        <v>349</v>
+      </c>
+      <c r="AF48" s="75"/>
+      <c r="AG48" s="75" t="s">
+        <v>351</v>
+      </c>
+      <c r="AH48" s="75"/>
+      <c r="AI48" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="AJ48" s="75"/>
+      <c r="AK48" s="75" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL48" s="75"/>
+      <c r="AM48" s="75" t="s">
+        <v>358</v>
+      </c>
+      <c r="AN48" s="75"/>
+      <c r="AO48" s="75" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="49" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA49" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB49" s="75"/>
+      <c r="AC49" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD49" s="75"/>
+      <c r="AE49" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF49" s="75"/>
+      <c r="AG49" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH49" s="75"/>
+      <c r="AI49" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ49" s="75"/>
+      <c r="AK49" s="75" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL49" s="75"/>
+      <c r="AM49" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN49" s="75"/>
+      <c r="AO49" s="75" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA50" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB50" s="75"/>
+      <c r="AC50" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD50" s="75"/>
+      <c r="AE50" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF50" s="75"/>
+      <c r="AG50" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH50" s="75"/>
+      <c r="AI50" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ50" s="75"/>
+      <c r="AK50" s="75" t="s">
+        <v>260</v>
+      </c>
+      <c r="AL50" s="75"/>
+      <c r="AM50" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN50" s="75"/>
+      <c r="AO50" s="75" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA51" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB51" s="75"/>
+      <c r="AC51" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD51" s="75"/>
+      <c r="AE51" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF51" s="75"/>
+      <c r="AG51" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH51" s="75"/>
+      <c r="AI51" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ51" s="75"/>
+      <c r="AK51" s="75" t="s">
+        <v>338</v>
+      </c>
+      <c r="AL51" s="75"/>
+      <c r="AM51" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN51" s="75"/>
+      <c r="AO51" s="75" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA52" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB52" s="75"/>
+      <c r="AC52" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD52" s="75"/>
+      <c r="AE52" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF52" s="75"/>
+      <c r="AG52" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH52" s="75"/>
+      <c r="AI52" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ52" s="75"/>
+      <c r="AK52" s="75" t="s">
+        <v>356</v>
+      </c>
+      <c r="AL52" s="75"/>
+      <c r="AM52" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="AN52" s="75"/>
+      <c r="AO52" s="75" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA53" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB53" s="75"/>
+      <c r="AC53" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD53" s="75"/>
+      <c r="AE53" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF53" s="75"/>
+      <c r="AG53" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH53" s="75"/>
+      <c r="AI53" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ53" s="75"/>
+      <c r="AK53" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL53" s="75"/>
+      <c r="AM53" s="75" t="s">
+        <v>300</v>
+      </c>
+      <c r="AN53" s="75"/>
+      <c r="AO53" s="75" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="54" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA54" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB54" s="75"/>
+      <c r="AC54" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD54" s="75"/>
+      <c r="AE54" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF54" s="75"/>
+      <c r="AG54" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH54" s="75"/>
+      <c r="AI54" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ54" s="75"/>
+      <c r="AK54" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL54" s="75"/>
+      <c r="AM54" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="AN54" s="75"/>
+      <c r="AO54" s="75" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA55" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB55" s="75"/>
+      <c r="AC55" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD55" s="75"/>
+      <c r="AE55" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF55" s="75"/>
+      <c r="AG55" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH55" s="75"/>
+      <c r="AI55" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ55" s="75"/>
+      <c r="AK55" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL55" s="75"/>
+      <c r="AM55" s="75" t="s">
+        <v>359</v>
+      </c>
+      <c r="AN55" s="75"/>
+      <c r="AO55" s="75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA56" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB56" s="75"/>
+      <c r="AC56" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD56" s="75"/>
+      <c r="AE56" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF56" s="75"/>
+      <c r="AG56" s="75" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH56" s="75"/>
+      <c r="AI56" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ56" s="75"/>
+      <c r="AK56" s="75" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL56" s="75"/>
+      <c r="AM56" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN56" s="75"/>
+      <c r="AO56" s="75" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA57" s="75" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB57" s="75"/>
+      <c r="AC57" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD57" s="75"/>
+      <c r="AE57" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF57" s="75"/>
+      <c r="AG57" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH57" s="75"/>
+      <c r="AI57" s="75" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ57" s="75"/>
+      <c r="AK57" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL57" s="75"/>
+      <c r="AM57" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN57" s="75"/>
+      <c r="AO57" s="75" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA58" s="75" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB58" s="75"/>
+      <c r="AC58" s="75" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD58" s="75"/>
+      <c r="AE58" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF58" s="75"/>
+      <c r="AG58" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH58" s="75"/>
+      <c r="AI58" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="AJ58" s="75"/>
+      <c r="AK58" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL58" s="75"/>
+      <c r="AM58" s="75" t="s">
+        <v>313</v>
+      </c>
+      <c r="AN58" s="75"/>
+      <c r="AO58" s="75" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA59" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB59" s="75"/>
+      <c r="AC59" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD59" s="75"/>
+      <c r="AE59" s="75" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF59" s="75"/>
+      <c r="AG59" s="75" t="s">
+        <v>243</v>
+      </c>
+      <c r="AH59" s="75"/>
+      <c r="AI59" s="75" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ59" s="75"/>
+      <c r="AK59" s="75" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL59" s="75"/>
+      <c r="AM59" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="AN59" s="75"/>
+      <c r="AO59" s="75" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA60" s="75" t="s">
+        <v>251</v>
+      </c>
+      <c r="AB60" s="75"/>
+      <c r="AC60" s="75" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD60" s="75"/>
+      <c r="AE60" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF60" s="75"/>
+      <c r="AG60" s="75" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH60" s="75"/>
+      <c r="AI60" s="75" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ60" s="75"/>
+      <c r="AK60" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="AL60" s="75"/>
+      <c r="AM60" s="75" t="s">
+        <v>360</v>
+      </c>
+      <c r="AN60" s="75"/>
+      <c r="AO60" s="75" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="61" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA61" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB61" s="75"/>
+      <c r="AC61" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD61" s="75"/>
+      <c r="AE61" s="75" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF61" s="75"/>
+      <c r="AG61" s="75" t="s">
+        <v>270</v>
+      </c>
+      <c r="AH61" s="75"/>
+      <c r="AI61" s="75" t="s">
+        <v>272</v>
+      </c>
+      <c r="AJ61" s="75"/>
+      <c r="AK61" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="AL61" s="75"/>
+      <c r="AM61" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN61" s="75"/>
+      <c r="AO61" s="75" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="62" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA62" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB62" s="75"/>
+      <c r="AC62" s="75" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD62" s="75"/>
+      <c r="AE62" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF62" s="75"/>
+      <c r="AG62" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH62" s="75"/>
+      <c r="AI62" s="75" t="s">
+        <v>285</v>
+      </c>
+      <c r="AJ62" s="75"/>
+      <c r="AK62" s="75" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL62" s="75"/>
+      <c r="AM62" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN62" s="75"/>
+      <c r="AO62" s="75" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="63" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA63" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB63" s="75"/>
+      <c r="AC63" s="75" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD63" s="75"/>
+      <c r="AE63" s="75" t="s">
+        <v>294</v>
+      </c>
+      <c r="AF63" s="75"/>
+      <c r="AG63" s="75" t="s">
+        <v>296</v>
+      </c>
+      <c r="AH63" s="75"/>
+      <c r="AI63" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="AJ63" s="75"/>
+      <c r="AK63" s="75" t="s">
+        <v>339</v>
+      </c>
+      <c r="AL63" s="75"/>
+      <c r="AM63" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN63" s="75"/>
+      <c r="AO63" s="75" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="64" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA64" s="75" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB64" s="75"/>
+      <c r="AC64" s="75" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD64" s="75"/>
+      <c r="AE64" s="75" t="s">
+        <v>307</v>
+      </c>
+      <c r="AF64" s="75"/>
+      <c r="AG64" s="75" t="s">
+        <v>309</v>
+      </c>
+      <c r="AH64" s="75"/>
+      <c r="AI64" s="75" t="s">
+        <v>311</v>
+      </c>
+      <c r="AJ64" s="75"/>
+      <c r="AK64" s="75" t="s">
+        <v>357</v>
+      </c>
+      <c r="AL64" s="75"/>
+      <c r="AM64" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN64" s="75"/>
+      <c r="AO64" s="75" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="65" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA65" s="75" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB65" s="75"/>
+      <c r="AC65" s="75" t="s">
+        <v>318</v>
+      </c>
+      <c r="AD65" s="75"/>
+      <c r="AE65" s="75" t="s">
+        <v>320</v>
+      </c>
+      <c r="AF65" s="75"/>
+      <c r="AG65" s="75" t="s">
+        <v>322</v>
+      </c>
+      <c r="AH65" s="75"/>
+      <c r="AI65" s="75" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ65" s="75"/>
+      <c r="AK65" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL65" s="75"/>
+      <c r="AM65" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN65" s="75"/>
+      <c r="AO65" s="75" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="66" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA66" s="75" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB66" s="75"/>
+      <c r="AC66" s="75" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD66" s="75"/>
+      <c r="AE66" s="75" t="s">
+        <v>333</v>
+      </c>
+      <c r="AF66" s="75"/>
+      <c r="AG66" s="75" t="s">
+        <v>335</v>
+      </c>
+      <c r="AH66" s="75"/>
+      <c r="AI66" s="75" t="s">
+        <v>337</v>
+      </c>
+      <c r="AJ66" s="75"/>
+      <c r="AK66" s="75" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL66" s="75"/>
+      <c r="AM66" s="75" t="s">
+        <v>343</v>
+      </c>
+      <c r="AN66" s="75"/>
+      <c r="AO66" s="75" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="67" spans="27:41" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA67" s="75" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB67" s="75"/>
+      <c r="AC67" s="75" t="s">
+        <v>348</v>
+      </c>
+      <c r="AD67" s="75"/>
+      <c r="AE67" s="75" t="s">
+        <v>350</v>
+      </c>
+      <c r="AF67" s="75"/>
+      <c r="AG67" s="75" t="s">
+        <v>352</v>
+      </c>
+      <c r="AH67" s="75"/>
+      <c r="AI67" s="75" t="s">
+        <v>354</v>
+      </c>
+      <c r="AJ67" s="75"/>
+      <c r="AK67" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="AL67" s="75"/>
+      <c r="AM67" s="75" t="s">
+        <v>362</v>
+      </c>
+      <c r="AN67" s="75"/>
+      <c r="AO67" s="75" t="s">
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="26" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B994A1D9-A25F-4E12-BF35-6BFB549A7E33}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9865,7 +14061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D8814E-C105-48C7-B711-6A7D83198B42}">
   <dimension ref="A1:T17"/>
   <sheetViews>
@@ -10153,7 +14349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27979EBB-26AD-44A4-966E-F549129CFD36}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -10771,11 +14967,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59ABE01B-AF39-4CC4-8BBE-8E12896ECA1C}">
   <dimension ref="C3:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -10793,22 +14989,22 @@
     <row r="4" spans="3:15" ht="27" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="3:15" ht="18" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="65"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="45" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="46"/>
-      <c r="I6" s="68" t="s">
+      <c r="I6" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="69"/>
-      <c r="K6" s="66" t="s">
+      <c r="J6" s="67"/>
+      <c r="K6" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="67"/>
+      <c r="L6" s="65"/>
     </row>
     <row r="8" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="3:15" ht="16.5" x14ac:dyDescent="0.35">
@@ -10821,10 +15017,7 @@
       <c r="E9" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
+      <c r="I9" s="26"/>
     </row>
     <row r="10" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="51" t="s">
@@ -10836,18 +15029,15 @@
       <c r="E10" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="12" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C13" s="53"/>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="56">
         <v>0</v>
       </c>
       <c r="F13" s="32">
@@ -10882,101 +15072,101 @@
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C14" s="72"/>
-      <c r="D14" s="73" t="s">
+      <c r="C14" s="70"/>
+      <c r="D14" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E14" s="57">
         <f>$D$9*E13+$D$10</f>
         <v>5</v>
       </c>
-      <c r="F14" s="57">
+      <c r="F14" s="55">
         <f t="shared" ref="F14:O14" si="0">$D$9*F13+$D$10</f>
         <v>14</v>
       </c>
-      <c r="G14" s="57">
+      <c r="G14" s="55">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="55">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="55">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="J14" s="57">
+      <c r="J14" s="55">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K14" s="57">
+      <c r="K14" s="55">
         <f>$D$9*K13+$D$10</f>
         <v>59</v>
       </c>
-      <c r="L14" s="57">
+      <c r="L14" s="55">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="M14" s="57">
+      <c r="M14" s="55">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="N14" s="57">
+      <c r="N14" s="55">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="O14" s="60">
+      <c r="O14" s="58">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
     </row>
     <row r="15" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="70"/>
-      <c r="D15" s="71" t="s">
+      <c r="C15" s="68"/>
+      <c r="D15" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="61">
+      <c r="E15" s="59">
         <f>($D$9/2)*E13^2 + $D$10*E13</f>
         <v>0</v>
       </c>
-      <c r="F15" s="62">
+      <c r="F15" s="60">
         <f t="shared" ref="F15:O15" si="1">($D$9/2)*F13^2 + $D$10*F13</f>
         <v>9.5</v>
       </c>
-      <c r="G15" s="62">
+      <c r="G15" s="60">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="H15" s="62">
+      <c r="H15" s="60">
         <f t="shared" si="1"/>
         <v>55.5</v>
       </c>
-      <c r="I15" s="62">
+      <c r="I15" s="60">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="J15" s="62">
+      <c r="J15" s="60">
         <f t="shared" si="1"/>
         <v>137.5</v>
       </c>
-      <c r="K15" s="62">
+      <c r="K15" s="60">
         <f t="shared" si="1"/>
         <v>192</v>
       </c>
-      <c r="L15" s="62">
+      <c r="L15" s="60">
         <f t="shared" si="1"/>
         <v>255.5</v>
       </c>
-      <c r="M15" s="62">
+      <c r="M15" s="60">
         <f t="shared" si="1"/>
         <v>328</v>
       </c>
-      <c r="N15" s="62">
+      <c r="N15" s="60">
         <f t="shared" si="1"/>
         <v>409.5</v>
       </c>
-      <c r="O15" s="63">
+      <c r="O15" s="61">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
@@ -11008,7 +15198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528AA531-1975-4BEE-B143-630F780E047A}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -11084,7 +15274,7 @@
         <v>-19</v>
       </c>
       <c r="C15" s="35">
-        <f t="shared" ref="C14:C54" si="1">$C$8*B15+$C$9</f>
+        <f t="shared" ref="C15:C54" si="1">$C$8*B15+$C$9</f>
         <v>-119</v>
       </c>
       <c r="D15" s="37">
@@ -11605,7 +15795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDB315E-FA8E-4BF4-8658-CD212C5676A3}">
   <dimension ref="A1:E79"/>
   <sheetViews>
@@ -12987,7 +17177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7384F8D4-2EE4-402A-A3D1-82575B13571C}">
   <dimension ref="A2:E55"/>
   <sheetViews>

--- a/SchulungsUnterlagen/BZU/Mathe.xlsx
+++ b/SchulungsUnterlagen/BZU/Mathe.xlsx
@@ -8,19 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\BZU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27DB430-FC02-44CC-AF89-23DFAC99073E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8620ABD-9050-483C-BEBA-AC42B76F8609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="-17400" windowWidth="27675" windowHeight="17310" xr2:uid="{6916D51C-5897-4E1F-8155-1260435C5535}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="5" xr2:uid="{6916D51C-5897-4E1F-8155-1260435C5535}"/>
   </bookViews>
   <sheets>
-    <sheet name="Kopfrechnungsblatt" sheetId="9" r:id="rId1"/>
-    <sheet name="Kennlinien" sheetId="6" r:id="rId2"/>
-    <sheet name="Zinses_Zins" sheetId="1" r:id="rId3"/>
-    <sheet name="QuadratischeFunktion" sheetId="2" r:id="rId4"/>
-    <sheet name="LinFunktion (Kinematik II)" sheetId="8" r:id="rId5"/>
-    <sheet name="LinFunktion" sheetId="3" r:id="rId6"/>
-    <sheet name="Trigonometrie" sheetId="4" r:id="rId7"/>
-    <sheet name="Sinus" sheetId="5" r:id="rId8"/>
+    <sheet name="Tabelle1" sheetId="10" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="11" r:id="rId2"/>
+    <sheet name="Tabelle4" sheetId="13" r:id="rId3"/>
+    <sheet name="Formeln umwandeln" sheetId="12" r:id="rId4"/>
+    <sheet name="Kopfrechnungsblatt" sheetId="9" r:id="rId5"/>
+    <sheet name="Kennlinien" sheetId="6" r:id="rId6"/>
+    <sheet name="Zinses_Zins" sheetId="1" r:id="rId7"/>
+    <sheet name="QuadratischeFunktion" sheetId="2" r:id="rId8"/>
+    <sheet name="LinFunktion (Kinematik II)" sheetId="8" r:id="rId9"/>
+    <sheet name="LinFunktion" sheetId="3" r:id="rId10"/>
+    <sheet name="Trigonometrie" sheetId="4" r:id="rId11"/>
+    <sheet name="Sinus" sheetId="5" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3547,34 +3551,34 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>77</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>86</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>95</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3664,34 +3668,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.5</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>137.5</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>192</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>255.5</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>328</c:v>
+                  <c:v>616</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>409.5</c:v>
+                  <c:v>774</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>500</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10238,15 +10242,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>151244</xdr:colOff>
+      <xdr:colOff>514100</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>16164</xdr:rowOff>
+      <xdr:rowOff>25234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>600363</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>70969</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>344714</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>84072</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10274,8 +10278,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7771244" y="1678709"/>
-          <a:ext cx="5783119" cy="3564624"/>
+          <a:off x="8134100" y="1658091"/>
+          <a:ext cx="6688614" cy="4050267"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10837,13 +10841,3020 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D28849-5506-4C55-B39B-5D45B15AB2EA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528AA531-1975-4BEE-B143-630F780E047A}">
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="11"/>
+      <c r="B8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="9">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9">
+        <v>-5</v>
+      </c>
+      <c r="D9" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="A10" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="5">
+        <v>-20</v>
+      </c>
+      <c r="C14" s="35">
+        <f>$C$8*B14+$C$9</f>
+        <v>-125</v>
+      </c>
+      <c r="D14" s="37">
+        <f t="shared" ref="D14:D54" si="0">-$D$8*B14+$D$9</f>
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="5">
+        <v>-19</v>
+      </c>
+      <c r="C15" s="35">
+        <f t="shared" ref="C15:C54" si="1">$C$8*B15+$C$9</f>
+        <v>-119</v>
+      </c>
+      <c r="D15" s="37">
+        <f t="shared" si="0"/>
+        <v>-71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="5">
+        <v>-18</v>
+      </c>
+      <c r="C16" s="35">
+        <f t="shared" si="1"/>
+        <v>-113</v>
+      </c>
+      <c r="D16" s="37">
+        <f t="shared" si="0"/>
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="5">
+        <v>-17</v>
+      </c>
+      <c r="C17" s="35">
+        <f t="shared" si="1"/>
+        <v>-107</v>
+      </c>
+      <c r="D17" s="37">
+        <f t="shared" si="0"/>
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="5">
+        <v>-16</v>
+      </c>
+      <c r="C18" s="35">
+        <f t="shared" si="1"/>
+        <v>-101</v>
+      </c>
+      <c r="D18" s="37">
+        <f t="shared" si="0"/>
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="5">
+        <v>-15</v>
+      </c>
+      <c r="C19" s="35">
+        <f t="shared" si="1"/>
+        <v>-95</v>
+      </c>
+      <c r="D19" s="37">
+        <f t="shared" si="0"/>
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="5">
+        <v>-14</v>
+      </c>
+      <c r="C20" s="35">
+        <f t="shared" si="1"/>
+        <v>-89</v>
+      </c>
+      <c r="D20" s="37">
+        <f t="shared" si="0"/>
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="5">
+        <v>-13</v>
+      </c>
+      <c r="C21" s="35">
+        <f t="shared" si="1"/>
+        <v>-83</v>
+      </c>
+      <c r="D21" s="37">
+        <f t="shared" si="0"/>
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="5">
+        <v>-12</v>
+      </c>
+      <c r="C22" s="35">
+        <f t="shared" si="1"/>
+        <v>-77</v>
+      </c>
+      <c r="D22" s="37">
+        <f t="shared" si="0"/>
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="5">
+        <v>-11</v>
+      </c>
+      <c r="C23" s="35">
+        <f t="shared" si="1"/>
+        <v>-71</v>
+      </c>
+      <c r="D23" s="37">
+        <f t="shared" si="0"/>
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C24" s="35">
+        <f t="shared" si="1"/>
+        <v>-65</v>
+      </c>
+      <c r="D24" s="37">
+        <f t="shared" si="0"/>
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="5">
+        <v>-9</v>
+      </c>
+      <c r="C25" s="35">
+        <f t="shared" si="1"/>
+        <v>-59</v>
+      </c>
+      <c r="D25" s="37">
+        <f t="shared" si="0"/>
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="5">
+        <v>-8</v>
+      </c>
+      <c r="C26" s="35">
+        <f t="shared" si="1"/>
+        <v>-53</v>
+      </c>
+      <c r="D26" s="37">
+        <f t="shared" si="0"/>
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="5">
+        <v>-7</v>
+      </c>
+      <c r="C27" s="35">
+        <f t="shared" si="1"/>
+        <v>-47</v>
+      </c>
+      <c r="D27" s="37">
+        <f t="shared" si="0"/>
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="5">
+        <v>-6</v>
+      </c>
+      <c r="C28" s="35">
+        <f t="shared" si="1"/>
+        <v>-41</v>
+      </c>
+      <c r="D28" s="37">
+        <f t="shared" si="0"/>
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="5">
+        <v>-5</v>
+      </c>
+      <c r="C29" s="35">
+        <f t="shared" si="1"/>
+        <v>-35</v>
+      </c>
+      <c r="D29" s="37">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30" s="5">
+        <v>-4</v>
+      </c>
+      <c r="C30" s="35">
+        <f t="shared" si="1"/>
+        <v>-29</v>
+      </c>
+      <c r="D30" s="37">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B31" s="5">
+        <v>-3</v>
+      </c>
+      <c r="C31" s="35">
+        <f t="shared" si="1"/>
+        <v>-23</v>
+      </c>
+      <c r="D31" s="37">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B32" s="5">
+        <v>-2</v>
+      </c>
+      <c r="C32" s="35">
+        <f t="shared" si="1"/>
+        <v>-17</v>
+      </c>
+      <c r="D32" s="37">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C33" s="35">
+        <f t="shared" si="1"/>
+        <v>-11</v>
+      </c>
+      <c r="D33" s="37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" s="5">
+        <v>0</v>
+      </c>
+      <c r="C34" s="35">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="D34" s="37">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="5">
+        <v>1</v>
+      </c>
+      <c r="C35" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D35" s="37">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" s="5">
+        <v>2</v>
+      </c>
+      <c r="C36" s="35">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D36" s="37">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B37" s="5">
+        <v>3</v>
+      </c>
+      <c r="C37" s="35">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D37" s="37">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="5">
+        <v>4</v>
+      </c>
+      <c r="C38" s="35">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D38" s="37">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B39" s="5">
+        <v>5</v>
+      </c>
+      <c r="C39" s="35">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D39" s="37">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40" s="5">
+        <v>6</v>
+      </c>
+      <c r="C40" s="35">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="D40" s="37">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B41" s="5">
+        <v>7</v>
+      </c>
+      <c r="C41" s="35">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="D41" s="37">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B42" s="5">
+        <v>8</v>
+      </c>
+      <c r="C42" s="35">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="D42" s="37">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B43" s="5">
+        <v>9</v>
+      </c>
+      <c r="C43" s="35">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="D43" s="37">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B44" s="5">
+        <v>10</v>
+      </c>
+      <c r="C44" s="35">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="D44" s="37">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B45" s="5">
+        <v>11</v>
+      </c>
+      <c r="C45" s="35">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="D45" s="37">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B46" s="5">
+        <v>12</v>
+      </c>
+      <c r="C46" s="35">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="D46" s="37">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B47" s="5">
+        <v>13</v>
+      </c>
+      <c r="C47" s="35">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="D47" s="37">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B48" s="5">
+        <v>14</v>
+      </c>
+      <c r="C48" s="35">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="D48" s="37">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B49" s="5">
+        <v>15</v>
+      </c>
+      <c r="C49" s="35">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="D49" s="37">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B50" s="5">
+        <v>16</v>
+      </c>
+      <c r="C50" s="35">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="D50" s="37">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B51" s="5">
+        <v>17</v>
+      </c>
+      <c r="C51" s="35">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="D51" s="37">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B52" s="5">
+        <v>18</v>
+      </c>
+      <c r="C52" s="35">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="D52" s="37">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B53" s="5">
+        <v>19</v>
+      </c>
+      <c r="C53" s="35">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="D53" s="37">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B54" s="5">
+        <v>20</v>
+      </c>
+      <c r="C54" s="35">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="D54" s="37">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDB315E-FA8E-4BF4-8658-CD212C5676A3}">
+  <dimension ref="A1:E79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="17">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="17">
+        <v>20</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="5">
+        <v>-720</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" ref="C7:C38" si="0">2*PI()*B7/360</f>
+        <v>-12.566370614359172</v>
+      </c>
+      <c r="D7" s="13">
+        <f t="shared" ref="D7:D38" si="1">SIN(C7)</f>
+        <v>4.90059381963448E-16</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" ref="E7:E38" si="2">$E$2*SIN($E$4*C7+$E$3)</f>
+        <v>2.388979374728106E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="5">
+        <f t="shared" ref="B8:B39" si="3">B7+$B$4</f>
+        <v>-700</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>-12.217304763960305</v>
+      </c>
+      <c r="D8" s="13">
+        <f t="shared" si="1"/>
+        <v>0.34202014332567049</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="2"/>
+        <v>-0.96235012731034086</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="5">
+        <f t="shared" si="3"/>
+        <v>-680</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>-11.868238913561441</v>
+      </c>
+      <c r="D9" s="13">
+        <f t="shared" si="1"/>
+        <v>0.64278760968653903</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="2"/>
+        <v>-1.4767949140965784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="5">
+        <f t="shared" si="3"/>
+        <v>-660</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>-11.519173063162574</v>
+      </c>
+      <c r="D10" s="13">
+        <f t="shared" si="1"/>
+        <v>0.86602540378443915</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="2"/>
+        <v>-1.3002309478297667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="5">
+        <f t="shared" si="3"/>
+        <v>-640</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>-11.170107212763709</v>
+      </c>
+      <c r="D11" s="13">
+        <f t="shared" si="1"/>
+        <v>0.98480775301220813</v>
+      </c>
+      <c r="E11" s="12">
+        <f t="shared" si="2"/>
+        <v>-0.51527447061605136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="5">
+        <f t="shared" si="3"/>
+        <v>-620</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>-10.821041362364843</v>
+      </c>
+      <c r="D12" s="13">
+        <f t="shared" si="1"/>
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="E12" s="12">
+        <f t="shared" si="2"/>
+        <v>0.51078465803676754</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="5">
+        <f t="shared" si="3"/>
+        <v>-600</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>-10.471975511965978</v>
+      </c>
+      <c r="D13" s="13">
+        <f t="shared" si="1"/>
+        <v>0.86602540378443871</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" si="2"/>
+        <v>1.2978419684550384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="5">
+        <f t="shared" si="3"/>
+        <v>-580</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>-10.12290966156711</v>
+      </c>
+      <c r="D14" s="13">
+        <f t="shared" si="1"/>
+        <v>0.64278760968653836</v>
+      </c>
+      <c r="E14" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4776245979263893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="5">
+        <f t="shared" si="3"/>
+        <v>-560</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>-9.7738438111682449</v>
+      </c>
+      <c r="D15" s="13">
+        <f t="shared" si="1"/>
+        <v>0.34202014332566799</v>
+      </c>
+      <c r="E15" s="12">
+        <f t="shared" si="2"/>
+        <v>0.96601025605980984</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="5">
+        <f t="shared" si="3"/>
+        <v>-540</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
+        <v>-9.4247779607693793</v>
+      </c>
+      <c r="D16" s="13">
+        <f t="shared" si="1"/>
+        <v>-3.67544536472586E-16</v>
+      </c>
+      <c r="E16" s="12">
+        <f t="shared" si="2"/>
+        <v>2.3889793747284734E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="5">
+        <f t="shared" si="3"/>
+        <v>-520</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="0"/>
+        <v>-9.0757121103705138</v>
+      </c>
+      <c r="D17" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.34202014332566871</v>
+      </c>
+      <c r="E17" s="12">
+        <f t="shared" si="2"/>
+        <v>-0.96235012731033653</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="5">
+        <f t="shared" si="3"/>
+        <v>-500</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="0"/>
+        <v>-8.7266462599716466</v>
+      </c>
+      <c r="D18" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.64278760968654036</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" si="2"/>
+        <v>-1.4767949140965793</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="5">
+        <f t="shared" si="3"/>
+        <v>-480</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="0"/>
+        <v>-8.3775804095727811</v>
+      </c>
+      <c r="D19" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.86602540378443915</v>
+      </c>
+      <c r="E19" s="12">
+        <f t="shared" si="2"/>
+        <v>-1.3002309478297669</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="5">
+        <f t="shared" si="3"/>
+        <v>-460</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="0"/>
+        <v>-8.0285145591739155</v>
+      </c>
+      <c r="D20" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.98480775301220813</v>
+      </c>
+      <c r="E20" s="12">
+        <f t="shared" si="2"/>
+        <v>-0.51527447061605169</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="5">
+        <f t="shared" si="3"/>
+        <v>-440</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="0"/>
+        <v>-7.67944870877505</v>
+      </c>
+      <c r="D21" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.98480775301220802</v>
+      </c>
+      <c r="E21" s="12">
+        <f t="shared" si="2"/>
+        <v>0.5107846580367672</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="5">
+        <f t="shared" si="3"/>
+        <v>-420</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="0"/>
+        <v>-7.3303828583761845</v>
+      </c>
+      <c r="D22" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.86602540378443882</v>
+      </c>
+      <c r="E22" s="12">
+        <f t="shared" si="2"/>
+        <v>1.2978419684550382</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" s="5">
+        <f t="shared" si="3"/>
+        <v>-400</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="0"/>
+        <v>-6.9813170079773181</v>
+      </c>
+      <c r="D23" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.64278760968653914</v>
+      </c>
+      <c r="E23" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4776245979263898</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" s="5">
+        <f t="shared" si="3"/>
+        <v>-380</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="0"/>
+        <v>-6.6322511575784526</v>
+      </c>
+      <c r="D24" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.34202014332566893</v>
+      </c>
+      <c r="E24" s="12">
+        <f t="shared" si="2"/>
+        <v>0.96601025605981206</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" s="5">
+        <f t="shared" si="3"/>
+        <v>-360</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="0"/>
+        <v>-6.2831853071795862</v>
+      </c>
+      <c r="D25" s="13">
+        <f t="shared" si="1"/>
+        <v>2.45029690981724E-16</v>
+      </c>
+      <c r="E25" s="12">
+        <f t="shared" si="2"/>
+        <v>2.3889793747288411E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="5">
+        <f t="shared" si="3"/>
+        <v>-340</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="0"/>
+        <v>-5.9341194567807207</v>
+      </c>
+      <c r="D26" s="13">
+        <f t="shared" si="1"/>
+        <v>0.3420201433256686</v>
+      </c>
+      <c r="E26" s="12">
+        <f t="shared" si="2"/>
+        <v>-0.9623501273103362</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="5">
+        <f t="shared" si="3"/>
+        <v>-320</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" si="0"/>
+        <v>-5.5850536063818543</v>
+      </c>
+      <c r="D27" s="13">
+        <f t="shared" si="1"/>
+        <v>0.64278760968653958</v>
+      </c>
+      <c r="E27" s="12">
+        <f t="shared" si="2"/>
+        <v>-1.4767949140965786</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="5">
+        <f t="shared" si="3"/>
+        <v>-300</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" si="0"/>
+        <v>-5.2359877559829888</v>
+      </c>
+      <c r="D28" s="13">
+        <f t="shared" si="1"/>
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="E28" s="12">
+        <f t="shared" si="2"/>
+        <v>-1.3002309478297684</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B29" s="5">
+        <f t="shared" si="3"/>
+        <v>-280</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" si="0"/>
+        <v>-4.8869219055841224</v>
+      </c>
+      <c r="D29" s="13">
+        <f t="shared" si="1"/>
+        <v>0.98480775301220813</v>
+      </c>
+      <c r="E29" s="12">
+        <f t="shared" si="2"/>
+        <v>-0.51527447061605214</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B30" s="5">
+        <f t="shared" si="3"/>
+        <v>-260</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" si="0"/>
+        <v>-4.5378560551852569</v>
+      </c>
+      <c r="D30" s="13">
+        <f t="shared" si="1"/>
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="E30" s="12">
+        <f t="shared" si="2"/>
+        <v>0.51078465803676687</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B31" s="5">
+        <f t="shared" si="3"/>
+        <v>-240</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" si="0"/>
+        <v>-4.1887902047863905</v>
+      </c>
+      <c r="D31" s="13">
+        <f t="shared" si="1"/>
+        <v>0.86602540378443837</v>
+      </c>
+      <c r="E31" s="12">
+        <f t="shared" si="2"/>
+        <v>1.2978419684550393</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B32" s="5">
+        <f t="shared" si="3"/>
+        <v>-220</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" si="0"/>
+        <v>-3.839724354387525</v>
+      </c>
+      <c r="D32" s="13">
+        <f t="shared" si="1"/>
+        <v>0.64278760968653925</v>
+      </c>
+      <c r="E32" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4776245979263898</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B33" s="5">
+        <f t="shared" si="3"/>
+        <v>-200</v>
+      </c>
+      <c r="C33" s="5">
+        <f t="shared" si="0"/>
+        <v>-3.4906585039886591</v>
+      </c>
+      <c r="D33" s="13">
+        <f t="shared" si="1"/>
+        <v>0.34202014332566866</v>
+      </c>
+      <c r="E33" s="12">
+        <f t="shared" si="2"/>
+        <v>0.96601025605981183</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B34" s="5">
+        <f t="shared" si="3"/>
+        <v>-180</v>
+      </c>
+      <c r="C34" s="5">
+        <f t="shared" si="0"/>
+        <v>-3.1415926535897931</v>
+      </c>
+      <c r="D34" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.22514845490862E-16</v>
+      </c>
+      <c r="E34" s="12">
+        <f t="shared" si="2"/>
+        <v>2.388979374729875E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B35" s="5">
+        <f t="shared" si="3"/>
+        <v>-160</v>
+      </c>
+      <c r="C35" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.7925268031909272</v>
+      </c>
+      <c r="D35" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.34202014332566888</v>
+      </c>
+      <c r="E35" s="12">
+        <f t="shared" si="2"/>
+        <v>-0.96235012731033653</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B36" s="5">
+        <f t="shared" si="3"/>
+        <v>-140</v>
+      </c>
+      <c r="C36" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.4434609527920612</v>
+      </c>
+      <c r="D36" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.64278760968653947</v>
+      </c>
+      <c r="E36" s="12">
+        <f t="shared" si="2"/>
+        <v>-1.4767949140965784</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B37" s="5">
+        <f t="shared" si="3"/>
+        <v>-120</v>
+      </c>
+      <c r="C37" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.0943951023931953</v>
+      </c>
+      <c r="D37" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.86602540378443871</v>
+      </c>
+      <c r="E37" s="12">
+        <f t="shared" si="2"/>
+        <v>-1.3002309478297682</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B38" s="5">
+        <f t="shared" si="3"/>
+        <v>-100</v>
+      </c>
+      <c r="C38" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.7453292519943295</v>
+      </c>
+      <c r="D38" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.98480775301220802</v>
+      </c>
+      <c r="E38" s="12">
+        <f t="shared" si="2"/>
+        <v>-0.51527447061605369</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B39" s="5">
+        <f t="shared" si="3"/>
+        <v>-80</v>
+      </c>
+      <c r="C39" s="5">
+        <f t="shared" ref="C39:C70" si="4">2*PI()*B39/360</f>
+        <v>-1.3962634015954636</v>
+      </c>
+      <c r="D39" s="13">
+        <f t="shared" ref="D39:D70" si="5">SIN(C39)</f>
+        <v>-0.98480775301220802</v>
+      </c>
+      <c r="E39" s="12">
+        <f t="shared" ref="E39:E70" si="6">$E$2*SIN($E$4*C39+$E$3)</f>
+        <v>0.51078465803676654</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B40" s="5">
+        <f t="shared" ref="B40:B71" si="7">B39+$B$4</f>
+        <v>-60</v>
+      </c>
+      <c r="C40" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.0471975511965976</v>
+      </c>
+      <c r="D40" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.8660254037844386</v>
+      </c>
+      <c r="E40" s="12">
+        <f t="shared" si="6"/>
+        <v>1.2978419684550384</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B41" s="5">
+        <f t="shared" si="7"/>
+        <v>-40</v>
+      </c>
+      <c r="C41" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.69813170079773179</v>
+      </c>
+      <c r="D41" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.64278760968653925</v>
+      </c>
+      <c r="E41" s="12">
+        <f t="shared" si="6"/>
+        <v>1.4776245979263898</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B42" s="5">
+        <f t="shared" si="7"/>
+        <v>-20</v>
+      </c>
+      <c r="C42" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.3490658503988659</v>
+      </c>
+      <c r="D42" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.34202014332566871</v>
+      </c>
+      <c r="E42" s="12">
+        <f t="shared" si="6"/>
+        <v>0.96601025605981206</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B43" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C43" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="12">
+        <f t="shared" si="6"/>
+        <v>2.3889793747302423E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B44" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="C44" s="5">
+        <f t="shared" si="4"/>
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="D44" s="13">
+        <f t="shared" si="5"/>
+        <v>0.34202014332566871</v>
+      </c>
+      <c r="E44" s="12">
+        <f t="shared" si="6"/>
+        <v>-0.9623501273103362</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B45" s="5">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C45" s="5">
+        <f t="shared" si="4"/>
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="D45" s="13">
+        <f t="shared" si="5"/>
+        <v>0.64278760968653925</v>
+      </c>
+      <c r="E45" s="12">
+        <f t="shared" si="6"/>
+        <v>-1.4767949140965784</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B46" s="5">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="C46" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="D46" s="13">
+        <f t="shared" si="5"/>
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="E46" s="12">
+        <f t="shared" si="6"/>
+        <v>-1.3002309478297687</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B47" s="5">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="C47" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="D47" s="13">
+        <f t="shared" si="5"/>
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="E47" s="12">
+        <f t="shared" si="6"/>
+        <v>-0.51527447061605403</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B48" s="5">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="C48" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7453292519943295</v>
+      </c>
+      <c r="D48" s="13">
+        <f t="shared" si="5"/>
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="E48" s="12">
+        <f t="shared" si="6"/>
+        <v>0.5107846580367662</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B49" s="5">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="C49" s="5">
+        <f t="shared" si="4"/>
+        <v>2.0943951023931953</v>
+      </c>
+      <c r="D49" s="13">
+        <f t="shared" si="5"/>
+        <v>0.86602540378443871</v>
+      </c>
+      <c r="E49" s="12">
+        <f t="shared" si="6"/>
+        <v>1.2978419684550377</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B50" s="5">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="C50" s="5">
+        <f t="shared" si="4"/>
+        <v>2.4434609527920612</v>
+      </c>
+      <c r="D50" s="13">
+        <f t="shared" si="5"/>
+        <v>0.64278760968653947</v>
+      </c>
+      <c r="E50" s="12">
+        <f t="shared" si="6"/>
+        <v>1.4776245979263898</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B51" s="5">
+        <f t="shared" si="7"/>
+        <v>160</v>
+      </c>
+      <c r="C51" s="5">
+        <f t="shared" si="4"/>
+        <v>2.7925268031909272</v>
+      </c>
+      <c r="D51" s="13">
+        <f t="shared" si="5"/>
+        <v>0.34202014332566888</v>
+      </c>
+      <c r="E51" s="12">
+        <f t="shared" si="6"/>
+        <v>0.96601025605981294</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B52" s="5">
+        <f t="shared" si="7"/>
+        <v>180</v>
+      </c>
+      <c r="C52" s="5">
+        <f t="shared" si="4"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="D52" s="13">
+        <f t="shared" si="5"/>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="E52" s="12">
+        <f t="shared" si="6"/>
+        <v>2.3889793747299435E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B53" s="5">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="C53" s="5">
+        <f t="shared" si="4"/>
+        <v>3.4906585039886591</v>
+      </c>
+      <c r="D53" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.34202014332566866</v>
+      </c>
+      <c r="E53" s="12">
+        <f t="shared" si="6"/>
+        <v>-0.96235012731033542</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B54" s="5">
+        <f t="shared" si="7"/>
+        <v>220</v>
+      </c>
+      <c r="C54" s="5">
+        <f t="shared" si="4"/>
+        <v>3.839724354387525</v>
+      </c>
+      <c r="D54" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.64278760968653925</v>
+      </c>
+      <c r="E54" s="12">
+        <f t="shared" si="6"/>
+        <v>-1.4767949140965784</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B55" s="5">
+        <f t="shared" si="7"/>
+        <v>240</v>
+      </c>
+      <c r="C55" s="5">
+        <f t="shared" si="4"/>
+        <v>4.1887902047863905</v>
+      </c>
+      <c r="D55" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.86602540378443837</v>
+      </c>
+      <c r="E55" s="12">
+        <f t="shared" si="6"/>
+        <v>-1.3002309478297689</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B56" s="5">
+        <f t="shared" si="7"/>
+        <v>260</v>
+      </c>
+      <c r="C56" s="5">
+        <f t="shared" si="4"/>
+        <v>4.5378560551852569</v>
+      </c>
+      <c r="D56" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.98480775301220802</v>
+      </c>
+      <c r="E56" s="12">
+        <f t="shared" si="6"/>
+        <v>-0.51527447061605314</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B57" s="5">
+        <f t="shared" si="7"/>
+        <v>280</v>
+      </c>
+      <c r="C57" s="5">
+        <f t="shared" si="4"/>
+        <v>4.8869219055841224</v>
+      </c>
+      <c r="D57" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.98480775301220813</v>
+      </c>
+      <c r="E57" s="12">
+        <f t="shared" si="6"/>
+        <v>0.51078465803676587</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B58" s="5">
+        <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+      <c r="C58" s="5">
+        <f t="shared" si="4"/>
+        <v>5.2359877559829888</v>
+      </c>
+      <c r="D58" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.8660254037844386</v>
+      </c>
+      <c r="E58" s="12">
+        <f t="shared" si="6"/>
+        <v>1.2978419684550389</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B59" s="5">
+        <f t="shared" si="7"/>
+        <v>320</v>
+      </c>
+      <c r="C59" s="5">
+        <f t="shared" si="4"/>
+        <v>5.5850536063818543</v>
+      </c>
+      <c r="D59" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.64278760968653958</v>
+      </c>
+      <c r="E59" s="12">
+        <f t="shared" si="6"/>
+        <v>1.4776245979263898</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B60" s="5">
+        <f t="shared" si="7"/>
+        <v>340</v>
+      </c>
+      <c r="C60" s="5">
+        <f t="shared" si="4"/>
+        <v>5.9341194567807207</v>
+      </c>
+      <c r="D60" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.3420201433256686</v>
+      </c>
+      <c r="E60" s="12">
+        <f t="shared" si="6"/>
+        <v>0.96601025605981117</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B61" s="5">
+        <f t="shared" si="7"/>
+        <v>360</v>
+      </c>
+      <c r="C61" s="5">
+        <f t="shared" si="4"/>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="D61" s="13">
+        <f t="shared" si="5"/>
+        <v>-2.45029690981724E-16</v>
+      </c>
+      <c r="E61" s="12">
+        <f t="shared" si="6"/>
+        <v>2.3889793747303113E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B62" s="5">
+        <f t="shared" si="7"/>
+        <v>380</v>
+      </c>
+      <c r="C62" s="5">
+        <f t="shared" si="4"/>
+        <v>6.6322511575784526</v>
+      </c>
+      <c r="D62" s="13">
+        <f t="shared" si="5"/>
+        <v>0.34202014332566893</v>
+      </c>
+      <c r="E62" s="12">
+        <f t="shared" si="6"/>
+        <v>-0.96235012731033498</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B63" s="5">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="C63" s="5">
+        <f t="shared" si="4"/>
+        <v>6.9813170079773181</v>
+      </c>
+      <c r="D63" s="13">
+        <f t="shared" si="5"/>
+        <v>0.64278760968653914</v>
+      </c>
+      <c r="E63" s="12">
+        <f t="shared" si="6"/>
+        <v>-1.4767949140965779</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B64" s="5">
+        <f t="shared" si="7"/>
+        <v>420</v>
+      </c>
+      <c r="C64" s="5">
+        <f t="shared" si="4"/>
+        <v>7.3303828583761845</v>
+      </c>
+      <c r="D64" s="13">
+        <f t="shared" si="5"/>
+        <v>0.86602540378443882</v>
+      </c>
+      <c r="E64" s="12">
+        <f t="shared" si="6"/>
+        <v>-1.3002309478297678</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B65" s="5">
+        <f t="shared" si="7"/>
+        <v>440</v>
+      </c>
+      <c r="C65" s="5">
+        <f t="shared" si="4"/>
+        <v>7.67944870877505</v>
+      </c>
+      <c r="D65" s="13">
+        <f t="shared" si="5"/>
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="E65" s="12">
+        <f t="shared" si="6"/>
+        <v>-0.51527447061605347</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B66" s="5">
+        <f t="shared" si="7"/>
+        <v>460</v>
+      </c>
+      <c r="C66" s="5">
+        <f t="shared" si="4"/>
+        <v>8.0285145591739155</v>
+      </c>
+      <c r="D66" s="13">
+        <f t="shared" si="5"/>
+        <v>0.98480775301220813</v>
+      </c>
+      <c r="E66" s="12">
+        <f t="shared" si="6"/>
+        <v>0.51078465803676543</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B67" s="5">
+        <f t="shared" si="7"/>
+        <v>480</v>
+      </c>
+      <c r="C67" s="5">
+        <f t="shared" si="4"/>
+        <v>8.3775804095727811</v>
+      </c>
+      <c r="D67" s="13">
+        <f t="shared" si="5"/>
+        <v>0.86602540378443915</v>
+      </c>
+      <c r="E67" s="12">
+        <f t="shared" si="6"/>
+        <v>1.2978419684550373</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B68" s="5">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="C68" s="5">
+        <f t="shared" si="4"/>
+        <v>8.7266462599716466</v>
+      </c>
+      <c r="D68" s="13">
+        <f t="shared" si="5"/>
+        <v>0.64278760968654036</v>
+      </c>
+      <c r="E68" s="12">
+        <f t="shared" si="6"/>
+        <v>1.4776245979263904</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B69" s="5">
+        <f t="shared" si="7"/>
+        <v>520</v>
+      </c>
+      <c r="C69" s="5">
+        <f t="shared" si="4"/>
+        <v>9.0757121103705138</v>
+      </c>
+      <c r="D69" s="13">
+        <f t="shared" si="5"/>
+        <v>0.34202014332566871</v>
+      </c>
+      <c r="E69" s="12">
+        <f t="shared" si="6"/>
+        <v>0.96601025605981139</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B70" s="5">
+        <f t="shared" si="7"/>
+        <v>540</v>
+      </c>
+      <c r="C70" s="5">
+        <f t="shared" si="4"/>
+        <v>9.4247779607693793</v>
+      </c>
+      <c r="D70" s="13">
+        <f t="shared" si="5"/>
+        <v>3.67544536472586E-16</v>
+      </c>
+      <c r="E70" s="12">
+        <f t="shared" si="6"/>
+        <v>2.3889793747306791E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B71" s="5">
+        <f t="shared" si="7"/>
+        <v>560</v>
+      </c>
+      <c r="C71" s="5">
+        <f t="shared" ref="C71:C79" si="8">2*PI()*B71/360</f>
+        <v>9.7738438111682449</v>
+      </c>
+      <c r="D71" s="13">
+        <f t="shared" ref="D71:D79" si="9">SIN(C71)</f>
+        <v>-0.34202014332566799</v>
+      </c>
+      <c r="E71" s="12">
+        <f t="shared" ref="E71:E79" si="10">$E$2*SIN($E$4*C71+$E$3)</f>
+        <v>-0.96235012731033487</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B72" s="5">
+        <f t="shared" ref="B72:B79" si="11">B71+$B$4</f>
+        <v>580</v>
+      </c>
+      <c r="C72" s="5">
+        <f t="shared" si="8"/>
+        <v>10.12290966156711</v>
+      </c>
+      <c r="D72" s="13">
+        <f t="shared" si="9"/>
+        <v>-0.64278760968653836</v>
+      </c>
+      <c r="E72" s="12">
+        <f t="shared" si="10"/>
+        <v>-1.4767949140965779</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B73" s="5">
+        <f t="shared" si="11"/>
+        <v>600</v>
+      </c>
+      <c r="C73" s="5">
+        <f t="shared" si="8"/>
+        <v>10.471975511965978</v>
+      </c>
+      <c r="D73" s="13">
+        <f t="shared" si="9"/>
+        <v>-0.86602540378443871</v>
+      </c>
+      <c r="E73" s="12">
+        <f t="shared" si="10"/>
+        <v>-1.300230947829768</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B74" s="5">
+        <f t="shared" si="11"/>
+        <v>620</v>
+      </c>
+      <c r="C74" s="5">
+        <f t="shared" si="8"/>
+        <v>10.821041362364843</v>
+      </c>
+      <c r="D74" s="13">
+        <f t="shared" si="9"/>
+        <v>-0.98480775301220802</v>
+      </c>
+      <c r="E74" s="12">
+        <f t="shared" si="10"/>
+        <v>-0.5152744706160538</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B75" s="5">
+        <f t="shared" si="11"/>
+        <v>640</v>
+      </c>
+      <c r="C75" s="5">
+        <f t="shared" si="8"/>
+        <v>11.170107212763709</v>
+      </c>
+      <c r="D75" s="13">
+        <f t="shared" si="9"/>
+        <v>-0.98480775301220813</v>
+      </c>
+      <c r="E75" s="12">
+        <f t="shared" si="10"/>
+        <v>0.51078465803676509</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B76" s="5">
+        <f t="shared" si="11"/>
+        <v>660</v>
+      </c>
+      <c r="C76" s="5">
+        <f t="shared" si="8"/>
+        <v>11.519173063162574</v>
+      </c>
+      <c r="D76" s="13">
+        <f t="shared" si="9"/>
+        <v>-0.86602540378443915</v>
+      </c>
+      <c r="E76" s="12">
+        <f t="shared" si="10"/>
+        <v>1.2978419684550371</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B77" s="5">
+        <f t="shared" si="11"/>
+        <v>680</v>
+      </c>
+      <c r="C77" s="5">
+        <f t="shared" si="8"/>
+        <v>11.868238913561441</v>
+      </c>
+      <c r="D77" s="13">
+        <f t="shared" si="9"/>
+        <v>-0.64278760968653903</v>
+      </c>
+      <c r="E77" s="12">
+        <f t="shared" si="10"/>
+        <v>1.4776245979263896</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B78" s="5">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="C78" s="5">
+        <f t="shared" si="8"/>
+        <v>12.217304763960305</v>
+      </c>
+      <c r="D78" s="13">
+        <f t="shared" si="9"/>
+        <v>-0.34202014332567049</v>
+      </c>
+      <c r="E78" s="12">
+        <f t="shared" si="10"/>
+        <v>0.96601025605981583</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B79" s="5">
+        <f t="shared" si="11"/>
+        <v>720</v>
+      </c>
+      <c r="C79" s="5">
+        <f t="shared" si="8"/>
+        <v>12.566370614359172</v>
+      </c>
+      <c r="D79" s="13">
+        <f t="shared" si="9"/>
+        <v>-4.90059381963448E-16</v>
+      </c>
+      <c r="E79" s="12">
+        <f t="shared" si="10"/>
+        <v>2.3889793747310464E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7384F8D4-2EE4-402A-A3D1-82575B13571C}">
+  <dimension ref="A2:E55"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="17">
+        <v>20</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="5">
+        <v>-360</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" ref="C5:C36" si="0">2*PI()*B5/360</f>
+        <v>-6.2831853071795862</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" ref="D5:D36" si="1">SIN(C5)</f>
+        <v>2.45029690981724E-16</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" ref="E5:E36" si="2">$E$2*SIN(C5+$E$3)</f>
+        <v>0.71913830790630484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="5">
+        <f t="shared" ref="B6:B37" si="3">B5+$B$3</f>
+        <v>-340</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>-5.9341194567807207</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.3420201433256686</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1259953316607978</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="5">
+        <f t="shared" si="3"/>
+        <v>-320</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>-5.5850536063818543</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.64278760968653958</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="2"/>
+        <v>1.3970407004957626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="5">
+        <f t="shared" si="3"/>
+        <v>-300</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>-5.2359877559829888</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="2"/>
+        <v>1.4995823427260906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="5">
+        <f t="shared" si="3"/>
+        <v>-280</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>-4.8869219055841224</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="1"/>
+        <v>0.98480775301220813</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="2"/>
+        <v>1.4212522229453417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="5">
+        <f t="shared" si="3"/>
+        <v>-260</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>-4.5378560551852569</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="1"/>
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1714981096285229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="5">
+        <f t="shared" si="3"/>
+        <v>-240</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>-4.1887902047863905</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="1"/>
+        <v>0.86602540378443837</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="2"/>
+        <v>0.78044403481978541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="5">
+        <f t="shared" si="3"/>
+        <v>-220</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>-3.839724354387525</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="1"/>
+        <v>0.64278760968653925</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="2"/>
+        <v>0.29525689128454391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="5">
+        <f t="shared" si="3"/>
+        <v>-200</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>-3.4906585039886591</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34202014332566866</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.22554259086723971</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="5">
+        <f t="shared" si="3"/>
+        <v>-180</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>-3.1415926535897931</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.22514845490862E-16</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.71913830790630473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="5">
+        <f t="shared" si="3"/>
+        <v>-160</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.7925268031909272</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.34202014332566888</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.1259953316607982</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="5">
+        <f t="shared" si="3"/>
+        <v>-140</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.4434609527920612</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.64278760968653947</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.3970407004957626</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="5">
+        <f t="shared" si="3"/>
+        <v>-120</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.0943951023931953</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.86602540378443871</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.4995823427260906</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="5">
+        <f t="shared" si="3"/>
+        <v>-100</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.7453292519943295</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.98480775301220802</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.4212522229453419</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="5">
+        <f t="shared" si="3"/>
+        <v>-80</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.3962634015954636</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.98480775301220802</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.1714981096285226</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="5">
+        <f t="shared" si="3"/>
+        <v>-60</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0471975511965976</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.8660254037844386</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.78044403481978586</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="5">
+        <f t="shared" si="3"/>
+        <v>-40</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.69813170079773179</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.64278760968653925</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.29525689128454397</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="5">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.3490658503988659</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.34202014332566871</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2255425908672396</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="2"/>
+        <v>0.71913830790630451</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" s="5">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="0"/>
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34202014332566871</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="2"/>
+        <v>1.125995331660798</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" s="5">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="0"/>
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="1"/>
+        <v>0.64278760968653925</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="2"/>
+        <v>1.3970407004957626</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="5">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="2"/>
+        <v>1.4995823427260906</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="5">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="1"/>
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="2"/>
+        <v>1.4212522229453421</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="5">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" si="0"/>
+        <v>1.7453292519943295</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="1"/>
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1714981096285231</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B29" s="5">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" si="0"/>
+        <v>2.0943951023931953</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="1"/>
+        <v>0.86602540378443871</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="2"/>
+        <v>0.78044403481978619</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B30" s="5">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" si="0"/>
+        <v>2.4434609527920612</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="1"/>
+        <v>0.64278760968653947</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2952568912845443</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B31" s="5">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" si="0"/>
+        <v>2.7925268031909272</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34202014332566888</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.22554259086723932</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B32" s="5">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" si="0"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="1"/>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.71913830790630429</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B33" s="5">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="C33" s="5">
+        <f t="shared" si="0"/>
+        <v>3.4906585039886591</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.34202014332566866</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.125995331660798</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B34" s="5">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+      <c r="C34" s="5">
+        <f t="shared" si="0"/>
+        <v>3.839724354387525</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.64278760968653925</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.3970407004957623</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B35" s="5">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="C35" s="5">
+        <f t="shared" si="0"/>
+        <v>4.1887902047863905</v>
+      </c>
+      <c r="D35" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.86602540378443837</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.4995823427260906</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B36" s="5">
+        <f t="shared" si="3"/>
+        <v>260</v>
+      </c>
+      <c r="C36" s="5">
+        <f t="shared" si="0"/>
+        <v>4.5378560551852569</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.98480775301220802</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.4212522229453421</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B37" s="5">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+      <c r="C37" s="5">
+        <f t="shared" ref="C37:C55" si="4">2*PI()*B37/360</f>
+        <v>4.8869219055841224</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" ref="D37:D55" si="5">SIN(C37)</f>
+        <v>-0.98480775301220813</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" ref="E37:E55" si="6">$E$2*SIN(C37+$E$3)</f>
+        <v>-1.1714981096285233</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B38" s="5">
+        <f t="shared" ref="B38:B55" si="7">B37+$B$3</f>
+        <v>300</v>
+      </c>
+      <c r="C38" s="5">
+        <f t="shared" si="4"/>
+        <v>5.2359877559829888</v>
+      </c>
+      <c r="D38" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.8660254037844386</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.78044403481978586</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B39" s="5">
+        <f t="shared" si="7"/>
+        <v>320</v>
+      </c>
+      <c r="C39" s="5">
+        <f t="shared" si="4"/>
+        <v>5.5850536063818543</v>
+      </c>
+      <c r="D39" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.64278760968653958</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.29525689128454446</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B40" s="5">
+        <f t="shared" si="7"/>
+        <v>340</v>
+      </c>
+      <c r="C40" s="5">
+        <f t="shared" si="4"/>
+        <v>5.9341194567807207</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.3420201433256686</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="6"/>
+        <v>0.22554259086723982</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B41" s="5">
+        <f t="shared" si="7"/>
+        <v>360</v>
+      </c>
+      <c r="C41" s="5">
+        <f t="shared" si="4"/>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" si="5"/>
+        <v>-2.45029690981724E-16</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="6"/>
+        <v>0.71913830790630417</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B42" s="5">
+        <f t="shared" si="7"/>
+        <v>380</v>
+      </c>
+      <c r="C42" s="5">
+        <f t="shared" si="4"/>
+        <v>6.6322511575784526</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="5"/>
+        <v>0.34202014332566893</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="6"/>
+        <v>1.1259953316607985</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B43" s="5">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="C43" s="5">
+        <f t="shared" si="4"/>
+        <v>6.9813170079773181</v>
+      </c>
+      <c r="D43" s="5">
+        <f t="shared" si="5"/>
+        <v>0.64278760968653914</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="6"/>
+        <v>1.3970407004957623</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B44" s="5">
+        <f t="shared" si="7"/>
+        <v>420</v>
+      </c>
+      <c r="C44" s="5">
+        <f t="shared" si="4"/>
+        <v>7.3303828583761845</v>
+      </c>
+      <c r="D44" s="5">
+        <f t="shared" si="5"/>
+        <v>0.86602540378443882</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="6"/>
+        <v>1.4995823427260906</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B45" s="5">
+        <f t="shared" si="7"/>
+        <v>440</v>
+      </c>
+      <c r="C45" s="5">
+        <f t="shared" si="4"/>
+        <v>7.67944870877505</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" si="5"/>
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="6"/>
+        <v>1.4212522229453421</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B46" s="5">
+        <f t="shared" si="7"/>
+        <v>460</v>
+      </c>
+      <c r="C46" s="5">
+        <f t="shared" si="4"/>
+        <v>8.0285145591739155</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="5"/>
+        <v>0.98480775301220813</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="6"/>
+        <v>1.1714981096285233</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B47" s="5">
+        <f t="shared" si="7"/>
+        <v>480</v>
+      </c>
+      <c r="C47" s="5">
+        <f t="shared" si="4"/>
+        <v>8.3775804095727811</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" si="5"/>
+        <v>0.86602540378443915</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="6"/>
+        <v>0.78044403481978719</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B48" s="5">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="C48" s="5">
+        <f t="shared" si="4"/>
+        <v>8.7266462599716466</v>
+      </c>
+      <c r="D48" s="5">
+        <f t="shared" si="5"/>
+        <v>0.64278760968654036</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="6"/>
+        <v>0.29525689128454596</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B49" s="5">
+        <f t="shared" si="7"/>
+        <v>520</v>
+      </c>
+      <c r="C49" s="5">
+        <f t="shared" si="4"/>
+        <v>9.0757121103705138</v>
+      </c>
+      <c r="D49" s="5">
+        <f t="shared" si="5"/>
+        <v>0.34202014332566871</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.2255425908672396</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B50" s="5">
+        <f t="shared" si="7"/>
+        <v>540</v>
+      </c>
+      <c r="C50" s="5">
+        <f t="shared" si="4"/>
+        <v>9.4247779607693793</v>
+      </c>
+      <c r="D50" s="5">
+        <f t="shared" si="5"/>
+        <v>3.67544536472586E-16</v>
+      </c>
+      <c r="E50" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.71913830790630406</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B51" s="5">
+        <f t="shared" si="7"/>
+        <v>560</v>
+      </c>
+      <c r="C51" s="5">
+        <f t="shared" si="4"/>
+        <v>9.7738438111682449</v>
+      </c>
+      <c r="D51" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.34202014332566799</v>
+      </c>
+      <c r="E51" s="5">
+        <f t="shared" si="6"/>
+        <v>-1.1259953316607973</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B52" s="5">
+        <f t="shared" si="7"/>
+        <v>580</v>
+      </c>
+      <c r="C52" s="5">
+        <f t="shared" si="4"/>
+        <v>10.12290966156711</v>
+      </c>
+      <c r="D52" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.64278760968653836</v>
+      </c>
+      <c r="E52" s="5">
+        <f t="shared" si="6"/>
+        <v>-1.3970407004957617</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B53" s="5">
+        <f t="shared" si="7"/>
+        <v>600</v>
+      </c>
+      <c r="C53" s="5">
+        <f t="shared" si="4"/>
+        <v>10.471975511965978</v>
+      </c>
+      <c r="D53" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.86602540378443871</v>
+      </c>
+      <c r="E53" s="5">
+        <f t="shared" si="6"/>
+        <v>-1.4995823427260906</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B54" s="5">
+        <f t="shared" si="7"/>
+        <v>620</v>
+      </c>
+      <c r="C54" s="5">
+        <f t="shared" si="4"/>
+        <v>10.821041362364843</v>
+      </c>
+      <c r="D54" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.98480775301220802</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="6"/>
+        <v>-1.4212522229453421</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B55" s="5">
+        <f t="shared" si="7"/>
+        <v>640</v>
+      </c>
+      <c r="C55" s="5">
+        <f t="shared" si="4"/>
+        <v>11.170107212763709</v>
+      </c>
+      <c r="D55" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.98480775301220813</v>
+      </c>
+      <c r="E55" s="5">
+        <f t="shared" si="6"/>
+        <v>-1.1714981096285233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670D07C5-A09C-45C5-B50F-2CD69ACE7215}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA60DA0-60CC-481E-B0F6-76BD03C39787}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F634C5-EE51-4E3A-8A88-E803863E48EB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB498065-E96F-43C6-BBFC-DE65CF9747D3}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AS67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="AA30" sqref="AA30:AO67"/>
     </sheetView>
   </sheetViews>
@@ -14046,11 +17057,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B994A1D9-A25F-4E12-BF35-6BFB549A7E33}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
@@ -14061,7 +17072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D8814E-C105-48C7-B711-6A7D83198B42}">
   <dimension ref="A1:T17"/>
   <sheetViews>
@@ -14349,7 +17360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27979EBB-26AD-44A4-966E-F549129CFD36}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -14967,12 +17978,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59ABE01B-AF39-4CC4-8BBE-8E12896ECA1C}">
   <dimension ref="C3:X26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15012,7 +18023,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="47">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E9" s="50" t="s">
         <v>40</v>
@@ -15082,43 +18093,43 @@
       </c>
       <c r="F14" s="55">
         <f t="shared" ref="F14:O14" si="0">$D$9*F13+$D$10</f>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G14" s="55">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H14" s="55">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I14" s="55">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J14" s="55">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K14" s="55">
         <f>$D$9*K13+$D$10</f>
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="L14" s="55">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="M14" s="55">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="N14" s="55">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="O14" s="58">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -15132,43 +18143,43 @@
       </c>
       <c r="F15" s="60">
         <f t="shared" ref="F15:O15" si="1">($D$9/2)*F13^2 + $D$10*F13</f>
-        <v>9.5</v>
+        <v>14</v>
       </c>
       <c r="G15" s="60">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="H15" s="60">
         <f t="shared" si="1"/>
-        <v>55.5</v>
+        <v>96</v>
       </c>
       <c r="I15" s="60">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="J15" s="60">
         <f t="shared" si="1"/>
-        <v>137.5</v>
+        <v>250</v>
       </c>
       <c r="K15" s="60">
         <f t="shared" si="1"/>
-        <v>192</v>
+        <v>354</v>
       </c>
       <c r="L15" s="60">
         <f t="shared" si="1"/>
-        <v>255.5</v>
+        <v>476</v>
       </c>
       <c r="M15" s="60">
         <f t="shared" si="1"/>
-        <v>328</v>
+        <v>616</v>
       </c>
       <c r="N15" s="60">
         <f t="shared" si="1"/>
-        <v>409.5</v>
+        <v>774</v>
       </c>
       <c r="O15" s="61">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>950</v>
       </c>
     </row>
     <row r="24" spans="21:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -15196,2958 +18207,4 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528AA531-1975-4BEE-B143-630F780E047A}">
-  <dimension ref="A1:D54"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
-      <c r="B8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="9">
-        <v>6</v>
-      </c>
-      <c r="D8" s="9">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
-      <c r="B9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="9">
-        <v>-5</v>
-      </c>
-      <c r="D9" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A10" s="7"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="5">
-        <v>-20</v>
-      </c>
-      <c r="C14" s="35">
-        <f>$C$8*B14+$C$9</f>
-        <v>-125</v>
-      </c>
-      <c r="D14" s="37">
-        <f t="shared" ref="D14:D54" si="0">-$D$8*B14+$D$9</f>
-        <v>-75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="5">
-        <v>-19</v>
-      </c>
-      <c r="C15" s="35">
-        <f t="shared" ref="C15:C54" si="1">$C$8*B15+$C$9</f>
-        <v>-119</v>
-      </c>
-      <c r="D15" s="37">
-        <f t="shared" si="0"/>
-        <v>-71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="5">
-        <v>-18</v>
-      </c>
-      <c r="C16" s="35">
-        <f t="shared" si="1"/>
-        <v>-113</v>
-      </c>
-      <c r="D16" s="37">
-        <f t="shared" si="0"/>
-        <v>-67</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="5">
-        <v>-17</v>
-      </c>
-      <c r="C17" s="35">
-        <f t="shared" si="1"/>
-        <v>-107</v>
-      </c>
-      <c r="D17" s="37">
-        <f t="shared" si="0"/>
-        <v>-63</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="5">
-        <v>-16</v>
-      </c>
-      <c r="C18" s="35">
-        <f t="shared" si="1"/>
-        <v>-101</v>
-      </c>
-      <c r="D18" s="37">
-        <f t="shared" si="0"/>
-        <v>-59</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="5">
-        <v>-15</v>
-      </c>
-      <c r="C19" s="35">
-        <f t="shared" si="1"/>
-        <v>-95</v>
-      </c>
-      <c r="D19" s="37">
-        <f t="shared" si="0"/>
-        <v>-55</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="5">
-        <v>-14</v>
-      </c>
-      <c r="C20" s="35">
-        <f t="shared" si="1"/>
-        <v>-89</v>
-      </c>
-      <c r="D20" s="37">
-        <f t="shared" si="0"/>
-        <v>-51</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="5">
-        <v>-13</v>
-      </c>
-      <c r="C21" s="35">
-        <f t="shared" si="1"/>
-        <v>-83</v>
-      </c>
-      <c r="D21" s="37">
-        <f t="shared" si="0"/>
-        <v>-47</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="5">
-        <v>-12</v>
-      </c>
-      <c r="C22" s="35">
-        <f t="shared" si="1"/>
-        <v>-77</v>
-      </c>
-      <c r="D22" s="37">
-        <f t="shared" si="0"/>
-        <v>-43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="5">
-        <v>-11</v>
-      </c>
-      <c r="C23" s="35">
-        <f t="shared" si="1"/>
-        <v>-71</v>
-      </c>
-      <c r="D23" s="37">
-        <f t="shared" si="0"/>
-        <v>-39</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="5">
-        <v>-10</v>
-      </c>
-      <c r="C24" s="35">
-        <f t="shared" si="1"/>
-        <v>-65</v>
-      </c>
-      <c r="D24" s="37">
-        <f t="shared" si="0"/>
-        <v>-35</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="5">
-        <v>-9</v>
-      </c>
-      <c r="C25" s="35">
-        <f t="shared" si="1"/>
-        <v>-59</v>
-      </c>
-      <c r="D25" s="37">
-        <f t="shared" si="0"/>
-        <v>-31</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="5">
-        <v>-8</v>
-      </c>
-      <c r="C26" s="35">
-        <f t="shared" si="1"/>
-        <v>-53</v>
-      </c>
-      <c r="D26" s="37">
-        <f t="shared" si="0"/>
-        <v>-27</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="5">
-        <v>-7</v>
-      </c>
-      <c r="C27" s="35">
-        <f t="shared" si="1"/>
-        <v>-47</v>
-      </c>
-      <c r="D27" s="37">
-        <f t="shared" si="0"/>
-        <v>-23</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="5">
-        <v>-6</v>
-      </c>
-      <c r="C28" s="35">
-        <f t="shared" si="1"/>
-        <v>-41</v>
-      </c>
-      <c r="D28" s="37">
-        <f t="shared" si="0"/>
-        <v>-19</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="5">
-        <v>-5</v>
-      </c>
-      <c r="C29" s="35">
-        <f t="shared" si="1"/>
-        <v>-35</v>
-      </c>
-      <c r="D29" s="37">
-        <f t="shared" si="0"/>
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="5">
-        <v>-4</v>
-      </c>
-      <c r="C30" s="35">
-        <f t="shared" si="1"/>
-        <v>-29</v>
-      </c>
-      <c r="D30" s="37">
-        <f t="shared" si="0"/>
-        <v>-11</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="5">
-        <v>-3</v>
-      </c>
-      <c r="C31" s="35">
-        <f t="shared" si="1"/>
-        <v>-23</v>
-      </c>
-      <c r="D31" s="37">
-        <f t="shared" si="0"/>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="5">
-        <v>-2</v>
-      </c>
-      <c r="C32" s="35">
-        <f t="shared" si="1"/>
-        <v>-17</v>
-      </c>
-      <c r="D32" s="37">
-        <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C33" s="35">
-        <f t="shared" si="1"/>
-        <v>-11</v>
-      </c>
-      <c r="D33" s="37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="5">
-        <v>0</v>
-      </c>
-      <c r="C34" s="35">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="D34" s="37">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="5">
-        <v>1</v>
-      </c>
-      <c r="C35" s="35">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D35" s="37">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="5">
-        <v>2</v>
-      </c>
-      <c r="C36" s="35">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D36" s="37">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="5">
-        <v>3</v>
-      </c>
-      <c r="C37" s="35">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D37" s="37">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="5">
-        <v>4</v>
-      </c>
-      <c r="C38" s="35">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="D38" s="37">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="5">
-        <v>5</v>
-      </c>
-      <c r="C39" s="35">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="D39" s="37">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="5">
-        <v>6</v>
-      </c>
-      <c r="C40" s="35">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="D40" s="37">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="5">
-        <v>7</v>
-      </c>
-      <c r="C41" s="35">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="D41" s="37">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="5">
-        <v>8</v>
-      </c>
-      <c r="C42" s="35">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="D42" s="37">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="5">
-        <v>9</v>
-      </c>
-      <c r="C43" s="35">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="D43" s="37">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="5">
-        <v>10</v>
-      </c>
-      <c r="C44" s="35">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="D44" s="37">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="5">
-        <v>11</v>
-      </c>
-      <c r="C45" s="35">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="D45" s="37">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="5">
-        <v>12</v>
-      </c>
-      <c r="C46" s="35">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="D46" s="37">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="5">
-        <v>13</v>
-      </c>
-      <c r="C47" s="35">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="D47" s="37">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="5">
-        <v>14</v>
-      </c>
-      <c r="C48" s="35">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="D48" s="37">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="5">
-        <v>15</v>
-      </c>
-      <c r="C49" s="35">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="D49" s="37">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="5">
-        <v>16</v>
-      </c>
-      <c r="C50" s="35">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="D50" s="37">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B51" s="5">
-        <v>17</v>
-      </c>
-      <c r="C51" s="35">
-        <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="D51" s="37">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B52" s="5">
-        <v>18</v>
-      </c>
-      <c r="C52" s="35">
-        <f t="shared" si="1"/>
-        <v>103</v>
-      </c>
-      <c r="D52" s="37">
-        <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B53" s="5">
-        <v>19</v>
-      </c>
-      <c r="C53" s="35">
-        <f t="shared" si="1"/>
-        <v>109</v>
-      </c>
-      <c r="D53" s="37">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B54" s="5">
-        <v>20</v>
-      </c>
-      <c r="C54" s="35">
-        <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="D54" s="37">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDB315E-FA8E-4BF4-8658-CD212C5676A3}">
-  <dimension ref="A1:E79"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="16.1796875" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="17">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="17">
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="17">
-        <v>20</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="5">
-        <v>-720</v>
-      </c>
-      <c r="C7" s="5">
-        <f t="shared" ref="C7:C38" si="0">2*PI()*B7/360</f>
-        <v>-12.566370614359172</v>
-      </c>
-      <c r="D7" s="13">
-        <f t="shared" ref="D7:D38" si="1">SIN(C7)</f>
-        <v>4.90059381963448E-16</v>
-      </c>
-      <c r="E7" s="12">
-        <f t="shared" ref="E7:E38" si="2">$E$2*SIN($E$4*C7+$E$3)</f>
-        <v>2.388979374728106E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="5">
-        <f t="shared" ref="B8:B39" si="3">B7+$B$4</f>
-        <v>-700</v>
-      </c>
-      <c r="C8" s="5">
-        <f t="shared" si="0"/>
-        <v>-12.217304763960305</v>
-      </c>
-      <c r="D8" s="13">
-        <f t="shared" si="1"/>
-        <v>0.34202014332567049</v>
-      </c>
-      <c r="E8" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.96235012731034086</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="5">
-        <f t="shared" si="3"/>
-        <v>-680</v>
-      </c>
-      <c r="C9" s="5">
-        <f t="shared" si="0"/>
-        <v>-11.868238913561441</v>
-      </c>
-      <c r="D9" s="13">
-        <f t="shared" si="1"/>
-        <v>0.64278760968653903</v>
-      </c>
-      <c r="E9" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.4767949140965784</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="5">
-        <f t="shared" si="3"/>
-        <v>-660</v>
-      </c>
-      <c r="C10" s="5">
-        <f t="shared" si="0"/>
-        <v>-11.519173063162574</v>
-      </c>
-      <c r="D10" s="13">
-        <f t="shared" si="1"/>
-        <v>0.86602540378443915</v>
-      </c>
-      <c r="E10" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.3002309478297667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="5">
-        <f t="shared" si="3"/>
-        <v>-640</v>
-      </c>
-      <c r="C11" s="5">
-        <f t="shared" si="0"/>
-        <v>-11.170107212763709</v>
-      </c>
-      <c r="D11" s="13">
-        <f t="shared" si="1"/>
-        <v>0.98480775301220813</v>
-      </c>
-      <c r="E11" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.51527447061605136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="5">
-        <f t="shared" si="3"/>
-        <v>-620</v>
-      </c>
-      <c r="C12" s="5">
-        <f t="shared" si="0"/>
-        <v>-10.821041362364843</v>
-      </c>
-      <c r="D12" s="13">
-        <f t="shared" si="1"/>
-        <v>0.98480775301220802</v>
-      </c>
-      <c r="E12" s="12">
-        <f t="shared" si="2"/>
-        <v>0.51078465803676754</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="5">
-        <f t="shared" si="3"/>
-        <v>-600</v>
-      </c>
-      <c r="C13" s="5">
-        <f t="shared" si="0"/>
-        <v>-10.471975511965978</v>
-      </c>
-      <c r="D13" s="13">
-        <f t="shared" si="1"/>
-        <v>0.86602540378443871</v>
-      </c>
-      <c r="E13" s="12">
-        <f t="shared" si="2"/>
-        <v>1.2978419684550384</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="5">
-        <f t="shared" si="3"/>
-        <v>-580</v>
-      </c>
-      <c r="C14" s="5">
-        <f t="shared" si="0"/>
-        <v>-10.12290966156711</v>
-      </c>
-      <c r="D14" s="13">
-        <f t="shared" si="1"/>
-        <v>0.64278760968653836</v>
-      </c>
-      <c r="E14" s="12">
-        <f t="shared" si="2"/>
-        <v>1.4776245979263893</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="5">
-        <f t="shared" si="3"/>
-        <v>-560</v>
-      </c>
-      <c r="C15" s="5">
-        <f t="shared" si="0"/>
-        <v>-9.7738438111682449</v>
-      </c>
-      <c r="D15" s="13">
-        <f t="shared" si="1"/>
-        <v>0.34202014332566799</v>
-      </c>
-      <c r="E15" s="12">
-        <f t="shared" si="2"/>
-        <v>0.96601025605980984</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="5">
-        <f t="shared" si="3"/>
-        <v>-540</v>
-      </c>
-      <c r="C16" s="5">
-        <f t="shared" si="0"/>
-        <v>-9.4247779607693793</v>
-      </c>
-      <c r="D16" s="13">
-        <f t="shared" si="1"/>
-        <v>-3.67544536472586E-16</v>
-      </c>
-      <c r="E16" s="12">
-        <f t="shared" si="2"/>
-        <v>2.3889793747284734E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="5">
-        <f t="shared" si="3"/>
-        <v>-520</v>
-      </c>
-      <c r="C17" s="5">
-        <f t="shared" si="0"/>
-        <v>-9.0757121103705138</v>
-      </c>
-      <c r="D17" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.34202014332566871</v>
-      </c>
-      <c r="E17" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.96235012731033653</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="5">
-        <f t="shared" si="3"/>
-        <v>-500</v>
-      </c>
-      <c r="C18" s="5">
-        <f t="shared" si="0"/>
-        <v>-8.7266462599716466</v>
-      </c>
-      <c r="D18" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.64278760968654036</v>
-      </c>
-      <c r="E18" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.4767949140965793</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="5">
-        <f t="shared" si="3"/>
-        <v>-480</v>
-      </c>
-      <c r="C19" s="5">
-        <f t="shared" si="0"/>
-        <v>-8.3775804095727811</v>
-      </c>
-      <c r="D19" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.86602540378443915</v>
-      </c>
-      <c r="E19" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.3002309478297669</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="5">
-        <f t="shared" si="3"/>
-        <v>-460</v>
-      </c>
-      <c r="C20" s="5">
-        <f t="shared" si="0"/>
-        <v>-8.0285145591739155</v>
-      </c>
-      <c r="D20" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.98480775301220813</v>
-      </c>
-      <c r="E20" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.51527447061605169</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="5">
-        <f t="shared" si="3"/>
-        <v>-440</v>
-      </c>
-      <c r="C21" s="5">
-        <f t="shared" si="0"/>
-        <v>-7.67944870877505</v>
-      </c>
-      <c r="D21" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.98480775301220802</v>
-      </c>
-      <c r="E21" s="12">
-        <f t="shared" si="2"/>
-        <v>0.5107846580367672</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="5">
-        <f t="shared" si="3"/>
-        <v>-420</v>
-      </c>
-      <c r="C22" s="5">
-        <f t="shared" si="0"/>
-        <v>-7.3303828583761845</v>
-      </c>
-      <c r="D22" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.86602540378443882</v>
-      </c>
-      <c r="E22" s="12">
-        <f t="shared" si="2"/>
-        <v>1.2978419684550382</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="5">
-        <f t="shared" si="3"/>
-        <v>-400</v>
-      </c>
-      <c r="C23" s="5">
-        <f t="shared" si="0"/>
-        <v>-6.9813170079773181</v>
-      </c>
-      <c r="D23" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.64278760968653914</v>
-      </c>
-      <c r="E23" s="12">
-        <f t="shared" si="2"/>
-        <v>1.4776245979263898</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="5">
-        <f t="shared" si="3"/>
-        <v>-380</v>
-      </c>
-      <c r="C24" s="5">
-        <f t="shared" si="0"/>
-        <v>-6.6322511575784526</v>
-      </c>
-      <c r="D24" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.34202014332566893</v>
-      </c>
-      <c r="E24" s="12">
-        <f t="shared" si="2"/>
-        <v>0.96601025605981206</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="5">
-        <f t="shared" si="3"/>
-        <v>-360</v>
-      </c>
-      <c r="C25" s="5">
-        <f t="shared" si="0"/>
-        <v>-6.2831853071795862</v>
-      </c>
-      <c r="D25" s="13">
-        <f t="shared" si="1"/>
-        <v>2.45029690981724E-16</v>
-      </c>
-      <c r="E25" s="12">
-        <f t="shared" si="2"/>
-        <v>2.3889793747288411E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="5">
-        <f t="shared" si="3"/>
-        <v>-340</v>
-      </c>
-      <c r="C26" s="5">
-        <f t="shared" si="0"/>
-        <v>-5.9341194567807207</v>
-      </c>
-      <c r="D26" s="13">
-        <f t="shared" si="1"/>
-        <v>0.3420201433256686</v>
-      </c>
-      <c r="E26" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.9623501273103362</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="5">
-        <f t="shared" si="3"/>
-        <v>-320</v>
-      </c>
-      <c r="C27" s="5">
-        <f t="shared" si="0"/>
-        <v>-5.5850536063818543</v>
-      </c>
-      <c r="D27" s="13">
-        <f t="shared" si="1"/>
-        <v>0.64278760968653958</v>
-      </c>
-      <c r="E27" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.4767949140965786</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B28" s="5">
-        <f t="shared" si="3"/>
-        <v>-300</v>
-      </c>
-      <c r="C28" s="5">
-        <f t="shared" si="0"/>
-        <v>-5.2359877559829888</v>
-      </c>
-      <c r="D28" s="13">
-        <f t="shared" si="1"/>
-        <v>0.8660254037844386</v>
-      </c>
-      <c r="E28" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.3002309478297684</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="5">
-        <f t="shared" si="3"/>
-        <v>-280</v>
-      </c>
-      <c r="C29" s="5">
-        <f t="shared" si="0"/>
-        <v>-4.8869219055841224</v>
-      </c>
-      <c r="D29" s="13">
-        <f t="shared" si="1"/>
-        <v>0.98480775301220813</v>
-      </c>
-      <c r="E29" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.51527447061605214</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B30" s="5">
-        <f t="shared" si="3"/>
-        <v>-260</v>
-      </c>
-      <c r="C30" s="5">
-        <f t="shared" si="0"/>
-        <v>-4.5378560551852569</v>
-      </c>
-      <c r="D30" s="13">
-        <f t="shared" si="1"/>
-        <v>0.98480775301220802</v>
-      </c>
-      <c r="E30" s="12">
-        <f t="shared" si="2"/>
-        <v>0.51078465803676687</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B31" s="5">
-        <f t="shared" si="3"/>
-        <v>-240</v>
-      </c>
-      <c r="C31" s="5">
-        <f t="shared" si="0"/>
-        <v>-4.1887902047863905</v>
-      </c>
-      <c r="D31" s="13">
-        <f t="shared" si="1"/>
-        <v>0.86602540378443837</v>
-      </c>
-      <c r="E31" s="12">
-        <f t="shared" si="2"/>
-        <v>1.2978419684550393</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B32" s="5">
-        <f t="shared" si="3"/>
-        <v>-220</v>
-      </c>
-      <c r="C32" s="5">
-        <f t="shared" si="0"/>
-        <v>-3.839724354387525</v>
-      </c>
-      <c r="D32" s="13">
-        <f t="shared" si="1"/>
-        <v>0.64278760968653925</v>
-      </c>
-      <c r="E32" s="12">
-        <f t="shared" si="2"/>
-        <v>1.4776245979263898</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B33" s="5">
-        <f t="shared" si="3"/>
-        <v>-200</v>
-      </c>
-      <c r="C33" s="5">
-        <f t="shared" si="0"/>
-        <v>-3.4906585039886591</v>
-      </c>
-      <c r="D33" s="13">
-        <f t="shared" si="1"/>
-        <v>0.34202014332566866</v>
-      </c>
-      <c r="E33" s="12">
-        <f t="shared" si="2"/>
-        <v>0.96601025605981183</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B34" s="5">
-        <f t="shared" si="3"/>
-        <v>-180</v>
-      </c>
-      <c r="C34" s="5">
-        <f t="shared" si="0"/>
-        <v>-3.1415926535897931</v>
-      </c>
-      <c r="D34" s="13">
-        <f t="shared" si="1"/>
-        <v>-1.22514845490862E-16</v>
-      </c>
-      <c r="E34" s="12">
-        <f t="shared" si="2"/>
-        <v>2.388979374729875E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B35" s="5">
-        <f t="shared" si="3"/>
-        <v>-160</v>
-      </c>
-      <c r="C35" s="5">
-        <f t="shared" si="0"/>
-        <v>-2.7925268031909272</v>
-      </c>
-      <c r="D35" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.34202014332566888</v>
-      </c>
-      <c r="E35" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.96235012731033653</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B36" s="5">
-        <f t="shared" si="3"/>
-        <v>-140</v>
-      </c>
-      <c r="C36" s="5">
-        <f t="shared" si="0"/>
-        <v>-2.4434609527920612</v>
-      </c>
-      <c r="D36" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.64278760968653947</v>
-      </c>
-      <c r="E36" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.4767949140965784</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B37" s="5">
-        <f t="shared" si="3"/>
-        <v>-120</v>
-      </c>
-      <c r="C37" s="5">
-        <f t="shared" si="0"/>
-        <v>-2.0943951023931953</v>
-      </c>
-      <c r="D37" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.86602540378443871</v>
-      </c>
-      <c r="E37" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.3002309478297682</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B38" s="5">
-        <f t="shared" si="3"/>
-        <v>-100</v>
-      </c>
-      <c r="C38" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.7453292519943295</v>
-      </c>
-      <c r="D38" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.98480775301220802</v>
-      </c>
-      <c r="E38" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.51527447061605369</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B39" s="5">
-        <f t="shared" si="3"/>
-        <v>-80</v>
-      </c>
-      <c r="C39" s="5">
-        <f t="shared" ref="C39:C70" si="4">2*PI()*B39/360</f>
-        <v>-1.3962634015954636</v>
-      </c>
-      <c r="D39" s="13">
-        <f t="shared" ref="D39:D70" si="5">SIN(C39)</f>
-        <v>-0.98480775301220802</v>
-      </c>
-      <c r="E39" s="12">
-        <f t="shared" ref="E39:E70" si="6">$E$2*SIN($E$4*C39+$E$3)</f>
-        <v>0.51078465803676654</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B40" s="5">
-        <f t="shared" ref="B40:B71" si="7">B39+$B$4</f>
-        <v>-60</v>
-      </c>
-      <c r="C40" s="5">
-        <f t="shared" si="4"/>
-        <v>-1.0471975511965976</v>
-      </c>
-      <c r="D40" s="13">
-        <f t="shared" si="5"/>
-        <v>-0.8660254037844386</v>
-      </c>
-      <c r="E40" s="12">
-        <f t="shared" si="6"/>
-        <v>1.2978419684550384</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B41" s="5">
-        <f t="shared" si="7"/>
-        <v>-40</v>
-      </c>
-      <c r="C41" s="5">
-        <f t="shared" si="4"/>
-        <v>-0.69813170079773179</v>
-      </c>
-      <c r="D41" s="13">
-        <f t="shared" si="5"/>
-        <v>-0.64278760968653925</v>
-      </c>
-      <c r="E41" s="12">
-        <f t="shared" si="6"/>
-        <v>1.4776245979263898</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B42" s="5">
-        <f t="shared" si="7"/>
-        <v>-20</v>
-      </c>
-      <c r="C42" s="5">
-        <f t="shared" si="4"/>
-        <v>-0.3490658503988659</v>
-      </c>
-      <c r="D42" s="13">
-        <f t="shared" si="5"/>
-        <v>-0.34202014332566871</v>
-      </c>
-      <c r="E42" s="12">
-        <f t="shared" si="6"/>
-        <v>0.96601025605981206</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B43" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C43" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D43" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="12">
-        <f t="shared" si="6"/>
-        <v>2.3889793747302423E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B44" s="5">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="C44" s="5">
-        <f t="shared" si="4"/>
-        <v>0.3490658503988659</v>
-      </c>
-      <c r="D44" s="13">
-        <f t="shared" si="5"/>
-        <v>0.34202014332566871</v>
-      </c>
-      <c r="E44" s="12">
-        <f t="shared" si="6"/>
-        <v>-0.9623501273103362</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B45" s="5">
-        <f t="shared" si="7"/>
-        <v>40</v>
-      </c>
-      <c r="C45" s="5">
-        <f t="shared" si="4"/>
-        <v>0.69813170079773179</v>
-      </c>
-      <c r="D45" s="13">
-        <f t="shared" si="5"/>
-        <v>0.64278760968653925</v>
-      </c>
-      <c r="E45" s="12">
-        <f t="shared" si="6"/>
-        <v>-1.4767949140965784</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B46" s="5">
-        <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="C46" s="5">
-        <f t="shared" si="4"/>
-        <v>1.0471975511965976</v>
-      </c>
-      <c r="D46" s="13">
-        <f t="shared" si="5"/>
-        <v>0.8660254037844386</v>
-      </c>
-      <c r="E46" s="12">
-        <f t="shared" si="6"/>
-        <v>-1.3002309478297687</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B47" s="5">
-        <f t="shared" si="7"/>
-        <v>80</v>
-      </c>
-      <c r="C47" s="5">
-        <f t="shared" si="4"/>
-        <v>1.3962634015954636</v>
-      </c>
-      <c r="D47" s="13">
-        <f t="shared" si="5"/>
-        <v>0.98480775301220802</v>
-      </c>
-      <c r="E47" s="12">
-        <f t="shared" si="6"/>
-        <v>-0.51527447061605403</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B48" s="5">
-        <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="C48" s="5">
-        <f t="shared" si="4"/>
-        <v>1.7453292519943295</v>
-      </c>
-      <c r="D48" s="13">
-        <f t="shared" si="5"/>
-        <v>0.98480775301220802</v>
-      </c>
-      <c r="E48" s="12">
-        <f t="shared" si="6"/>
-        <v>0.5107846580367662</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B49" s="5">
-        <f t="shared" si="7"/>
-        <v>120</v>
-      </c>
-      <c r="C49" s="5">
-        <f t="shared" si="4"/>
-        <v>2.0943951023931953</v>
-      </c>
-      <c r="D49" s="13">
-        <f t="shared" si="5"/>
-        <v>0.86602540378443871</v>
-      </c>
-      <c r="E49" s="12">
-        <f t="shared" si="6"/>
-        <v>1.2978419684550377</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B50" s="5">
-        <f t="shared" si="7"/>
-        <v>140</v>
-      </c>
-      <c r="C50" s="5">
-        <f t="shared" si="4"/>
-        <v>2.4434609527920612</v>
-      </c>
-      <c r="D50" s="13">
-        <f t="shared" si="5"/>
-        <v>0.64278760968653947</v>
-      </c>
-      <c r="E50" s="12">
-        <f t="shared" si="6"/>
-        <v>1.4776245979263898</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B51" s="5">
-        <f t="shared" si="7"/>
-        <v>160</v>
-      </c>
-      <c r="C51" s="5">
-        <f t="shared" si="4"/>
-        <v>2.7925268031909272</v>
-      </c>
-      <c r="D51" s="13">
-        <f t="shared" si="5"/>
-        <v>0.34202014332566888</v>
-      </c>
-      <c r="E51" s="12">
-        <f t="shared" si="6"/>
-        <v>0.96601025605981294</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B52" s="5">
-        <f t="shared" si="7"/>
-        <v>180</v>
-      </c>
-      <c r="C52" s="5">
-        <f t="shared" si="4"/>
-        <v>3.1415926535897931</v>
-      </c>
-      <c r="D52" s="13">
-        <f t="shared" si="5"/>
-        <v>1.22514845490862E-16</v>
-      </c>
-      <c r="E52" s="12">
-        <f t="shared" si="6"/>
-        <v>2.3889793747299435E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B53" s="5">
-        <f t="shared" si="7"/>
-        <v>200</v>
-      </c>
-      <c r="C53" s="5">
-        <f t="shared" si="4"/>
-        <v>3.4906585039886591</v>
-      </c>
-      <c r="D53" s="13">
-        <f t="shared" si="5"/>
-        <v>-0.34202014332566866</v>
-      </c>
-      <c r="E53" s="12">
-        <f t="shared" si="6"/>
-        <v>-0.96235012731033542</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B54" s="5">
-        <f t="shared" si="7"/>
-        <v>220</v>
-      </c>
-      <c r="C54" s="5">
-        <f t="shared" si="4"/>
-        <v>3.839724354387525</v>
-      </c>
-      <c r="D54" s="13">
-        <f t="shared" si="5"/>
-        <v>-0.64278760968653925</v>
-      </c>
-      <c r="E54" s="12">
-        <f t="shared" si="6"/>
-        <v>-1.4767949140965784</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B55" s="5">
-        <f t="shared" si="7"/>
-        <v>240</v>
-      </c>
-      <c r="C55" s="5">
-        <f t="shared" si="4"/>
-        <v>4.1887902047863905</v>
-      </c>
-      <c r="D55" s="13">
-        <f t="shared" si="5"/>
-        <v>-0.86602540378443837</v>
-      </c>
-      <c r="E55" s="12">
-        <f t="shared" si="6"/>
-        <v>-1.3002309478297689</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B56" s="5">
-        <f t="shared" si="7"/>
-        <v>260</v>
-      </c>
-      <c r="C56" s="5">
-        <f t="shared" si="4"/>
-        <v>4.5378560551852569</v>
-      </c>
-      <c r="D56" s="13">
-        <f t="shared" si="5"/>
-        <v>-0.98480775301220802</v>
-      </c>
-      <c r="E56" s="12">
-        <f t="shared" si="6"/>
-        <v>-0.51527447061605314</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B57" s="5">
-        <f t="shared" si="7"/>
-        <v>280</v>
-      </c>
-      <c r="C57" s="5">
-        <f t="shared" si="4"/>
-        <v>4.8869219055841224</v>
-      </c>
-      <c r="D57" s="13">
-        <f t="shared" si="5"/>
-        <v>-0.98480775301220813</v>
-      </c>
-      <c r="E57" s="12">
-        <f t="shared" si="6"/>
-        <v>0.51078465803676587</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B58" s="5">
-        <f t="shared" si="7"/>
-        <v>300</v>
-      </c>
-      <c r="C58" s="5">
-        <f t="shared" si="4"/>
-        <v>5.2359877559829888</v>
-      </c>
-      <c r="D58" s="13">
-        <f t="shared" si="5"/>
-        <v>-0.8660254037844386</v>
-      </c>
-      <c r="E58" s="12">
-        <f t="shared" si="6"/>
-        <v>1.2978419684550389</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B59" s="5">
-        <f t="shared" si="7"/>
-        <v>320</v>
-      </c>
-      <c r="C59" s="5">
-        <f t="shared" si="4"/>
-        <v>5.5850536063818543</v>
-      </c>
-      <c r="D59" s="13">
-        <f t="shared" si="5"/>
-        <v>-0.64278760968653958</v>
-      </c>
-      <c r="E59" s="12">
-        <f t="shared" si="6"/>
-        <v>1.4776245979263898</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B60" s="5">
-        <f t="shared" si="7"/>
-        <v>340</v>
-      </c>
-      <c r="C60" s="5">
-        <f t="shared" si="4"/>
-        <v>5.9341194567807207</v>
-      </c>
-      <c r="D60" s="13">
-        <f t="shared" si="5"/>
-        <v>-0.3420201433256686</v>
-      </c>
-      <c r="E60" s="12">
-        <f t="shared" si="6"/>
-        <v>0.96601025605981117</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B61" s="5">
-        <f t="shared" si="7"/>
-        <v>360</v>
-      </c>
-      <c r="C61" s="5">
-        <f t="shared" si="4"/>
-        <v>6.2831853071795862</v>
-      </c>
-      <c r="D61" s="13">
-        <f t="shared" si="5"/>
-        <v>-2.45029690981724E-16</v>
-      </c>
-      <c r="E61" s="12">
-        <f t="shared" si="6"/>
-        <v>2.3889793747303113E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B62" s="5">
-        <f t="shared" si="7"/>
-        <v>380</v>
-      </c>
-      <c r="C62" s="5">
-        <f t="shared" si="4"/>
-        <v>6.6322511575784526</v>
-      </c>
-      <c r="D62" s="13">
-        <f t="shared" si="5"/>
-        <v>0.34202014332566893</v>
-      </c>
-      <c r="E62" s="12">
-        <f t="shared" si="6"/>
-        <v>-0.96235012731033498</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B63" s="5">
-        <f t="shared" si="7"/>
-        <v>400</v>
-      </c>
-      <c r="C63" s="5">
-        <f t="shared" si="4"/>
-        <v>6.9813170079773181</v>
-      </c>
-      <c r="D63" s="13">
-        <f t="shared" si="5"/>
-        <v>0.64278760968653914</v>
-      </c>
-      <c r="E63" s="12">
-        <f t="shared" si="6"/>
-        <v>-1.4767949140965779</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B64" s="5">
-        <f t="shared" si="7"/>
-        <v>420</v>
-      </c>
-      <c r="C64" s="5">
-        <f t="shared" si="4"/>
-        <v>7.3303828583761845</v>
-      </c>
-      <c r="D64" s="13">
-        <f t="shared" si="5"/>
-        <v>0.86602540378443882</v>
-      </c>
-      <c r="E64" s="12">
-        <f t="shared" si="6"/>
-        <v>-1.3002309478297678</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B65" s="5">
-        <f t="shared" si="7"/>
-        <v>440</v>
-      </c>
-      <c r="C65" s="5">
-        <f t="shared" si="4"/>
-        <v>7.67944870877505</v>
-      </c>
-      <c r="D65" s="13">
-        <f t="shared" si="5"/>
-        <v>0.98480775301220802</v>
-      </c>
-      <c r="E65" s="12">
-        <f t="shared" si="6"/>
-        <v>-0.51527447061605347</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B66" s="5">
-        <f t="shared" si="7"/>
-        <v>460</v>
-      </c>
-      <c r="C66" s="5">
-        <f t="shared" si="4"/>
-        <v>8.0285145591739155</v>
-      </c>
-      <c r="D66" s="13">
-        <f t="shared" si="5"/>
-        <v>0.98480775301220813</v>
-      </c>
-      <c r="E66" s="12">
-        <f t="shared" si="6"/>
-        <v>0.51078465803676543</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B67" s="5">
-        <f t="shared" si="7"/>
-        <v>480</v>
-      </c>
-      <c r="C67" s="5">
-        <f t="shared" si="4"/>
-        <v>8.3775804095727811</v>
-      </c>
-      <c r="D67" s="13">
-        <f t="shared" si="5"/>
-        <v>0.86602540378443915</v>
-      </c>
-      <c r="E67" s="12">
-        <f t="shared" si="6"/>
-        <v>1.2978419684550373</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B68" s="5">
-        <f t="shared" si="7"/>
-        <v>500</v>
-      </c>
-      <c r="C68" s="5">
-        <f t="shared" si="4"/>
-        <v>8.7266462599716466</v>
-      </c>
-      <c r="D68" s="13">
-        <f t="shared" si="5"/>
-        <v>0.64278760968654036</v>
-      </c>
-      <c r="E68" s="12">
-        <f t="shared" si="6"/>
-        <v>1.4776245979263904</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B69" s="5">
-        <f t="shared" si="7"/>
-        <v>520</v>
-      </c>
-      <c r="C69" s="5">
-        <f t="shared" si="4"/>
-        <v>9.0757121103705138</v>
-      </c>
-      <c r="D69" s="13">
-        <f t="shared" si="5"/>
-        <v>0.34202014332566871</v>
-      </c>
-      <c r="E69" s="12">
-        <f t="shared" si="6"/>
-        <v>0.96601025605981139</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B70" s="5">
-        <f t="shared" si="7"/>
-        <v>540</v>
-      </c>
-      <c r="C70" s="5">
-        <f t="shared" si="4"/>
-        <v>9.4247779607693793</v>
-      </c>
-      <c r="D70" s="13">
-        <f t="shared" si="5"/>
-        <v>3.67544536472586E-16</v>
-      </c>
-      <c r="E70" s="12">
-        <f t="shared" si="6"/>
-        <v>2.3889793747306791E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B71" s="5">
-        <f t="shared" si="7"/>
-        <v>560</v>
-      </c>
-      <c r="C71" s="5">
-        <f t="shared" ref="C71:C79" si="8">2*PI()*B71/360</f>
-        <v>9.7738438111682449</v>
-      </c>
-      <c r="D71" s="13">
-        <f t="shared" ref="D71:D79" si="9">SIN(C71)</f>
-        <v>-0.34202014332566799</v>
-      </c>
-      <c r="E71" s="12">
-        <f t="shared" ref="E71:E79" si="10">$E$2*SIN($E$4*C71+$E$3)</f>
-        <v>-0.96235012731033487</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B72" s="5">
-        <f t="shared" ref="B72:B79" si="11">B71+$B$4</f>
-        <v>580</v>
-      </c>
-      <c r="C72" s="5">
-        <f t="shared" si="8"/>
-        <v>10.12290966156711</v>
-      </c>
-      <c r="D72" s="13">
-        <f t="shared" si="9"/>
-        <v>-0.64278760968653836</v>
-      </c>
-      <c r="E72" s="12">
-        <f t="shared" si="10"/>
-        <v>-1.4767949140965779</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B73" s="5">
-        <f t="shared" si="11"/>
-        <v>600</v>
-      </c>
-      <c r="C73" s="5">
-        <f t="shared" si="8"/>
-        <v>10.471975511965978</v>
-      </c>
-      <c r="D73" s="13">
-        <f t="shared" si="9"/>
-        <v>-0.86602540378443871</v>
-      </c>
-      <c r="E73" s="12">
-        <f t="shared" si="10"/>
-        <v>-1.300230947829768</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B74" s="5">
-        <f t="shared" si="11"/>
-        <v>620</v>
-      </c>
-      <c r="C74" s="5">
-        <f t="shared" si="8"/>
-        <v>10.821041362364843</v>
-      </c>
-      <c r="D74" s="13">
-        <f t="shared" si="9"/>
-        <v>-0.98480775301220802</v>
-      </c>
-      <c r="E74" s="12">
-        <f t="shared" si="10"/>
-        <v>-0.5152744706160538</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B75" s="5">
-        <f t="shared" si="11"/>
-        <v>640</v>
-      </c>
-      <c r="C75" s="5">
-        <f t="shared" si="8"/>
-        <v>11.170107212763709</v>
-      </c>
-      <c r="D75" s="13">
-        <f t="shared" si="9"/>
-        <v>-0.98480775301220813</v>
-      </c>
-      <c r="E75" s="12">
-        <f t="shared" si="10"/>
-        <v>0.51078465803676509</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B76" s="5">
-        <f t="shared" si="11"/>
-        <v>660</v>
-      </c>
-      <c r="C76" s="5">
-        <f t="shared" si="8"/>
-        <v>11.519173063162574</v>
-      </c>
-      <c r="D76" s="13">
-        <f t="shared" si="9"/>
-        <v>-0.86602540378443915</v>
-      </c>
-      <c r="E76" s="12">
-        <f t="shared" si="10"/>
-        <v>1.2978419684550371</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B77" s="5">
-        <f t="shared" si="11"/>
-        <v>680</v>
-      </c>
-      <c r="C77" s="5">
-        <f t="shared" si="8"/>
-        <v>11.868238913561441</v>
-      </c>
-      <c r="D77" s="13">
-        <f t="shared" si="9"/>
-        <v>-0.64278760968653903</v>
-      </c>
-      <c r="E77" s="12">
-        <f t="shared" si="10"/>
-        <v>1.4776245979263896</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B78" s="5">
-        <f t="shared" si="11"/>
-        <v>700</v>
-      </c>
-      <c r="C78" s="5">
-        <f t="shared" si="8"/>
-        <v>12.217304763960305</v>
-      </c>
-      <c r="D78" s="13">
-        <f t="shared" si="9"/>
-        <v>-0.34202014332567049</v>
-      </c>
-      <c r="E78" s="12">
-        <f t="shared" si="10"/>
-        <v>0.96601025605981583</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B79" s="5">
-        <f t="shared" si="11"/>
-        <v>720</v>
-      </c>
-      <c r="C79" s="5">
-        <f t="shared" si="8"/>
-        <v>12.566370614359172</v>
-      </c>
-      <c r="D79" s="13">
-        <f t="shared" si="9"/>
-        <v>-4.90059381963448E-16</v>
-      </c>
-      <c r="E79" s="12">
-        <f t="shared" si="10"/>
-        <v>2.3889793747310464E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7384F8D4-2EE4-402A-A3D1-82575B13571C}">
-  <dimension ref="A2:E55"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="13.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="17">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="17">
-        <v>20</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="5">
-        <v>-360</v>
-      </c>
-      <c r="C5" s="5">
-        <f t="shared" ref="C5:C36" si="0">2*PI()*B5/360</f>
-        <v>-6.2831853071795862</v>
-      </c>
-      <c r="D5" s="5">
-        <f t="shared" ref="D5:D36" si="1">SIN(C5)</f>
-        <v>2.45029690981724E-16</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" ref="E5:E36" si="2">$E$2*SIN(C5+$E$3)</f>
-        <v>0.71913830790630484</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="5">
-        <f t="shared" ref="B6:B37" si="3">B5+$B$3</f>
-        <v>-340</v>
-      </c>
-      <c r="C6" s="5">
-        <f t="shared" si="0"/>
-        <v>-5.9341194567807207</v>
-      </c>
-      <c r="D6" s="5">
-        <f t="shared" si="1"/>
-        <v>0.3420201433256686</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="2"/>
-        <v>1.1259953316607978</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="5">
-        <f t="shared" si="3"/>
-        <v>-320</v>
-      </c>
-      <c r="C7" s="5">
-        <f t="shared" si="0"/>
-        <v>-5.5850536063818543</v>
-      </c>
-      <c r="D7" s="5">
-        <f t="shared" si="1"/>
-        <v>0.64278760968653958</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="2"/>
-        <v>1.3970407004957626</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="5">
-        <f t="shared" si="3"/>
-        <v>-300</v>
-      </c>
-      <c r="C8" s="5">
-        <f t="shared" si="0"/>
-        <v>-5.2359877559829888</v>
-      </c>
-      <c r="D8" s="5">
-        <f t="shared" si="1"/>
-        <v>0.8660254037844386</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="2"/>
-        <v>1.4995823427260906</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="5">
-        <f t="shared" si="3"/>
-        <v>-280</v>
-      </c>
-      <c r="C9" s="5">
-        <f t="shared" si="0"/>
-        <v>-4.8869219055841224</v>
-      </c>
-      <c r="D9" s="5">
-        <f t="shared" si="1"/>
-        <v>0.98480775301220813</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="2"/>
-        <v>1.4212522229453417</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="5">
-        <f t="shared" si="3"/>
-        <v>-260</v>
-      </c>
-      <c r="C10" s="5">
-        <f t="shared" si="0"/>
-        <v>-4.5378560551852569</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" si="1"/>
-        <v>0.98480775301220802</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="2"/>
-        <v>1.1714981096285229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="5">
-        <f t="shared" si="3"/>
-        <v>-240</v>
-      </c>
-      <c r="C11" s="5">
-        <f t="shared" si="0"/>
-        <v>-4.1887902047863905</v>
-      </c>
-      <c r="D11" s="5">
-        <f t="shared" si="1"/>
-        <v>0.86602540378443837</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="2"/>
-        <v>0.78044403481978541</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="5">
-        <f t="shared" si="3"/>
-        <v>-220</v>
-      </c>
-      <c r="C12" s="5">
-        <f t="shared" si="0"/>
-        <v>-3.839724354387525</v>
-      </c>
-      <c r="D12" s="5">
-        <f t="shared" si="1"/>
-        <v>0.64278760968653925</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="2"/>
-        <v>0.29525689128454391</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="5">
-        <f t="shared" si="3"/>
-        <v>-200</v>
-      </c>
-      <c r="C13" s="5">
-        <f t="shared" si="0"/>
-        <v>-3.4906585039886591</v>
-      </c>
-      <c r="D13" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34202014332566866</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.22554259086723971</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="5">
-        <f t="shared" si="3"/>
-        <v>-180</v>
-      </c>
-      <c r="C14" s="5">
-        <f t="shared" si="0"/>
-        <v>-3.1415926535897931</v>
-      </c>
-      <c r="D14" s="5">
-        <f t="shared" si="1"/>
-        <v>-1.22514845490862E-16</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.71913830790630473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="5">
-        <f t="shared" si="3"/>
-        <v>-160</v>
-      </c>
-      <c r="C15" s="5">
-        <f t="shared" si="0"/>
-        <v>-2.7925268031909272</v>
-      </c>
-      <c r="D15" s="5">
-        <f t="shared" si="1"/>
-        <v>-0.34202014332566888</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.1259953316607982</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="5">
-        <f t="shared" si="3"/>
-        <v>-140</v>
-      </c>
-      <c r="C16" s="5">
-        <f t="shared" si="0"/>
-        <v>-2.4434609527920612</v>
-      </c>
-      <c r="D16" s="5">
-        <f t="shared" si="1"/>
-        <v>-0.64278760968653947</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.3970407004957626</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="5">
-        <f t="shared" si="3"/>
-        <v>-120</v>
-      </c>
-      <c r="C17" s="5">
-        <f t="shared" si="0"/>
-        <v>-2.0943951023931953</v>
-      </c>
-      <c r="D17" s="5">
-        <f t="shared" si="1"/>
-        <v>-0.86602540378443871</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.4995823427260906</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="5">
-        <f t="shared" si="3"/>
-        <v>-100</v>
-      </c>
-      <c r="C18" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.7453292519943295</v>
-      </c>
-      <c r="D18" s="5">
-        <f t="shared" si="1"/>
-        <v>-0.98480775301220802</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.4212522229453419</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="5">
-        <f t="shared" si="3"/>
-        <v>-80</v>
-      </c>
-      <c r="C19" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.3962634015954636</v>
-      </c>
-      <c r="D19" s="5">
-        <f t="shared" si="1"/>
-        <v>-0.98480775301220802</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.1714981096285226</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="5">
-        <f t="shared" si="3"/>
-        <v>-60</v>
-      </c>
-      <c r="C20" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.0471975511965976</v>
-      </c>
-      <c r="D20" s="5">
-        <f t="shared" si="1"/>
-        <v>-0.8660254037844386</v>
-      </c>
-      <c r="E20" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.78044403481978586</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="5">
-        <f t="shared" si="3"/>
-        <v>-40</v>
-      </c>
-      <c r="C21" s="5">
-        <f t="shared" si="0"/>
-        <v>-0.69813170079773179</v>
-      </c>
-      <c r="D21" s="5">
-        <f t="shared" si="1"/>
-        <v>-0.64278760968653925</v>
-      </c>
-      <c r="E21" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.29525689128454397</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="5">
-        <f t="shared" si="3"/>
-        <v>-20</v>
-      </c>
-      <c r="C22" s="5">
-        <f t="shared" si="0"/>
-        <v>-0.3490658503988659</v>
-      </c>
-      <c r="D22" s="5">
-        <f t="shared" si="1"/>
-        <v>-0.34202014332566871</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" si="2"/>
-        <v>0.2255425908672396</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C23" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="5">
-        <f t="shared" si="2"/>
-        <v>0.71913830790630451</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="5">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="C24" s="5">
-        <f t="shared" si="0"/>
-        <v>0.3490658503988659</v>
-      </c>
-      <c r="D24" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34202014332566871</v>
-      </c>
-      <c r="E24" s="5">
-        <f t="shared" si="2"/>
-        <v>1.125995331660798</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="5">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="C25" s="5">
-        <f t="shared" si="0"/>
-        <v>0.69813170079773179</v>
-      </c>
-      <c r="D25" s="5">
-        <f t="shared" si="1"/>
-        <v>0.64278760968653925</v>
-      </c>
-      <c r="E25" s="5">
-        <f t="shared" si="2"/>
-        <v>1.3970407004957626</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="5">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="C26" s="5">
-        <f t="shared" si="0"/>
-        <v>1.0471975511965976</v>
-      </c>
-      <c r="D26" s="5">
-        <f t="shared" si="1"/>
-        <v>0.8660254037844386</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" si="2"/>
-        <v>1.4995823427260906</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="5">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="C27" s="5">
-        <f t="shared" si="0"/>
-        <v>1.3962634015954636</v>
-      </c>
-      <c r="D27" s="5">
-        <f t="shared" si="1"/>
-        <v>0.98480775301220802</v>
-      </c>
-      <c r="E27" s="5">
-        <f t="shared" si="2"/>
-        <v>1.4212522229453421</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B28" s="5">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="C28" s="5">
-        <f t="shared" si="0"/>
-        <v>1.7453292519943295</v>
-      </c>
-      <c r="D28" s="5">
-        <f t="shared" si="1"/>
-        <v>0.98480775301220802</v>
-      </c>
-      <c r="E28" s="5">
-        <f t="shared" si="2"/>
-        <v>1.1714981096285231</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="5">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="C29" s="5">
-        <f t="shared" si="0"/>
-        <v>2.0943951023931953</v>
-      </c>
-      <c r="D29" s="5">
-        <f t="shared" si="1"/>
-        <v>0.86602540378443871</v>
-      </c>
-      <c r="E29" s="5">
-        <f t="shared" si="2"/>
-        <v>0.78044403481978619</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B30" s="5">
-        <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="C30" s="5">
-        <f t="shared" si="0"/>
-        <v>2.4434609527920612</v>
-      </c>
-      <c r="D30" s="5">
-        <f t="shared" si="1"/>
-        <v>0.64278760968653947</v>
-      </c>
-      <c r="E30" s="5">
-        <f t="shared" si="2"/>
-        <v>0.2952568912845443</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B31" s="5">
-        <f t="shared" si="3"/>
-        <v>160</v>
-      </c>
-      <c r="C31" s="5">
-        <f t="shared" si="0"/>
-        <v>2.7925268031909272</v>
-      </c>
-      <c r="D31" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34202014332566888</v>
-      </c>
-      <c r="E31" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.22554259086723932</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B32" s="5">
-        <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="C32" s="5">
-        <f t="shared" si="0"/>
-        <v>3.1415926535897931</v>
-      </c>
-      <c r="D32" s="5">
-        <f t="shared" si="1"/>
-        <v>1.22514845490862E-16</v>
-      </c>
-      <c r="E32" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.71913830790630429</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B33" s="5">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="C33" s="5">
-        <f t="shared" si="0"/>
-        <v>3.4906585039886591</v>
-      </c>
-      <c r="D33" s="5">
-        <f t="shared" si="1"/>
-        <v>-0.34202014332566866</v>
-      </c>
-      <c r="E33" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.125995331660798</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B34" s="5">
-        <f t="shared" si="3"/>
-        <v>220</v>
-      </c>
-      <c r="C34" s="5">
-        <f t="shared" si="0"/>
-        <v>3.839724354387525</v>
-      </c>
-      <c r="D34" s="5">
-        <f t="shared" si="1"/>
-        <v>-0.64278760968653925</v>
-      </c>
-      <c r="E34" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.3970407004957623</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B35" s="5">
-        <f t="shared" si="3"/>
-        <v>240</v>
-      </c>
-      <c r="C35" s="5">
-        <f t="shared" si="0"/>
-        <v>4.1887902047863905</v>
-      </c>
-      <c r="D35" s="5">
-        <f t="shared" si="1"/>
-        <v>-0.86602540378443837</v>
-      </c>
-      <c r="E35" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.4995823427260906</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B36" s="5">
-        <f t="shared" si="3"/>
-        <v>260</v>
-      </c>
-      <c r="C36" s="5">
-        <f t="shared" si="0"/>
-        <v>4.5378560551852569</v>
-      </c>
-      <c r="D36" s="5">
-        <f t="shared" si="1"/>
-        <v>-0.98480775301220802</v>
-      </c>
-      <c r="E36" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.4212522229453421</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B37" s="5">
-        <f t="shared" si="3"/>
-        <v>280</v>
-      </c>
-      <c r="C37" s="5">
-        <f t="shared" ref="C37:C55" si="4">2*PI()*B37/360</f>
-        <v>4.8869219055841224</v>
-      </c>
-      <c r="D37" s="5">
-        <f t="shared" ref="D37:D55" si="5">SIN(C37)</f>
-        <v>-0.98480775301220813</v>
-      </c>
-      <c r="E37" s="5">
-        <f t="shared" ref="E37:E55" si="6">$E$2*SIN(C37+$E$3)</f>
-        <v>-1.1714981096285233</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B38" s="5">
-        <f t="shared" ref="B38:B55" si="7">B37+$B$3</f>
-        <v>300</v>
-      </c>
-      <c r="C38" s="5">
-        <f t="shared" si="4"/>
-        <v>5.2359877559829888</v>
-      </c>
-      <c r="D38" s="5">
-        <f t="shared" si="5"/>
-        <v>-0.8660254037844386</v>
-      </c>
-      <c r="E38" s="5">
-        <f t="shared" si="6"/>
-        <v>-0.78044403481978586</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B39" s="5">
-        <f t="shared" si="7"/>
-        <v>320</v>
-      </c>
-      <c r="C39" s="5">
-        <f t="shared" si="4"/>
-        <v>5.5850536063818543</v>
-      </c>
-      <c r="D39" s="5">
-        <f t="shared" si="5"/>
-        <v>-0.64278760968653958</v>
-      </c>
-      <c r="E39" s="5">
-        <f t="shared" si="6"/>
-        <v>-0.29525689128454446</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B40" s="5">
-        <f t="shared" si="7"/>
-        <v>340</v>
-      </c>
-      <c r="C40" s="5">
-        <f t="shared" si="4"/>
-        <v>5.9341194567807207</v>
-      </c>
-      <c r="D40" s="5">
-        <f t="shared" si="5"/>
-        <v>-0.3420201433256686</v>
-      </c>
-      <c r="E40" s="5">
-        <f t="shared" si="6"/>
-        <v>0.22554259086723982</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B41" s="5">
-        <f t="shared" si="7"/>
-        <v>360</v>
-      </c>
-      <c r="C41" s="5">
-        <f t="shared" si="4"/>
-        <v>6.2831853071795862</v>
-      </c>
-      <c r="D41" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.45029690981724E-16</v>
-      </c>
-      <c r="E41" s="5">
-        <f t="shared" si="6"/>
-        <v>0.71913830790630417</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B42" s="5">
-        <f t="shared" si="7"/>
-        <v>380</v>
-      </c>
-      <c r="C42" s="5">
-        <f t="shared" si="4"/>
-        <v>6.6322511575784526</v>
-      </c>
-      <c r="D42" s="5">
-        <f t="shared" si="5"/>
-        <v>0.34202014332566893</v>
-      </c>
-      <c r="E42" s="5">
-        <f t="shared" si="6"/>
-        <v>1.1259953316607985</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B43" s="5">
-        <f t="shared" si="7"/>
-        <v>400</v>
-      </c>
-      <c r="C43" s="5">
-        <f t="shared" si="4"/>
-        <v>6.9813170079773181</v>
-      </c>
-      <c r="D43" s="5">
-        <f t="shared" si="5"/>
-        <v>0.64278760968653914</v>
-      </c>
-      <c r="E43" s="5">
-        <f t="shared" si="6"/>
-        <v>1.3970407004957623</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B44" s="5">
-        <f t="shared" si="7"/>
-        <v>420</v>
-      </c>
-      <c r="C44" s="5">
-        <f t="shared" si="4"/>
-        <v>7.3303828583761845</v>
-      </c>
-      <c r="D44" s="5">
-        <f t="shared" si="5"/>
-        <v>0.86602540378443882</v>
-      </c>
-      <c r="E44" s="5">
-        <f t="shared" si="6"/>
-        <v>1.4995823427260906</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B45" s="5">
-        <f t="shared" si="7"/>
-        <v>440</v>
-      </c>
-      <c r="C45" s="5">
-        <f t="shared" si="4"/>
-        <v>7.67944870877505</v>
-      </c>
-      <c r="D45" s="5">
-        <f t="shared" si="5"/>
-        <v>0.98480775301220802</v>
-      </c>
-      <c r="E45" s="5">
-        <f t="shared" si="6"/>
-        <v>1.4212522229453421</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B46" s="5">
-        <f t="shared" si="7"/>
-        <v>460</v>
-      </c>
-      <c r="C46" s="5">
-        <f t="shared" si="4"/>
-        <v>8.0285145591739155</v>
-      </c>
-      <c r="D46" s="5">
-        <f t="shared" si="5"/>
-        <v>0.98480775301220813</v>
-      </c>
-      <c r="E46" s="5">
-        <f t="shared" si="6"/>
-        <v>1.1714981096285233</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B47" s="5">
-        <f t="shared" si="7"/>
-        <v>480</v>
-      </c>
-      <c r="C47" s="5">
-        <f t="shared" si="4"/>
-        <v>8.3775804095727811</v>
-      </c>
-      <c r="D47" s="5">
-        <f t="shared" si="5"/>
-        <v>0.86602540378443915</v>
-      </c>
-      <c r="E47" s="5">
-        <f t="shared" si="6"/>
-        <v>0.78044403481978719</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B48" s="5">
-        <f t="shared" si="7"/>
-        <v>500</v>
-      </c>
-      <c r="C48" s="5">
-        <f t="shared" si="4"/>
-        <v>8.7266462599716466</v>
-      </c>
-      <c r="D48" s="5">
-        <f t="shared" si="5"/>
-        <v>0.64278760968654036</v>
-      </c>
-      <c r="E48" s="5">
-        <f t="shared" si="6"/>
-        <v>0.29525689128454596</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B49" s="5">
-        <f t="shared" si="7"/>
-        <v>520</v>
-      </c>
-      <c r="C49" s="5">
-        <f t="shared" si="4"/>
-        <v>9.0757121103705138</v>
-      </c>
-      <c r="D49" s="5">
-        <f t="shared" si="5"/>
-        <v>0.34202014332566871</v>
-      </c>
-      <c r="E49" s="5">
-        <f t="shared" si="6"/>
-        <v>-0.2255425908672396</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B50" s="5">
-        <f t="shared" si="7"/>
-        <v>540</v>
-      </c>
-      <c r="C50" s="5">
-        <f t="shared" si="4"/>
-        <v>9.4247779607693793</v>
-      </c>
-      <c r="D50" s="5">
-        <f t="shared" si="5"/>
-        <v>3.67544536472586E-16</v>
-      </c>
-      <c r="E50" s="5">
-        <f t="shared" si="6"/>
-        <v>-0.71913830790630406</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B51" s="5">
-        <f t="shared" si="7"/>
-        <v>560</v>
-      </c>
-      <c r="C51" s="5">
-        <f t="shared" si="4"/>
-        <v>9.7738438111682449</v>
-      </c>
-      <c r="D51" s="5">
-        <f t="shared" si="5"/>
-        <v>-0.34202014332566799</v>
-      </c>
-      <c r="E51" s="5">
-        <f t="shared" si="6"/>
-        <v>-1.1259953316607973</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B52" s="5">
-        <f t="shared" si="7"/>
-        <v>580</v>
-      </c>
-      <c r="C52" s="5">
-        <f t="shared" si="4"/>
-        <v>10.12290966156711</v>
-      </c>
-      <c r="D52" s="5">
-        <f t="shared" si="5"/>
-        <v>-0.64278760968653836</v>
-      </c>
-      <c r="E52" s="5">
-        <f t="shared" si="6"/>
-        <v>-1.3970407004957617</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B53" s="5">
-        <f t="shared" si="7"/>
-        <v>600</v>
-      </c>
-      <c r="C53" s="5">
-        <f t="shared" si="4"/>
-        <v>10.471975511965978</v>
-      </c>
-      <c r="D53" s="5">
-        <f t="shared" si="5"/>
-        <v>-0.86602540378443871</v>
-      </c>
-      <c r="E53" s="5">
-        <f t="shared" si="6"/>
-        <v>-1.4995823427260906</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B54" s="5">
-        <f t="shared" si="7"/>
-        <v>620</v>
-      </c>
-      <c r="C54" s="5">
-        <f t="shared" si="4"/>
-        <v>10.821041362364843</v>
-      </c>
-      <c r="D54" s="5">
-        <f t="shared" si="5"/>
-        <v>-0.98480775301220802</v>
-      </c>
-      <c r="E54" s="5">
-        <f t="shared" si="6"/>
-        <v>-1.4212522229453421</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B55" s="5">
-        <f t="shared" si="7"/>
-        <v>640</v>
-      </c>
-      <c r="C55" s="5">
-        <f t="shared" si="4"/>
-        <v>11.170107212763709</v>
-      </c>
-      <c r="D55" s="5">
-        <f t="shared" si="5"/>
-        <v>-0.98480775301220813</v>
-      </c>
-      <c r="E55" s="5">
-        <f t="shared" si="6"/>
-        <v>-1.1714981096285233</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>